--- a/S1 Keperawatan/RPL/RPL 3/Transkip Nilai RPL3.xlsx
+++ b/S1 Keperawatan/RPL/RPL 3/Transkip Nilai RPL3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Documents\Stikes\transkip_nilai_2025\S1 Keperawatan\RPL\RPL 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3092812B-ACEA-499F-84D1-8E051AA5CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B279F7D-6031-436E-8AF0-38AEC2C17BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6728395-340D-414D-8D40-C463D1B813FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="196">
   <si>
     <t>NO</t>
   </si>
@@ -572,6 +572,60 @@
   <si>
     <t>Pengaruh intradialitik exercise terhadap fatigue pada pasien gagal ginjal kronik yang menjalani terapi hemodialisa di rsud natuna</t>
   </si>
+  <si>
+    <t>PENGARUH PENDIDIKAN KESEHATAN MENGGUNAKAN VIDIO TERHADAP KECEMASAN IBU PRE OPERASI SECTIO CAESAREA DI RUMAH SAKIT UMUM DAERAH NATUNA</t>
+  </si>
+  <si>
+    <t>HUBUNGAN LAMA MENDERITA DENGAN KUALITAS HIDUP PASIEN DIABETES MELITUS TIPE II DI RAWAT INAP RSUD NATUNA</t>
+  </si>
+  <si>
+    <t>HUBUNGAN PERAN SERTA KADER LANSIA DAN DUKUNGAN KELUARGA TERHADAP KUNJUNGAN LANSIA KE POSYANDU LANSIA DI WILAYAH KERJA UPTD PUSKESMAS SEDANAU TAHUN 2025</t>
+  </si>
+  <si>
+    <t>PENGARUH PEMAKAIAN BLANKET WARMER TERHADAP HIPOTERMIA PASCA OPERASI DI RECOVERY ROOM RUMAH SAKIT UMUM DAERAH NATUNA</t>
+  </si>
+  <si>
+    <t>Faktor-faktor yang berhubungan dengan kejadian ISPA pada Balita di wilayah Puskesmas Bunguran Tengah</t>
+  </si>
+  <si>
+    <t>Pengaruh persiapan kulit praoperasi menggunakan klorheksidin 0,5% terhadap proses penyembuhan luka fase inflamasi pada pasien pasca-laparatomi di RSUD Natuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pengaruh edukasi pola hidup sehat pada remaja terhadap tingkat pengetahuan pencegahan Dini hipertensi di kecamatan pulau laut </t>
+  </si>
+  <si>
+    <t>Hubungan Literasi Kesehatan dan Self Efficacy dengan Kepatuhan Minum Tablet Tambah Darah pada Remaja Putri di SLTA Bunguran Barat Wilayah Kerja Puskesmas Sedanau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hubungan Ansietas dengan Fatigue pada Pasien Chronic Kidney Disease (CKD) Stadium V yang Menjalani Hemodialisis di RSUD Natuna </t>
+  </si>
+  <si>
+    <t>HUBUNGAN PERAN KELUARGA DENGAN KEPATUHAN MINUM OBAT PADA LANSIA HIPERTENSI DI KELURAHAN RANAI KOTA</t>
+  </si>
+  <si>
+    <t>Hubungan Life Style Dengan Resiko Terjadinya Hipertensi Pada Remaja di Wilayah Kerja Puskesmas Ranai</t>
+  </si>
+  <si>
+    <t>FAKTOR-FAKTOR YANG BERHUBUNGAN DENGAN KUNJUNGAN BALITA KE POSYANDU DI WILAYAH KERJA PUSKESMAS RANAI</t>
+  </si>
+  <si>
+    <t>Hubungan Kehadiran Orang Tua dengan Kecemasan Anak Saat Pemberian Obat Intravena Line di Ruang Rawat Inap Anak RSUD Natuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUBUNGAN KEPATUHAN MINUM OBAT DENGAN KEKAMBUHAN PADA PASIEN SKIZOFRENIA
+DI WILAYAH KABUPATEN NATUNA
+TAHUN 2025
+</t>
+  </si>
+  <si>
+    <t>Hubungan Dukungan Keluarga Dengan Kualitas Hidup Pasien Gagal Ginjal Kronik (Stadium V) yang Menjalani Hemodialisa di RSUD Natuna</t>
+  </si>
+  <si>
+    <t>HUBUNGAN PENGETAHUAN IBU DENGAN KEPATUHAN KELENGKAPAN IMUNISASI LANJUTAN PADA BALITA DI WILAYAH KERJA PUSKESMAS RANAI KECAMATAN BUNGURAN TIMUR KABUPATEN NATUNA</t>
+  </si>
+  <si>
+    <t>HUBUNGAN KECEMASAN DENGAN KEJADIAN HIPERTENSI PADA LANSIA PEREMPUAN DI WILAYAH KERJA UPTD PUSKESMAS SEDANAU</t>
+  </si>
 </sst>
 </file>
 
@@ -618,7 +672,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -634,6 +688,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -718,22 +778,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1051,10 +1150,10 @@
   <dimension ref="A1:DV54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="DD3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="DD24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DT26" sqref="DT26"/>
+      <selection pane="bottomRight" activeCell="C57" activeCellId="1" sqref="A50:XFD50 C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,25 +1184,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>74</v>
       </c>
       <c r="H1" s="20" t="s">
@@ -1260,40 +1359,40 @@
       <c r="DK1" s="20"/>
       <c r="DL1" s="20"/>
       <c r="DM1" s="20"/>
-      <c r="DN1" s="21" t="s">
+      <c r="DN1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="DO1" s="21"/>
+      <c r="DO1" s="19"/>
       <c r="DP1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="DQ1" s="21" t="s">
+      <c r="DQ1" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="DR1" s="21" t="s">
+      <c r="DR1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="DS1" s="18" t="s">
+      <c r="DS1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="DT1" s="19" t="s">
+      <c r="DT1" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="DU1" s="19" t="s">
+      <c r="DU1" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="DV1" s="19" t="s">
+      <c r="DV1" s="23" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1631,12 +1730,12 @@
         <v>92</v>
       </c>
       <c r="DP2" s="1"/>
-      <c r="DQ2" s="21"/>
-      <c r="DR2" s="21"/>
-      <c r="DS2" s="18"/>
-      <c r="DT2" s="19"/>
-      <c r="DU2" s="19"/>
-      <c r="DV2" s="19"/>
+      <c r="DQ2" s="19"/>
+      <c r="DR2" s="19"/>
+      <c r="DS2" s="22"/>
+      <c r="DT2" s="23"/>
+      <c r="DU2" s="23"/>
+      <c r="DV2" s="23"/>
     </row>
     <row r="3" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
@@ -3418,7 +3517,7 @@
         <f t="shared" si="67"/>
         <v>Excellent</v>
       </c>
-      <c r="DV6" s="23" t="s">
+      <c r="DV6" s="18" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3864,7 +3963,7 @@
         <f t="shared" si="67"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DV7" s="23" t="s">
+      <c r="DV7" s="18" t="s">
         <v>167</v>
       </c>
     </row>
@@ -6532,7 +6631,9 @@
         <f t="shared" si="67"/>
         <v>Excellent</v>
       </c>
-      <c r="DV13" s="17"/>
+      <c r="DV13" s="17" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="14" spans="1:126" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
@@ -8744,7 +8845,7 @@
         <f t="shared" si="67"/>
         <v>Excellent</v>
       </c>
-      <c r="DV18" s="23" t="s">
+      <c r="DV18" s="18" t="s">
         <v>173</v>
       </c>
     </row>
@@ -11854,7 +11955,7 @@
       <c r="A26" s="10">
         <v>24</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="24" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="15">
@@ -12736,7 +12837,7 @@
       <c r="A28" s="10">
         <v>26</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="24" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="15">
@@ -13172,7 +13273,7 @@
       <c r="A29" s="10">
         <v>27</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="15">
@@ -13604,449 +13705,449 @@
       </c>
       <c r="DV29" s="17"/>
     </row>
-    <row r="30" spans="1:126" x14ac:dyDescent="0.2">
-      <c r="A30" s="10">
+    <row r="30" spans="1:126" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="26">
         <v>28</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="27">
         <v>182412029</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="5">
+      <c r="G30" s="27"/>
+      <c r="H30" s="30">
         <v>75.75</v>
       </c>
-      <c r="I30" s="6" t="str">
+      <c r="I30" s="31" t="str">
         <f t="shared" si="0"/>
         <v>B+</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="32">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="K30" s="5">
-        <v>2</v>
-      </c>
-      <c r="L30" s="2">
+      <c r="K30" s="30">
+        <v>2</v>
+      </c>
+      <c r="L30" s="33">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="30">
         <v>75</v>
       </c>
-      <c r="N30" s="6" t="str">
+      <c r="N30" s="31" t="str">
         <f t="shared" si="3"/>
         <v>B+</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="32">
         <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
-      <c r="P30" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q30" s="2">
+      <c r="P30" s="30">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="33">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="R30" s="5">
+      <c r="R30" s="30">
         <v>72</v>
       </c>
-      <c r="S30" s="6" t="str">
+      <c r="S30" s="31" t="str">
         <f t="shared" si="6"/>
         <v>B</v>
       </c>
-      <c r="T30" s="1">
+      <c r="T30" s="32">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="U30" s="5">
-        <v>2</v>
-      </c>
-      <c r="V30" s="2">
+      <c r="U30" s="30">
+        <v>2</v>
+      </c>
+      <c r="V30" s="33">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="W30" s="5">
+      <c r="W30" s="30">
         <v>78</v>
       </c>
-      <c r="X30" s="6" t="str">
+      <c r="X30" s="31" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
-      <c r="Y30" s="1">
+      <c r="Y30" s="32">
         <f t="shared" si="10"/>
         <v>3.5</v>
       </c>
-      <c r="Z30" s="5">
-        <v>3</v>
-      </c>
-      <c r="AA30" s="2">
+      <c r="Z30" s="30">
+        <v>3</v>
+      </c>
+      <c r="AA30" s="33">
         <f t="shared" si="11"/>
         <v>10.5</v>
       </c>
-      <c r="AB30" s="2">
+      <c r="AB30" s="33">
         <v>79.3</v>
       </c>
-      <c r="AC30" s="6" t="str">
+      <c r="AC30" s="31" t="str">
         <f t="shared" si="12"/>
         <v>B+</v>
       </c>
-      <c r="AD30" s="1">
+      <c r="AD30" s="32">
         <f t="shared" si="13"/>
         <v>3.5</v>
       </c>
-      <c r="AE30" s="2">
-        <v>2</v>
-      </c>
-      <c r="AF30" s="2">
+      <c r="AE30" s="33">
+        <v>2</v>
+      </c>
+      <c r="AF30" s="33">
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="AG30" s="2">
+      <c r="AG30" s="33">
         <v>78</v>
       </c>
-      <c r="AH30" s="6" t="str">
+      <c r="AH30" s="31" t="str">
         <f t="shared" si="15"/>
         <v>B+</v>
       </c>
-      <c r="AI30" s="1">
+      <c r="AI30" s="32">
         <f t="shared" si="16"/>
         <v>3.5</v>
       </c>
-      <c r="AJ30" s="2">
-        <v>2</v>
-      </c>
-      <c r="AK30" s="2">
+      <c r="AJ30" s="33">
+        <v>2</v>
+      </c>
+      <c r="AK30" s="33">
         <f t="shared" si="17"/>
         <v>7</v>
       </c>
-      <c r="AL30" s="2">
+      <c r="AL30" s="33">
         <v>79</v>
       </c>
-      <c r="AM30" s="6" t="str">
+      <c r="AM30" s="31" t="str">
         <f t="shared" si="18"/>
         <v>B+</v>
       </c>
-      <c r="AN30" s="1">
+      <c r="AN30" s="32">
         <f t="shared" si="19"/>
         <v>3.5</v>
       </c>
-      <c r="AO30" s="2">
-        <v>2</v>
-      </c>
-      <c r="AP30" s="2">
+      <c r="AO30" s="33">
+        <v>2</v>
+      </c>
+      <c r="AP30" s="33">
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="AQ30" s="2">
+      <c r="AQ30" s="33">
         <v>74</v>
       </c>
-      <c r="AR30" s="6" t="str">
+      <c r="AR30" s="31" t="str">
         <f t="shared" si="21"/>
         <v>B</v>
       </c>
-      <c r="AS30" s="1">
+      <c r="AS30" s="32">
         <f t="shared" si="22"/>
         <v>3</v>
       </c>
-      <c r="AT30" s="2">
-        <v>2</v>
-      </c>
-      <c r="AU30" s="2">
+      <c r="AT30" s="33">
+        <v>2</v>
+      </c>
+      <c r="AU30" s="33">
         <f t="shared" si="23"/>
         <v>6</v>
       </c>
-      <c r="AV30" s="5">
+      <c r="AV30" s="30">
         <v>78</v>
       </c>
-      <c r="AW30" s="6" t="str">
+      <c r="AW30" s="31" t="str">
         <f t="shared" si="24"/>
         <v>B+</v>
       </c>
-      <c r="AX30" s="1">
+      <c r="AX30" s="32">
         <f t="shared" si="25"/>
         <v>3.5</v>
       </c>
-      <c r="AY30" s="5">
-        <v>3</v>
-      </c>
-      <c r="AZ30" s="3">
+      <c r="AY30" s="30">
+        <v>3</v>
+      </c>
+      <c r="AZ30" s="34">
         <f t="shared" si="26"/>
         <v>10.5</v>
       </c>
-      <c r="BA30" s="5">
+      <c r="BA30" s="30">
         <v>76.25</v>
       </c>
-      <c r="BB30" s="6" t="str">
+      <c r="BB30" s="31" t="str">
         <f t="shared" si="27"/>
         <v>B+</v>
       </c>
-      <c r="BC30" s="1">
+      <c r="BC30" s="32">
         <f t="shared" si="28"/>
         <v>3.5</v>
       </c>
-      <c r="BD30" s="5">
-        <v>2</v>
-      </c>
-      <c r="BE30" s="2">
+      <c r="BD30" s="30">
+        <v>2</v>
+      </c>
+      <c r="BE30" s="33">
         <f t="shared" si="29"/>
         <v>7</v>
       </c>
-      <c r="BF30" s="5">
+      <c r="BF30" s="30">
         <v>82</v>
       </c>
-      <c r="BG30" s="6" t="str">
+      <c r="BG30" s="31" t="str">
         <f t="shared" si="30"/>
         <v>A</v>
       </c>
-      <c r="BH30" s="1">
+      <c r="BH30" s="32">
         <f t="shared" si="31"/>
         <v>4</v>
       </c>
-      <c r="BI30" s="5">
-        <v>2</v>
-      </c>
-      <c r="BJ30" s="2">
+      <c r="BI30" s="30">
+        <v>2</v>
+      </c>
+      <c r="BJ30" s="33">
         <f t="shared" si="32"/>
         <v>8</v>
       </c>
-      <c r="BK30" s="5">
+      <c r="BK30" s="30">
         <v>79.069999999999993</v>
       </c>
-      <c r="BL30" s="6" t="str">
+      <c r="BL30" s="31" t="str">
         <f t="shared" si="33"/>
         <v>B+</v>
       </c>
-      <c r="BM30" s="1">
+      <c r="BM30" s="32">
         <f t="shared" si="34"/>
         <v>3.5</v>
       </c>
-      <c r="BN30" s="5">
-        <v>2</v>
-      </c>
-      <c r="BO30" s="2">
+      <c r="BN30" s="30">
+        <v>2</v>
+      </c>
+      <c r="BO30" s="33">
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
-      <c r="BP30" s="5">
+      <c r="BP30" s="30">
         <v>79</v>
       </c>
-      <c r="BQ30" s="6" t="str">
+      <c r="BQ30" s="31" t="str">
         <f t="shared" si="36"/>
         <v>B+</v>
       </c>
-      <c r="BR30" s="1">
+      <c r="BR30" s="32">
         <f t="shared" si="37"/>
         <v>3.5</v>
       </c>
-      <c r="BS30" s="5">
-        <v>2</v>
-      </c>
-      <c r="BT30" s="2">
+      <c r="BS30" s="30">
+        <v>2</v>
+      </c>
+      <c r="BT30" s="33">
         <f t="shared" si="38"/>
         <v>7</v>
       </c>
-      <c r="BU30" s="5">
+      <c r="BU30" s="30">
         <v>82</v>
       </c>
-      <c r="BV30" s="6" t="str">
+      <c r="BV30" s="31" t="str">
         <f t="shared" si="39"/>
         <v>A</v>
       </c>
-      <c r="BW30" s="1">
+      <c r="BW30" s="32">
         <f t="shared" si="40"/>
         <v>4</v>
       </c>
-      <c r="BX30" s="5">
-        <v>2</v>
-      </c>
-      <c r="BY30" s="2">
+      <c r="BX30" s="30">
+        <v>2</v>
+      </c>
+      <c r="BY30" s="33">
         <f t="shared" si="41"/>
         <v>8</v>
       </c>
-      <c r="BZ30" s="5">
+      <c r="BZ30" s="30">
         <v>77</v>
       </c>
-      <c r="CA30" s="6" t="str">
+      <c r="CA30" s="31" t="str">
         <f t="shared" si="42"/>
         <v>B+</v>
       </c>
-      <c r="CB30" s="1">
+      <c r="CB30" s="32">
         <f t="shared" si="43"/>
         <v>3.5</v>
       </c>
-      <c r="CC30" s="5">
-        <v>2</v>
-      </c>
-      <c r="CD30" s="2">
+      <c r="CC30" s="30">
+        <v>2</v>
+      </c>
+      <c r="CD30" s="33">
         <f t="shared" si="44"/>
         <v>7</v>
       </c>
-      <c r="CE30" s="2">
+      <c r="CE30" s="33">
         <v>85</v>
       </c>
-      <c r="CF30" s="6" t="str">
+      <c r="CF30" s="31" t="str">
         <f t="shared" si="45"/>
         <v>A</v>
       </c>
-      <c r="CG30" s="1">
+      <c r="CG30" s="32">
         <f t="shared" si="46"/>
         <v>4</v>
       </c>
-      <c r="CH30" s="5">
-        <v>2</v>
-      </c>
-      <c r="CI30" s="2">
+      <c r="CH30" s="30">
+        <v>2</v>
+      </c>
+      <c r="CI30" s="33">
         <f t="shared" si="47"/>
         <v>8</v>
       </c>
-      <c r="CJ30" s="2">
+      <c r="CJ30" s="33">
         <v>77.53</v>
       </c>
-      <c r="CK30" s="6" t="str">
+      <c r="CK30" s="31" t="str">
         <f t="shared" si="48"/>
         <v>B+</v>
       </c>
-      <c r="CL30" s="1">
+      <c r="CL30" s="32">
         <f t="shared" si="49"/>
         <v>3.5</v>
       </c>
-      <c r="CM30" s="2">
-        <v>2</v>
-      </c>
-      <c r="CN30" s="2">
+      <c r="CM30" s="33">
+        <v>2</v>
+      </c>
+      <c r="CN30" s="33">
         <f t="shared" si="50"/>
         <v>7</v>
       </c>
-      <c r="CO30" s="2">
+      <c r="CO30" s="33">
         <v>77.599999999999994</v>
       </c>
-      <c r="CP30" s="6" t="str">
+      <c r="CP30" s="31" t="str">
         <f t="shared" si="51"/>
         <v>B+</v>
       </c>
-      <c r="CQ30" s="1">
+      <c r="CQ30" s="32">
         <f t="shared" si="52"/>
         <v>3.5</v>
       </c>
-      <c r="CR30" s="2">
-        <v>2</v>
-      </c>
-      <c r="CS30" s="2">
+      <c r="CR30" s="33">
+        <v>2</v>
+      </c>
+      <c r="CS30" s="33">
         <f t="shared" si="53"/>
         <v>7</v>
       </c>
-      <c r="CT30" s="2">
+      <c r="CT30" s="33">
         <v>70</v>
       </c>
-      <c r="CU30" s="6" t="str">
+      <c r="CU30" s="31" t="str">
         <f t="shared" si="54"/>
         <v>B</v>
       </c>
-      <c r="CV30" s="1">
+      <c r="CV30" s="32">
         <f t="shared" si="55"/>
         <v>3</v>
       </c>
-      <c r="CW30" s="2">
-        <v>2</v>
-      </c>
-      <c r="CX30" s="2">
+      <c r="CW30" s="33">
+        <v>2</v>
+      </c>
+      <c r="CX30" s="33">
         <f t="shared" si="56"/>
         <v>6</v>
       </c>
-      <c r="CY30" s="5">
+      <c r="CY30" s="30">
         <v>79</v>
       </c>
-      <c r="CZ30" s="6" t="str">
+      <c r="CZ30" s="31" t="str">
         <f t="shared" si="57"/>
         <v>B+</v>
       </c>
-      <c r="DA30" s="1">
+      <c r="DA30" s="32">
         <f t="shared" si="58"/>
         <v>3.5</v>
       </c>
-      <c r="DB30" s="5">
-        <v>2</v>
-      </c>
-      <c r="DC30" s="3">
+      <c r="DB30" s="30">
+        <v>2</v>
+      </c>
+      <c r="DC30" s="34">
         <f t="shared" si="59"/>
         <v>7</v>
       </c>
-      <c r="DD30" s="5">
+      <c r="DD30" s="30">
         <v>75.099999999999994</v>
       </c>
-      <c r="DE30" s="6" t="str">
+      <c r="DE30" s="31" t="str">
         <f t="shared" si="60"/>
         <v>B+</v>
       </c>
-      <c r="DF30" s="1">
+      <c r="DF30" s="32">
         <f t="shared" si="61"/>
         <v>3.5</v>
       </c>
-      <c r="DG30" s="5">
-        <v>2</v>
-      </c>
-      <c r="DH30" s="2">
+      <c r="DG30" s="30">
+        <v>2</v>
+      </c>
+      <c r="DH30" s="33">
         <f t="shared" si="62"/>
         <v>7</v>
       </c>
-      <c r="DI30" s="5">
+      <c r="DI30" s="30">
         <v>78.5</v>
       </c>
-      <c r="DJ30" s="6" t="str">
+      <c r="DJ30" s="31" t="str">
         <f t="shared" si="63"/>
         <v>B+</v>
       </c>
-      <c r="DK30" s="1">
+      <c r="DK30" s="32">
         <f t="shared" si="64"/>
         <v>3.5</v>
       </c>
-      <c r="DL30" s="5">
-        <v>4</v>
-      </c>
-      <c r="DM30" s="2">
+      <c r="DL30" s="30">
+        <v>4</v>
+      </c>
+      <c r="DM30" s="33">
         <f t="shared" si="65"/>
         <v>14</v>
       </c>
-      <c r="DN30" s="5">
+      <c r="DN30" s="30">
         <v>85</v>
       </c>
-      <c r="DO30" s="5">
+      <c r="DO30" s="30">
         <v>24</v>
       </c>
-      <c r="DP30" s="5">
+      <c r="DP30" s="30">
         <v>168</v>
       </c>
-      <c r="DQ30" s="5">
+      <c r="DQ30" s="30">
         <v>48</v>
       </c>
-      <c r="DR30" s="5">
+      <c r="DR30" s="30">
         <v>3.5416666666666665</v>
       </c>
-      <c r="DS30" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="DT30" s="10" t="str">
+      <c r="DS30" s="30">
+        <v>3.5</v>
+      </c>
+      <c r="DT30" s="26" t="str">
         <f t="shared" si="66"/>
         <v>Sangat Memuaskan</v>
       </c>
-      <c r="DU30" s="17" t="str">
+      <c r="DU30" s="35" t="str">
         <f t="shared" si="67"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DV30" s="17"/>
+      <c r="DV30" s="35"/>
     </row>
     <row r="31" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
@@ -14924,7 +15025,9 @@
         <f t="shared" si="67"/>
         <v>Excellent</v>
       </c>
-      <c r="DV32" s="17"/>
+      <c r="DV32" s="17" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="33" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
@@ -15368,7 +15471,9 @@
         <f t="shared" si="67"/>
         <v>Excellent</v>
       </c>
-      <c r="DV33" s="17"/>
+      <c r="DV33" s="17" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="34" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
@@ -15812,7 +15917,9 @@
         <f t="shared" si="67"/>
         <v>Excellent</v>
       </c>
-      <c r="DV34" s="17"/>
+      <c r="DV34" s="17" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="35" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
@@ -16702,7 +16809,9 @@
         <f t="shared" si="67"/>
         <v>Excellent</v>
       </c>
-      <c r="DV36" s="17"/>
+      <c r="DV36" s="17" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="37" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
@@ -17146,7 +17255,9 @@
         <f t="shared" si="67"/>
         <v>Excellent</v>
       </c>
-      <c r="DV37" s="17"/>
+      <c r="DV37" s="17" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="38" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
@@ -17590,7 +17701,9 @@
         <f t="shared" si="67"/>
         <v>Excellent</v>
       </c>
-      <c r="DV38" s="17"/>
+      <c r="DV38" s="17" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="39" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
@@ -18028,7 +18141,9 @@
         <f t="shared" si="67"/>
         <v>Excellent</v>
       </c>
-      <c r="DV39" s="17"/>
+      <c r="DV39" s="17" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="40" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
@@ -18912,7 +19027,9 @@
         <f t="shared" si="67"/>
         <v>Excellent</v>
       </c>
-      <c r="DV41" s="17"/>
+      <c r="DV41" s="17" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="42" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
@@ -19356,7 +19473,9 @@
         <f t="shared" si="67"/>
         <v>Excellent</v>
       </c>
-      <c r="DV42" s="17"/>
+      <c r="DV42" s="17" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="43" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
@@ -19800,7 +19919,9 @@
         <f t="shared" si="67"/>
         <v>Excellent</v>
       </c>
-      <c r="DV43" s="17"/>
+      <c r="DV43" s="17" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="44" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
@@ -20236,7 +20357,9 @@
         <f t="shared" si="67"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DV44" s="17"/>
+      <c r="DV44" s="17" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="45" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
@@ -20680,13 +20803,15 @@
         <f t="shared" si="67"/>
         <v>Excellent</v>
       </c>
-      <c r="DV45" s="17"/>
+      <c r="DV45" s="17" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="46" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>44</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="25" t="s">
         <v>63</v>
       </c>
       <c r="C46" s="10">
@@ -21554,7 +21679,9 @@
         <f t="shared" si="67"/>
         <v>Excellent</v>
       </c>
-      <c r="DV47" s="17"/>
+      <c r="DV47" s="17" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="48" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
@@ -21998,13 +22125,15 @@
         <f t="shared" si="67"/>
         <v>Excellent</v>
       </c>
-      <c r="DV48" s="17"/>
+      <c r="DV48" s="17" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="49" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>47</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="25" t="s">
         <v>66</v>
       </c>
       <c r="C49" s="10">
@@ -22876,13 +23005,15 @@
         <f t="shared" si="67"/>
         <v>Excellent</v>
       </c>
-      <c r="DV50" s="17"/>
+      <c r="DV50" s="17" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="51" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>49</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="25" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="10">
@@ -23316,7 +23447,7 @@
       <c r="A52" s="10">
         <v>50</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="25" t="s">
         <v>69</v>
       </c>
       <c r="C52" s="10">
@@ -24190,7 +24321,9 @@
         <f t="shared" si="67"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DV53" s="17"/>
+      <c r="DV53" s="17" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="54" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
@@ -24634,10 +24767,39 @@
         <f t="shared" si="67"/>
         <v>Excellent</v>
       </c>
-      <c r="DV54" s="17"/>
+      <c r="DV54" s="17" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="DS1:DS2"/>
+    <mergeCell ref="DT1:DT2"/>
+    <mergeCell ref="DU1:DU2"/>
+    <mergeCell ref="DV1:DV2"/>
+    <mergeCell ref="CT1:CX1"/>
+    <mergeCell ref="CY1:DC1"/>
+    <mergeCell ref="DD1:DH1"/>
+    <mergeCell ref="DI1:DM1"/>
+    <mergeCell ref="DR1:DR2"/>
+    <mergeCell ref="DQ1:DQ2"/>
+    <mergeCell ref="BP1:BT1"/>
+    <mergeCell ref="BU1:BY1"/>
+    <mergeCell ref="BZ1:CD1"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="CO1:CS1"/>
+    <mergeCell ref="BA1:BE1"/>
+    <mergeCell ref="BF1:BJ1"/>
+    <mergeCell ref="DN1:DO1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="W1:AA1"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="AG1:AK1"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="AQ1:AU1"/>
+    <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -24647,33 +24809,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="W1:AA1"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="AG1:AK1"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="AQ1:AU1"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="CO1:CS1"/>
-    <mergeCell ref="BA1:BE1"/>
-    <mergeCell ref="BF1:BJ1"/>
-    <mergeCell ref="DN1:DO1"/>
-    <mergeCell ref="DQ1:DQ2"/>
-    <mergeCell ref="BP1:BT1"/>
-    <mergeCell ref="BU1:BY1"/>
-    <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="DS1:DS2"/>
-    <mergeCell ref="DT1:DT2"/>
-    <mergeCell ref="DU1:DU2"/>
-    <mergeCell ref="DV1:DV2"/>
-    <mergeCell ref="CT1:CX1"/>
-    <mergeCell ref="CY1:DC1"/>
-    <mergeCell ref="DD1:DH1"/>
-    <mergeCell ref="DI1:DM1"/>
-    <mergeCell ref="DR1:DR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/S1 Keperawatan/RPL/RPL 3/Transkip Nilai RPL3.xlsx
+++ b/S1 Keperawatan/RPL/RPL 3/Transkip Nilai RPL3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Documents\Stikes\Transkip Nilai 2025\S1 Keperawatan\RPL\RPL 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90554B5-F863-4BF0-8A44-8E4CF5A96087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA8D9DD-03DF-4A09-A39E-54F5A5A1FB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6728395-340D-414D-8D40-C463D1B813FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="211">
   <si>
     <t>NO</t>
   </si>
@@ -423,9 +423,6 @@
     <t>Pemangkat</t>
   </si>
   <si>
-    <t xml:space="preserve"> 10 Oktober 1984</t>
-  </si>
-  <si>
     <t>Kelarik</t>
   </si>
   <si>
@@ -552,9 +549,6 @@
     <t>Hubungan Dukungan Keluarga dan Self Efficacy dengan Kepatuhan Minum Obat pada Penderita Tuberkulosis Paru di UPTD Puskesmas Ranai</t>
   </si>
   <si>
-    <t>Hubungan Lama Perawatan dan Dukungan Keluarga dengan Tingkat Kecemasan Orangtua Bayi Tahun 2025</t>
-  </si>
-  <si>
     <t>Pengaruh Program Motivasi Kerja Terhadap Kinerja Pegawai di UPTD Puskesmas Subi</t>
   </si>
   <si>
@@ -634,6 +628,48 @@
   </si>
   <si>
     <t>B1</t>
+  </si>
+  <si>
+    <t>29 Oktober 1987</t>
+  </si>
+  <si>
+    <t>27 Juni 1986</t>
+  </si>
+  <si>
+    <t>21 September 2000</t>
+  </si>
+  <si>
+    <t>07 November 1984</t>
+  </si>
+  <si>
+    <t>Faktor-Faktor yang berhubungan dengan kualitas hidup pasien pasca stroke di poliklinik neurologi RSUD Natuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAKTOR-FAKTOR YANG MEMPENGARUHI SELF-MANAGEMENT PADA PASIEN STROKE DI RSUD KABUPATEN BINTAN </t>
+  </si>
+  <si>
+    <t>10 Oktober 1984</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>11 April 1985</t>
+  </si>
+  <si>
+    <t>Tg. Kumbik</t>
+  </si>
+  <si>
+    <t>27 April 1991</t>
+  </si>
+  <si>
+    <t>22 April 1994</t>
+  </si>
+  <si>
+    <t>Hubungan Lama Perawatan Bayi dan Dukungan Keluarga Terhadap Tingkat Kecemasan Orangtua di Ruang NICU RSUD Natuna tahun 2025</t>
+  </si>
+  <si>
+    <t>27 Mei 1989</t>
   </si>
 </sst>
 </file>
@@ -834,34 +870,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1181,10 +1217,10 @@
   <dimension ref="A1:DX54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,219 +1254,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25" t="s">
+      <c r="H1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25" t="s">
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25" t="s">
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25" t="s">
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25" t="s">
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25" t="s">
+      <c r="AW1" s="27"/>
+      <c r="AX1" s="27"/>
+      <c r="AY1" s="27"/>
+      <c r="AZ1" s="27"/>
+      <c r="BA1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="BB1" s="25"/>
-      <c r="BC1" s="25"/>
-      <c r="BD1" s="25"/>
-      <c r="BE1" s="25"/>
-      <c r="BF1" s="25" t="s">
+      <c r="BB1" s="27"/>
+      <c r="BC1" s="27"/>
+      <c r="BD1" s="27"/>
+      <c r="BE1" s="27"/>
+      <c r="BF1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="BG1" s="25"/>
-      <c r="BH1" s="25"/>
-      <c r="BI1" s="25"/>
-      <c r="BJ1" s="25"/>
-      <c r="BK1" s="25" t="s">
+      <c r="BG1" s="27"/>
+      <c r="BH1" s="27"/>
+      <c r="BI1" s="27"/>
+      <c r="BJ1" s="27"/>
+      <c r="BK1" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="BL1" s="25"/>
-      <c r="BM1" s="25"/>
-      <c r="BN1" s="25"/>
-      <c r="BO1" s="25"/>
-      <c r="BP1" s="25" t="s">
+      <c r="BL1" s="27"/>
+      <c r="BM1" s="27"/>
+      <c r="BN1" s="27"/>
+      <c r="BO1" s="27"/>
+      <c r="BP1" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="BQ1" s="25"/>
-      <c r="BR1" s="25"/>
-      <c r="BS1" s="25"/>
-      <c r="BT1" s="25"/>
-      <c r="BU1" s="25" t="s">
+      <c r="BQ1" s="27"/>
+      <c r="BR1" s="27"/>
+      <c r="BS1" s="27"/>
+      <c r="BT1" s="27"/>
+      <c r="BU1" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="BV1" s="25"/>
-      <c r="BW1" s="25"/>
-      <c r="BX1" s="25"/>
-      <c r="BY1" s="25"/>
-      <c r="BZ1" s="25" t="s">
+      <c r="BV1" s="27"/>
+      <c r="BW1" s="27"/>
+      <c r="BX1" s="27"/>
+      <c r="BY1" s="27"/>
+      <c r="BZ1" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="CA1" s="25"/>
-      <c r="CB1" s="25"/>
-      <c r="CC1" s="25"/>
-      <c r="CD1" s="25"/>
-      <c r="CE1" s="25" t="s">
+      <c r="CA1" s="27"/>
+      <c r="CB1" s="27"/>
+      <c r="CC1" s="27"/>
+      <c r="CD1" s="27"/>
+      <c r="CE1" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" s="25"/>
-      <c r="CG1" s="25"/>
-      <c r="CH1" s="25"/>
-      <c r="CI1" s="25"/>
-      <c r="CJ1" s="25" t="s">
+      <c r="CF1" s="27"/>
+      <c r="CG1" s="27"/>
+      <c r="CH1" s="27"/>
+      <c r="CI1" s="27"/>
+      <c r="CJ1" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="CK1" s="25"/>
-      <c r="CL1" s="25"/>
-      <c r="CM1" s="25"/>
-      <c r="CN1" s="25"/>
-      <c r="CO1" s="25" t="s">
+      <c r="CK1" s="27"/>
+      <c r="CL1" s="27"/>
+      <c r="CM1" s="27"/>
+      <c r="CN1" s="27"/>
+      <c r="CO1" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="CP1" s="25"/>
-      <c r="CQ1" s="25"/>
-      <c r="CR1" s="25"/>
-      <c r="CS1" s="25"/>
-      <c r="CT1" s="25" t="s">
+      <c r="CP1" s="27"/>
+      <c r="CQ1" s="27"/>
+      <c r="CR1" s="27"/>
+      <c r="CS1" s="27"/>
+      <c r="CT1" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="CU1" s="25"/>
-      <c r="CV1" s="25"/>
-      <c r="CW1" s="25"/>
-      <c r="CX1" s="25"/>
-      <c r="CY1" s="25" t="s">
+      <c r="CU1" s="27"/>
+      <c r="CV1" s="27"/>
+      <c r="CW1" s="27"/>
+      <c r="CX1" s="27"/>
+      <c r="CY1" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="CZ1" s="25"/>
-      <c r="DA1" s="25"/>
-      <c r="DB1" s="25"/>
-      <c r="DC1" s="25"/>
-      <c r="DD1" s="25" t="s">
+      <c r="CZ1" s="27"/>
+      <c r="DA1" s="27"/>
+      <c r="DB1" s="27"/>
+      <c r="DC1" s="27"/>
+      <c r="DD1" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="DE1" s="25"/>
-      <c r="DF1" s="25"/>
-      <c r="DG1" s="25"/>
-      <c r="DH1" s="25"/>
-      <c r="DI1" s="25" t="s">
+      <c r="DE1" s="27"/>
+      <c r="DF1" s="27"/>
+      <c r="DG1" s="27"/>
+      <c r="DH1" s="27"/>
+      <c r="DI1" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="DJ1" s="25"/>
-      <c r="DK1" s="25"/>
-      <c r="DL1" s="25"/>
-      <c r="DM1" s="25"/>
-      <c r="DN1" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="DO1" s="27"/>
-      <c r="DP1" s="24" t="s">
+      <c r="DJ1" s="27"/>
+      <c r="DK1" s="27"/>
+      <c r="DL1" s="27"/>
+      <c r="DM1" s="27"/>
+      <c r="DN1" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="DO1" s="32"/>
+      <c r="DP1" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="DQ1" s="24"/>
-      <c r="DR1" s="32" t="s">
+      <c r="DQ1" s="28"/>
+      <c r="DR1" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="DS1" s="24" t="s">
+      <c r="DS1" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="DT1" s="24" t="s">
+      <c r="DT1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="DU1" s="28" t="s">
+      <c r="DU1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="DV1" s="29" t="s">
+      <c r="DV1" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="DW1" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="DW1" s="29" t="s">
+      <c r="DX1" s="26" t="s">
         <v>151</v>
-      </c>
-      <c r="DX1" s="29" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1762,10 +1798,10 @@
         <v>20</v>
       </c>
       <c r="DN2" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="DO2" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="DP2" s="1" t="s">
         <v>91</v>
@@ -1773,13 +1809,13 @@
       <c r="DQ2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="DR2" s="33"/>
-      <c r="DS2" s="24"/>
-      <c r="DT2" s="24"/>
-      <c r="DU2" s="28"/>
-      <c r="DV2" s="29"/>
-      <c r="DW2" s="29"/>
-      <c r="DX2" s="29"/>
+      <c r="DR2" s="30"/>
+      <c r="DS2" s="28"/>
+      <c r="DT2" s="28"/>
+      <c r="DU2" s="31"/>
+      <c r="DV2" s="26"/>
+      <c r="DW2" s="26"/>
+      <c r="DX2" s="26"/>
     </row>
     <row r="3" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
@@ -1798,7 +1834,7 @@
         <v>94</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="5">
@@ -2197,11 +2233,11 @@
         <f>DK3*DL3</f>
         <v>14</v>
       </c>
-      <c r="DN3" s="30">
+      <c r="DN3" s="24">
         <f t="shared" ref="DN3:DN23" si="0">L3+Q3+V3+AA3+AF3+AK3+AP3+AU3+AZ3+BE3+BJ3</f>
         <v>85</v>
       </c>
-      <c r="DO3" s="31">
+      <c r="DO3" s="25">
         <f>K3+P3+U3+Z3+AE3+AJ3+AO3+AT3+AY3+BD3+BI3</f>
         <v>24</v>
       </c>
@@ -2237,7 +2273,7 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX3" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:128" x14ac:dyDescent="0.2">
@@ -2257,7 +2293,7 @@
         <v>96</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="5">
@@ -2656,11 +2692,11 @@
         <f t="shared" ref="DM4:DM54" si="66">DK4*DL4</f>
         <v>16</v>
       </c>
-      <c r="DN4" s="30">
+      <c r="DN4" s="24">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
-      <c r="DO4" s="31">
+      <c r="DO4" s="25">
         <f t="shared" ref="DO4:DO54" si="67">K4+P4+U4+Z4+AE4+AJ4+AO4+AT4+AY4+BD4+BI4</f>
         <v>24</v>
       </c>
@@ -2696,7 +2732,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX4" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:128" x14ac:dyDescent="0.2">
@@ -2716,7 +2752,7 @@
         <v>98</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="5">
@@ -3115,11 +3151,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN5" s="30">
+      <c r="DN5" s="24">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="DO5" s="31">
+      <c r="DO5" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -3155,7 +3191,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX5" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:128" x14ac:dyDescent="0.2">
@@ -3175,7 +3211,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="5">
@@ -3574,11 +3610,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN6" s="30">
+      <c r="DN6" s="24">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="DO6" s="31">
+      <c r="DO6" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -3614,7 +3650,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX6" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:128" x14ac:dyDescent="0.2">
@@ -3634,7 +3670,7 @@
         <v>101</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="5">
@@ -4033,11 +4069,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN7" s="30">
+      <c r="DN7" s="24">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="DO7" s="31">
+      <c r="DO7" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -4073,7 +4109,7 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX7" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:128" x14ac:dyDescent="0.2">
@@ -4093,7 +4129,7 @@
         <v>104</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="5">
@@ -4492,11 +4528,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN8" s="30">
+      <c r="DN8" s="24">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="DO8" s="31">
+      <c r="DO8" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -4532,7 +4568,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX8" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:128" x14ac:dyDescent="0.2">
@@ -4552,7 +4588,7 @@
         <v>106</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="5">
@@ -4951,11 +4987,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN9" s="30">
+      <c r="DN9" s="24">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
-      <c r="DO9" s="31">
+      <c r="DO9" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -4991,7 +5027,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX9" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:128" x14ac:dyDescent="0.25">
@@ -5402,11 +5438,11 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="DN10" s="30">
+      <c r="DN10" s="24">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="DO10" s="31">
+      <c r="DO10" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -5442,7 +5478,7 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX10" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:128" x14ac:dyDescent="0.2">
@@ -5462,7 +5498,7 @@
         <v>107</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="5">
@@ -5861,11 +5897,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN11" s="30">
+      <c r="DN11" s="24">
         <f t="shared" si="0"/>
         <v>86.5</v>
       </c>
-      <c r="DO11" s="31">
+      <c r="DO11" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -5901,7 +5937,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX11" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:128" x14ac:dyDescent="0.2">
@@ -5921,7 +5957,7 @@
         <v>110</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="5">
@@ -6320,11 +6356,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN12" s="30">
+      <c r="DN12" s="24">
         <f t="shared" si="0"/>
         <v>83.5</v>
       </c>
-      <c r="DO12" s="31">
+      <c r="DO12" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -6360,7 +6396,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX12" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:128" x14ac:dyDescent="0.2">
@@ -6380,7 +6416,7 @@
         <v>111</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="5">
@@ -6779,11 +6815,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN13" s="30">
+      <c r="DN13" s="24">
         <f t="shared" si="0"/>
         <v>86.5</v>
       </c>
-      <c r="DO13" s="31">
+      <c r="DO13" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -6819,7 +6855,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX13" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:128" ht="28.5" x14ac:dyDescent="0.25">
@@ -6839,7 +6875,7 @@
         <v>112</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="5">
@@ -7238,11 +7274,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN14" s="30">
+      <c r="DN14" s="24">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="DO14" s="31">
+      <c r="DO14" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -7278,7 +7314,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX14" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:128" x14ac:dyDescent="0.25">
@@ -7291,8 +7327,12 @@
       <c r="C15" s="15">
         <v>182412013</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="7"/>
+      <c r="D15" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>198</v>
+      </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="5">
@@ -7689,11 +7729,11 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="DN15" s="30">
+      <c r="DN15" s="24">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="DO15" s="31">
+      <c r="DO15" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -7729,7 +7769,7 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX15" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:128" x14ac:dyDescent="0.25">
@@ -8142,11 +8182,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN16" s="30">
+      <c r="DN16" s="24">
         <f t="shared" si="0"/>
         <v>86.5</v>
       </c>
-      <c r="DO16" s="31">
+      <c r="DO16" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -8182,7 +8222,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX16" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:128" x14ac:dyDescent="0.2">
@@ -8202,7 +8242,7 @@
         <v>114</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="5">
@@ -8599,11 +8639,11 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="DN17" s="30">
+      <c r="DN17" s="24">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="DO17" s="31">
+      <c r="DO17" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -8639,7 +8679,7 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX17" s="17" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:128" x14ac:dyDescent="0.2">
@@ -8659,7 +8699,7 @@
         <v>117</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="5">
@@ -9058,11 +9098,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN18" s="30">
+      <c r="DN18" s="24">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
-      <c r="DO18" s="31">
+      <c r="DO18" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -9098,7 +9138,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX18" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:128" x14ac:dyDescent="0.2">
@@ -9118,7 +9158,7 @@
         <v>118</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="5">
@@ -9517,11 +9557,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN19" s="30">
+      <c r="DN19" s="24">
         <f t="shared" si="0"/>
         <v>86.5</v>
       </c>
-      <c r="DO19" s="31">
+      <c r="DO19" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -9557,7 +9597,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX19" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:128" x14ac:dyDescent="0.25">
@@ -9970,11 +10010,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN20" s="30">
+      <c r="DN20" s="24">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="DO20" s="31">
+      <c r="DO20" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -10010,7 +10050,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX20" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:128" x14ac:dyDescent="0.2">
@@ -10030,7 +10070,7 @@
         <v>120</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="5">
@@ -10429,11 +10469,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN21" s="30">
+      <c r="DN21" s="24">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="DO21" s="31">
+      <c r="DO21" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -10469,7 +10509,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX21" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:128" x14ac:dyDescent="0.2">
@@ -10489,7 +10529,7 @@
         <v>122</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="5">
@@ -10888,11 +10928,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN22" s="30">
+      <c r="DN22" s="24">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="DO22" s="31">
+      <c r="DO22" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -10928,7 +10968,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX22" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:128" x14ac:dyDescent="0.25">
@@ -11339,11 +11379,11 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="DN23" s="30">
+      <c r="DN23" s="24">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="DO23" s="31">
+      <c r="DO23" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -11379,7 +11419,7 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX23" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:128" x14ac:dyDescent="0.25">
@@ -11392,8 +11432,12 @@
       <c r="C24" s="15">
         <v>182412022</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="7"/>
+      <c r="D24" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>210</v>
+      </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="5">
@@ -11792,11 +11836,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN24" s="30">
+      <c r="DN24" s="24">
         <f>L24+Q24+V24+AA24+AF24+AK24+AP24+AU24+AZ24+BE24+BJ24</f>
         <v>83</v>
       </c>
-      <c r="DO24" s="31">
+      <c r="DO24" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -11832,7 +11876,7 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX24" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:128" x14ac:dyDescent="0.2">
@@ -11852,7 +11896,7 @@
         <v>124</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="5">
@@ -12251,11 +12295,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN25" s="30">
+      <c r="DN25" s="24">
         <f t="shared" ref="DN25:DN54" si="75">L25+Q25+V25+AA25+AF25+AK25+AP25+AU25+AZ25+BE25+BJ25</f>
         <v>85</v>
       </c>
-      <c r="DO25" s="31">
+      <c r="DO25" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -12291,7 +12335,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX25" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:128" x14ac:dyDescent="0.25">
@@ -12702,11 +12746,11 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="DN26" s="30">
+      <c r="DN26" s="24">
         <f t="shared" si="75"/>
         <v>85</v>
       </c>
-      <c r="DO26" s="31">
+      <c r="DO26" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -12760,7 +12804,7 @@
         <v>126</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="5">
@@ -13159,11 +13203,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN27" s="30">
+      <c r="DN27" s="24">
         <f t="shared" si="75"/>
         <v>82</v>
       </c>
-      <c r="DO27" s="31">
+      <c r="DO27" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -13199,7 +13243,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX27" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:128" x14ac:dyDescent="0.25">
@@ -13212,8 +13256,12 @@
       <c r="C28" s="15">
         <v>182412027</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="7"/>
+      <c r="D28" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>200</v>
+      </c>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="5">
@@ -13610,11 +13658,11 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="DN28" s="30">
+      <c r="DN28" s="24">
         <f t="shared" si="75"/>
         <v>85.5</v>
       </c>
-      <c r="DO28" s="31">
+      <c r="DO28" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -13649,7 +13697,9 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX28" s="17"/>
+      <c r="DX28" s="17" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="29" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
@@ -14059,11 +14109,11 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="DN29" s="30">
+      <c r="DN29" s="24">
         <f t="shared" si="75"/>
         <v>82</v>
       </c>
-      <c r="DO29" s="31">
+      <c r="DO29" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -14117,7 +14167,7 @@
         <v>127</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="5">
@@ -14516,11 +14566,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN30" s="30">
+      <c r="DN30" s="24">
         <f t="shared" si="75"/>
         <v>83</v>
       </c>
-      <c r="DO30" s="31">
+      <c r="DO30" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -14967,11 +15017,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN31" s="30">
+      <c r="DN31" s="24">
         <f t="shared" si="75"/>
         <v>88</v>
       </c>
-      <c r="DO31" s="31">
+      <c r="DO31" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -15007,7 +15057,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX31" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:128" x14ac:dyDescent="0.25">
@@ -15020,8 +15070,12 @@
       <c r="C32" s="15">
         <v>182412031</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="7"/>
+      <c r="D32" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="5">
@@ -15420,11 +15474,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN32" s="30">
+      <c r="DN32" s="24">
         <f t="shared" si="75"/>
         <v>88</v>
       </c>
-      <c r="DO32" s="31">
+      <c r="DO32" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -15460,7 +15514,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX32" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:128" x14ac:dyDescent="0.2">
@@ -15474,13 +15528,13 @@
         <v>182412032</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="5">
@@ -15879,11 +15933,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN33" s="30">
+      <c r="DN33" s="24">
         <f t="shared" si="75"/>
         <v>87.5</v>
       </c>
-      <c r="DO33" s="31">
+      <c r="DO33" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -15919,7 +15973,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX33" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:128" x14ac:dyDescent="0.2">
@@ -15933,13 +15987,13 @@
         <v>182412034</v>
       </c>
       <c r="D34" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>131</v>
-      </c>
       <c r="F34" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="5">
@@ -16338,11 +16392,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN34" s="30">
+      <c r="DN34" s="24">
         <f t="shared" si="75"/>
         <v>84</v>
       </c>
-      <c r="DO34" s="31">
+      <c r="DO34" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -16378,7 +16432,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX34" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:128" x14ac:dyDescent="0.2">
@@ -16392,13 +16446,13 @@
         <v>182412035</v>
       </c>
       <c r="D35" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="F35" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="5">
@@ -16797,11 +16851,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN35" s="30">
+      <c r="DN35" s="24">
         <f t="shared" si="75"/>
         <v>82</v>
       </c>
-      <c r="DO35" s="31">
+      <c r="DO35" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -16837,7 +16891,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX35" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:128" x14ac:dyDescent="0.2">
@@ -16851,13 +16905,13 @@
         <v>182412036</v>
       </c>
       <c r="D36" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>135</v>
-      </c>
       <c r="F36" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="5">
@@ -17256,11 +17310,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN36" s="30">
+      <c r="DN36" s="24">
         <f t="shared" si="75"/>
         <v>87</v>
       </c>
-      <c r="DO36" s="31">
+      <c r="DO36" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -17296,7 +17350,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX36" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:128" x14ac:dyDescent="0.2">
@@ -17310,13 +17364,13 @@
         <v>182412037</v>
       </c>
       <c r="D37" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>137</v>
-      </c>
       <c r="F37" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="5">
@@ -17715,11 +17769,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN37" s="30">
+      <c r="DN37" s="24">
         <f t="shared" si="75"/>
         <v>85.5</v>
       </c>
-      <c r="DO37" s="31">
+      <c r="DO37" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -17755,7 +17809,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX37" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:128" x14ac:dyDescent="0.2">
@@ -17769,13 +17823,13 @@
         <v>182412038</v>
       </c>
       <c r="D38" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>139</v>
-      </c>
       <c r="F38" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="5">
@@ -18174,11 +18228,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN38" s="30">
+      <c r="DN38" s="24">
         <f t="shared" si="75"/>
         <v>91</v>
       </c>
-      <c r="DO38" s="31">
+      <c r="DO38" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -18214,7 +18268,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX38" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:128" x14ac:dyDescent="0.25">
@@ -18227,8 +18281,12 @@
       <c r="C39" s="10">
         <v>182412039</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="8"/>
+      <c r="D39" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>207</v>
+      </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="5">
@@ -18627,11 +18685,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN39" s="30">
+      <c r="DN39" s="24">
         <f t="shared" si="75"/>
         <v>89.5</v>
       </c>
-      <c r="DO39" s="31">
+      <c r="DO39" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -18667,7 +18725,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX39" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:128" x14ac:dyDescent="0.25">
@@ -18680,8 +18738,12 @@
       <c r="C40" s="10">
         <v>182412040</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="8"/>
+      <c r="D40" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="5">
@@ -19080,11 +19142,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN40" s="30">
+      <c r="DN40" s="24">
         <f t="shared" si="75"/>
         <v>86.5</v>
       </c>
-      <c r="DO40" s="31">
+      <c r="DO40" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -19120,7 +19182,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX40" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:128" x14ac:dyDescent="0.2">
@@ -19137,10 +19199,10 @@
         <v>95</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="5">
@@ -19539,11 +19601,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN41" s="30">
+      <c r="DN41" s="24">
         <f t="shared" si="75"/>
         <v>83</v>
       </c>
-      <c r="DO41" s="31">
+      <c r="DO41" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -19579,7 +19641,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX41" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:128" x14ac:dyDescent="0.2">
@@ -19596,10 +19658,10 @@
         <v>95</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="5">
@@ -19998,11 +20060,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN42" s="30">
+      <c r="DN42" s="24">
         <f t="shared" si="75"/>
         <v>85</v>
       </c>
-      <c r="DO42" s="31">
+      <c r="DO42" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -20038,7 +20100,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX42" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:128" x14ac:dyDescent="0.2">
@@ -20055,10 +20117,10 @@
         <v>95</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="5">
@@ -20457,11 +20519,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN43" s="30">
+      <c r="DN43" s="24">
         <f t="shared" si="75"/>
         <v>88.5</v>
       </c>
-      <c r="DO43" s="31">
+      <c r="DO43" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -20497,7 +20559,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX43" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:128" x14ac:dyDescent="0.25">
@@ -20908,11 +20970,11 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="DN44" s="30">
+      <c r="DN44" s="24">
         <f t="shared" si="75"/>
         <v>81</v>
       </c>
-      <c r="DO44" s="31">
+      <c r="DO44" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -20948,7 +21010,7 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX44" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:128" x14ac:dyDescent="0.2">
@@ -20965,10 +21027,10 @@
         <v>95</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="5">
@@ -21367,11 +21429,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN45" s="30">
+      <c r="DN45" s="24">
         <f t="shared" si="75"/>
         <v>86.5</v>
       </c>
-      <c r="DO45" s="31">
+      <c r="DO45" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -21407,7 +21469,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX45" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:128" x14ac:dyDescent="0.25">
@@ -21420,8 +21482,12 @@
       <c r="C46" s="10">
         <v>182412047</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="8"/>
+      <c r="D46" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>199</v>
+      </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="5">
@@ -21818,11 +21884,11 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="DN46" s="30">
+      <c r="DN46" s="24">
         <f t="shared" si="75"/>
         <v>86</v>
       </c>
-      <c r="DO46" s="31">
+      <c r="DO46" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -21857,7 +21923,9 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX46" s="17"/>
+      <c r="DX46" s="17" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="47" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
@@ -22269,11 +22337,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN47" s="30">
+      <c r="DN47" s="24">
         <f t="shared" si="75"/>
         <v>85.5</v>
       </c>
-      <c r="DO47" s="31">
+      <c r="DO47" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -22309,7 +22377,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX47" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:128" x14ac:dyDescent="0.2">
@@ -22323,13 +22391,13 @@
         <v>182412049</v>
       </c>
       <c r="D48" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>145</v>
-      </c>
       <c r="F48" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="5">
@@ -22728,11 +22796,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN48" s="30">
+      <c r="DN48" s="24">
         <f t="shared" si="75"/>
         <v>88</v>
       </c>
-      <c r="DO48" s="31">
+      <c r="DO48" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -22768,7 +22836,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX48" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:128" x14ac:dyDescent="0.25">
@@ -23177,11 +23245,11 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="DN49" s="30">
+      <c r="DN49" s="24">
         <f t="shared" si="75"/>
         <v>84.5</v>
       </c>
-      <c r="DO49" s="31">
+      <c r="DO49" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -23232,10 +23300,10 @@
         <v>105</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G50" s="10"/>
       <c r="H50" s="5">
@@ -23634,11 +23702,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN50" s="30">
+      <c r="DN50" s="24">
         <f t="shared" si="75"/>
         <v>89</v>
       </c>
-      <c r="DO50" s="31">
+      <c r="DO50" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -23674,7 +23742,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX50" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:128" x14ac:dyDescent="0.25">
@@ -24083,11 +24151,11 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="DN51" s="30">
+      <c r="DN51" s="24">
         <f t="shared" si="75"/>
         <v>83</v>
       </c>
-      <c r="DO51" s="31">
+      <c r="DO51" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -24138,10 +24206,10 @@
         <v>113</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G52" s="10"/>
       <c r="H52" s="5">
@@ -24540,11 +24608,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN52" s="30">
+      <c r="DN52" s="24">
         <f t="shared" si="75"/>
         <v>79.5</v>
       </c>
-      <c r="DO52" s="31">
+      <c r="DO52" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -24592,7 +24660,9 @@
         <v>182412054</v>
       </c>
       <c r="D53" s="10"/>
-      <c r="E53" s="8"/>
+      <c r="E53" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="5">
@@ -24989,11 +25059,11 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="DN53" s="30">
+      <c r="DN53" s="24">
         <f t="shared" si="75"/>
         <v>84.5</v>
       </c>
-      <c r="DO53" s="31">
+      <c r="DO53" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -25029,7 +25099,7 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX53" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:128" x14ac:dyDescent="0.2">
@@ -25043,13 +25113,13 @@
         <v>182412055</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="E54" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F54" s="15" t="s">
         <v>148</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>149</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="5">
@@ -25448,11 +25518,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN54" s="30">
+      <c r="DN54" s="24">
         <f t="shared" si="75"/>
         <v>84</v>
       </c>
-      <c r="DO54" s="31">
+      <c r="DO54" s="25">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -25488,24 +25558,20 @@
         <v>Excellent</v>
       </c>
       <c r="DX54" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="DX1:DX2"/>
-    <mergeCell ref="CT1:CX1"/>
-    <mergeCell ref="CY1:DC1"/>
-    <mergeCell ref="DD1:DH1"/>
-    <mergeCell ref="DI1:DM1"/>
-    <mergeCell ref="DT1:DT2"/>
-    <mergeCell ref="DS1:DS2"/>
-    <mergeCell ref="DR1:DR2"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="DU1:DU2"/>
-    <mergeCell ref="DV1:DV2"/>
-    <mergeCell ref="DW1:DW2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="CO1:CS1"/>
     <mergeCell ref="BA1:BE1"/>
@@ -25522,15 +25588,19 @@
     <mergeCell ref="BP1:BT1"/>
     <mergeCell ref="BU1:BY1"/>
     <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="DU1:DU2"/>
+    <mergeCell ref="DV1:DV2"/>
+    <mergeCell ref="DW1:DW2"/>
+    <mergeCell ref="DX1:DX2"/>
+    <mergeCell ref="CT1:CX1"/>
+    <mergeCell ref="CY1:DC1"/>
+    <mergeCell ref="DD1:DH1"/>
+    <mergeCell ref="DI1:DM1"/>
+    <mergeCell ref="DT1:DT2"/>
+    <mergeCell ref="DS1:DS2"/>
+    <mergeCell ref="DR1:DR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/S1 Keperawatan/RPL/RPL 3/Transkip Nilai RPL3.xlsx
+++ b/S1 Keperawatan/RPL/RPL 3/Transkip Nilai RPL3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Documents\Stikes\Transkip Nilai 2025\S1 Keperawatan\RPL\RPL 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA8D9DD-03DF-4A09-A39E-54F5A5A1FB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6FD063-B31B-400B-88C1-7271D6F87F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6728395-340D-414D-8D40-C463D1B813FA}"/>
+    <workbookView xWindow="-21697" yWindow="-2460" windowWidth="21795" windowHeight="12975" xr2:uid="{F6728395-340D-414D-8D40-C463D1B813FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Transkip" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="215">
   <si>
     <t>NO</t>
   </si>
@@ -671,6 +671,18 @@
   <si>
     <t>27 Mei 1989</t>
   </si>
+  <si>
+    <t>Namu Sira-sira</t>
+  </si>
+  <si>
+    <t>14 Januari 1991</t>
+  </si>
+  <si>
+    <t>26 November 1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENGARUH EDUKASI DENGAN METODE DEMONSTRASI TERHADAP TINGKAT KEMANDIRIAN MOBILISASI DINI PADA PASIEN POST OPERASI DI RSUD NATUNA. </t>
+  </si>
 </sst>
 </file>
 
@@ -801,7 +813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -869,20 +881,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -891,14 +911,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1217,256 +1240,256 @@
   <dimension ref="A1:DX54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="DW3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G43" sqref="G43"/>
+      <selection pane="bottomRight" activeCell="DX15" sqref="DX15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.73046875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="9" customWidth="1"/>
-    <col min="6" max="7" width="20.28515625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="20.265625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.265625" style="9" customWidth="1"/>
+    <col min="6" max="7" width="20.265625" style="4" customWidth="1"/>
     <col min="8" max="12" width="10" style="4" customWidth="1"/>
-    <col min="13" max="22" width="10.140625" style="4" customWidth="1"/>
-    <col min="23" max="27" width="10.85546875" style="4" customWidth="1"/>
-    <col min="28" max="37" width="10.140625" style="4" customWidth="1"/>
+    <col min="13" max="22" width="10.1328125" style="4" customWidth="1"/>
+    <col min="23" max="27" width="10.86328125" style="4" customWidth="1"/>
+    <col min="28" max="37" width="10.1328125" style="4" customWidth="1"/>
     <col min="38" max="42" width="10" style="4" customWidth="1"/>
-    <col min="43" max="47" width="9.85546875" style="4" customWidth="1"/>
+    <col min="43" max="47" width="9.86328125" style="4" customWidth="1"/>
     <col min="48" max="52" width="10" style="4" customWidth="1"/>
-    <col min="53" max="57" width="10.140625" style="4" customWidth="1"/>
+    <col min="53" max="57" width="10.1328125" style="4" customWidth="1"/>
     <col min="58" max="63" width="9" style="4" customWidth="1"/>
-    <col min="64" max="64" width="8.5703125" style="4" customWidth="1"/>
-    <col min="65" max="65" width="7.28515625" style="4" customWidth="1"/>
-    <col min="66" max="66" width="7.7109375" style="4" customWidth="1"/>
-    <col min="67" max="67" width="10.85546875" style="4" customWidth="1"/>
-    <col min="68" max="117" width="9.140625" style="4"/>
-    <col min="118" max="118" width="9.140625" style="21"/>
-    <col min="119" max="119" width="9.140625" style="22"/>
-    <col min="120" max="125" width="9.140625" style="4"/>
-    <col min="126" max="126" width="18.28515625" style="4" customWidth="1"/>
-    <col min="127" max="127" width="18.140625" style="4" customWidth="1"/>
-    <col min="128" max="128" width="27.42578125" style="4" customWidth="1"/>
-    <col min="129" max="16384" width="9.140625" style="4"/>
+    <col min="64" max="64" width="8.59765625" style="4" customWidth="1"/>
+    <col min="65" max="65" width="7.265625" style="4" customWidth="1"/>
+    <col min="66" max="66" width="7.73046875" style="4" customWidth="1"/>
+    <col min="67" max="67" width="10.86328125" style="4" customWidth="1"/>
+    <col min="68" max="117" width="9.1328125" style="4"/>
+    <col min="118" max="118" width="9.1328125" style="21"/>
+    <col min="119" max="119" width="9.1328125" style="22"/>
+    <col min="120" max="125" width="9.1328125" style="4"/>
+    <col min="126" max="126" width="18.265625" style="4" customWidth="1"/>
+    <col min="127" max="127" width="18.1328125" style="4" customWidth="1"/>
+    <col min="128" max="128" width="166.1328125" style="36" bestFit="1" customWidth="1"/>
+    <col min="129" max="16384" width="9.1328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:128" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="28" t="s">
+      <c r="C1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27" t="s">
+      <c r="H1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27" t="s">
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27" t="s">
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27" t="s">
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27" t="s">
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AW1" s="27"/>
-      <c r="AX1" s="27"/>
-      <c r="AY1" s="27"/>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="27" t="s">
+      <c r="AW1" s="26"/>
+      <c r="AX1" s="26"/>
+      <c r="AY1" s="26"/>
+      <c r="AZ1" s="26"/>
+      <c r="BA1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="BB1" s="27"/>
-      <c r="BC1" s="27"/>
-      <c r="BD1" s="27"/>
-      <c r="BE1" s="27"/>
-      <c r="BF1" s="27" t="s">
+      <c r="BB1" s="26"/>
+      <c r="BC1" s="26"/>
+      <c r="BD1" s="26"/>
+      <c r="BE1" s="26"/>
+      <c r="BF1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="BG1" s="27"/>
-      <c r="BH1" s="27"/>
-      <c r="BI1" s="27"/>
-      <c r="BJ1" s="27"/>
-      <c r="BK1" s="27" t="s">
+      <c r="BG1" s="26"/>
+      <c r="BH1" s="26"/>
+      <c r="BI1" s="26"/>
+      <c r="BJ1" s="26"/>
+      <c r="BK1" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="BL1" s="27"/>
-      <c r="BM1" s="27"/>
-      <c r="BN1" s="27"/>
-      <c r="BO1" s="27"/>
-      <c r="BP1" s="27" t="s">
+      <c r="BL1" s="26"/>
+      <c r="BM1" s="26"/>
+      <c r="BN1" s="26"/>
+      <c r="BO1" s="26"/>
+      <c r="BP1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="BQ1" s="27"/>
-      <c r="BR1" s="27"/>
-      <c r="BS1" s="27"/>
-      <c r="BT1" s="27"/>
-      <c r="BU1" s="27" t="s">
+      <c r="BQ1" s="26"/>
+      <c r="BR1" s="26"/>
+      <c r="BS1" s="26"/>
+      <c r="BT1" s="26"/>
+      <c r="BU1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="BV1" s="27"/>
-      <c r="BW1" s="27"/>
-      <c r="BX1" s="27"/>
-      <c r="BY1" s="27"/>
-      <c r="BZ1" s="27" t="s">
+      <c r="BV1" s="26"/>
+      <c r="BW1" s="26"/>
+      <c r="BX1" s="26"/>
+      <c r="BY1" s="26"/>
+      <c r="BZ1" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="CA1" s="27"/>
-      <c r="CB1" s="27"/>
-      <c r="CC1" s="27"/>
-      <c r="CD1" s="27"/>
-      <c r="CE1" s="27" t="s">
+      <c r="CA1" s="26"/>
+      <c r="CB1" s="26"/>
+      <c r="CC1" s="26"/>
+      <c r="CD1" s="26"/>
+      <c r="CE1" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" s="27"/>
-      <c r="CG1" s="27"/>
-      <c r="CH1" s="27"/>
-      <c r="CI1" s="27"/>
-      <c r="CJ1" s="27" t="s">
+      <c r="CF1" s="26"/>
+      <c r="CG1" s="26"/>
+      <c r="CH1" s="26"/>
+      <c r="CI1" s="26"/>
+      <c r="CJ1" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="CK1" s="27"/>
-      <c r="CL1" s="27"/>
-      <c r="CM1" s="27"/>
-      <c r="CN1" s="27"/>
-      <c r="CO1" s="27" t="s">
+      <c r="CK1" s="26"/>
+      <c r="CL1" s="26"/>
+      <c r="CM1" s="26"/>
+      <c r="CN1" s="26"/>
+      <c r="CO1" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="CP1" s="27"/>
-      <c r="CQ1" s="27"/>
-      <c r="CR1" s="27"/>
-      <c r="CS1" s="27"/>
-      <c r="CT1" s="27" t="s">
+      <c r="CP1" s="26"/>
+      <c r="CQ1" s="26"/>
+      <c r="CR1" s="26"/>
+      <c r="CS1" s="26"/>
+      <c r="CT1" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="CU1" s="27"/>
-      <c r="CV1" s="27"/>
-      <c r="CW1" s="27"/>
-      <c r="CX1" s="27"/>
-      <c r="CY1" s="27" t="s">
+      <c r="CU1" s="26"/>
+      <c r="CV1" s="26"/>
+      <c r="CW1" s="26"/>
+      <c r="CX1" s="26"/>
+      <c r="CY1" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="CZ1" s="27"/>
-      <c r="DA1" s="27"/>
-      <c r="DB1" s="27"/>
-      <c r="DC1" s="27"/>
-      <c r="DD1" s="27" t="s">
+      <c r="CZ1" s="26"/>
+      <c r="DA1" s="26"/>
+      <c r="DB1" s="26"/>
+      <c r="DC1" s="26"/>
+      <c r="DD1" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="DE1" s="27"/>
-      <c r="DF1" s="27"/>
-      <c r="DG1" s="27"/>
-      <c r="DH1" s="27"/>
-      <c r="DI1" s="27" t="s">
+      <c r="DE1" s="26"/>
+      <c r="DF1" s="26"/>
+      <c r="DG1" s="26"/>
+      <c r="DH1" s="26"/>
+      <c r="DI1" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="DJ1" s="27"/>
-      <c r="DK1" s="27"/>
-      <c r="DL1" s="27"/>
-      <c r="DM1" s="27"/>
-      <c r="DN1" s="32" t="s">
+      <c r="DJ1" s="26"/>
+      <c r="DK1" s="26"/>
+      <c r="DL1" s="26"/>
+      <c r="DM1" s="26"/>
+      <c r="DN1" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="DO1" s="32"/>
-      <c r="DP1" s="28" t="s">
+      <c r="DO1" s="28"/>
+      <c r="DP1" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="DQ1" s="28"/>
-      <c r="DR1" s="29" t="s">
+      <c r="DQ1" s="25"/>
+      <c r="DR1" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="DS1" s="28" t="s">
+      <c r="DS1" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="DT1" s="28" t="s">
+      <c r="DT1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="DU1" s="31" t="s">
+      <c r="DU1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="DV1" s="26" t="s">
+      <c r="DV1" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="DW1" s="26" t="s">
+      <c r="DW1" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="DX1" s="26" t="s">
+      <c r="DX1" s="34" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+    <row r="2" spans="1:128" x14ac:dyDescent="0.45">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1809,15 +1832,15 @@
       <c r="DQ2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="DR2" s="30"/>
-      <c r="DS2" s="28"/>
-      <c r="DT2" s="28"/>
-      <c r="DU2" s="31"/>
-      <c r="DV2" s="26"/>
-      <c r="DW2" s="26"/>
-      <c r="DX2" s="26"/>
+      <c r="DR2" s="32"/>
+      <c r="DS2" s="25"/>
+      <c r="DT2" s="25"/>
+      <c r="DU2" s="29"/>
+      <c r="DV2" s="30"/>
+      <c r="DW2" s="30"/>
+      <c r="DX2" s="34"/>
     </row>
-    <row r="3" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -2233,11 +2256,11 @@
         <f>DK3*DL3</f>
         <v>14</v>
       </c>
-      <c r="DN3" s="24">
+      <c r="DN3" s="23">
         <f t="shared" ref="DN3:DN23" si="0">L3+Q3+V3+AA3+AF3+AK3+AP3+AU3+AZ3+BE3+BJ3</f>
         <v>85</v>
       </c>
-      <c r="DO3" s="25">
+      <c r="DO3" s="24">
         <f>K3+P3+U3+Z3+AE3+AJ3+AO3+AT3+AY3+BD3+BI3</f>
         <v>24</v>
       </c>
@@ -2272,11 +2295,11 @@
         <f>IF(DU3&gt;=3.51,"Excellent",(IF(DU3&gt;=2.75,"Highly Satisfactory",(IF(DU3&gt;=2,"Satisfactory","FAILED")))))</f>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX3" s="17" t="s">
+      <c r="DX3" s="33" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -2692,11 +2715,11 @@
         <f t="shared" ref="DM4:DM54" si="66">DK4*DL4</f>
         <v>16</v>
       </c>
-      <c r="DN4" s="24">
+      <c r="DN4" s="23">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
-      <c r="DO4" s="25">
+      <c r="DO4" s="24">
         <f t="shared" ref="DO4:DO54" si="67">K4+P4+U4+Z4+AE4+AJ4+AO4+AT4+AY4+BD4+BI4</f>
         <v>24</v>
       </c>
@@ -2731,11 +2754,11 @@
         <f t="shared" ref="DW4:DW54" si="74">IF(DU4&gt;=3.51,"Excellent",(IF(DU4&gt;=2.75,"Highly Satisfactory",(IF(DU4&gt;=2,"Satisfactory","FAILED")))))</f>
         <v>Excellent</v>
       </c>
-      <c r="DX4" s="17" t="s">
+      <c r="DX4" s="33" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -3151,11 +3174,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN5" s="24">
+      <c r="DN5" s="23">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="DO5" s="25">
+      <c r="DO5" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -3190,11 +3213,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX5" s="17" t="s">
+      <c r="DX5" s="33" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -3610,11 +3633,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN6" s="24">
+      <c r="DN6" s="23">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="DO6" s="25">
+      <c r="DO6" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -3649,11 +3672,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX6" s="23" t="s">
+      <c r="DX6" s="35" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -4069,11 +4092,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN7" s="24">
+      <c r="DN7" s="23">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="DO7" s="25">
+      <c r="DO7" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -4108,11 +4131,11 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX7" s="23" t="s">
+      <c r="DX7" s="35" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -4528,11 +4551,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN8" s="24">
+      <c r="DN8" s="23">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="DO8" s="25">
+      <c r="DO8" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -4567,11 +4590,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX8" s="17" t="s">
+      <c r="DX8" s="33" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -4987,11 +5010,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN9" s="24">
+      <c r="DN9" s="23">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
-      <c r="DO9" s="25">
+      <c r="DO9" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -5026,11 +5049,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX9" s="17" t="s">
+      <c r="DX9" s="33" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -5438,11 +5461,11 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="DN10" s="24">
+      <c r="DN10" s="23">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="DO10" s="25">
+      <c r="DO10" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -5477,11 +5500,11 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX10" s="17" t="s">
+      <c r="DX10" s="33" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -5897,11 +5920,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN11" s="24">
+      <c r="DN11" s="23">
         <f t="shared" si="0"/>
         <v>86.5</v>
       </c>
-      <c r="DO11" s="25">
+      <c r="DO11" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -5936,11 +5959,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX11" s="17" t="s">
+      <c r="DX11" s="33" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -6356,11 +6379,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN12" s="24">
+      <c r="DN12" s="23">
         <f t="shared" si="0"/>
         <v>83.5</v>
       </c>
-      <c r="DO12" s="25">
+      <c r="DO12" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -6395,11 +6418,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX12" s="17" t="s">
+      <c r="DX12" s="33" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -6815,11 +6838,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN13" s="24">
+      <c r="DN13" s="23">
         <f t="shared" si="0"/>
         <v>86.5</v>
       </c>
-      <c r="DO13" s="25">
+      <c r="DO13" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -6854,11 +6877,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX13" s="17" t="s">
+      <c r="DX13" s="33" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:128" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -7274,11 +7297,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN14" s="24">
+      <c r="DN14" s="23">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="DO14" s="25">
+      <c r="DO14" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -7313,11 +7336,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX14" s="17" t="s">
+      <c r="DX14" s="33" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -7729,11 +7752,11 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="DN15" s="24">
+      <c r="DN15" s="23">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="DO15" s="25">
+      <c r="DO15" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -7768,11 +7791,11 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX15" s="17" t="s">
+      <c r="DX15" s="33" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -8182,11 +8205,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN16" s="24">
+      <c r="DN16" s="23">
         <f t="shared" si="0"/>
         <v>86.5</v>
       </c>
-      <c r="DO16" s="25">
+      <c r="DO16" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -8221,11 +8244,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX16" s="17" t="s">
+      <c r="DX16" s="33" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -8639,11 +8662,11 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="DN17" s="24">
+      <c r="DN17" s="23">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="DO17" s="25">
+      <c r="DO17" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -8678,11 +8701,11 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX17" s="17" t="s">
+      <c r="DX17" s="33" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -9098,11 +9121,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN18" s="24">
+      <c r="DN18" s="23">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
-      <c r="DO18" s="25">
+      <c r="DO18" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -9137,11 +9160,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX18" s="23" t="s">
+      <c r="DX18" s="35" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>17</v>
       </c>
@@ -9557,11 +9580,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN19" s="24">
+      <c r="DN19" s="23">
         <f t="shared" si="0"/>
         <v>86.5</v>
       </c>
-      <c r="DO19" s="25">
+      <c r="DO19" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -9596,11 +9619,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX19" s="17" t="s">
+      <c r="DX19" s="33" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A20" s="10">
         <v>18</v>
       </c>
@@ -10010,11 +10033,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN20" s="24">
+      <c r="DN20" s="23">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="DO20" s="25">
+      <c r="DO20" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -10049,11 +10072,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX20" s="17" t="s">
+      <c r="DX20" s="33" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -10469,11 +10492,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN21" s="24">
+      <c r="DN21" s="23">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="DO21" s="25">
+      <c r="DO21" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -10508,11 +10531,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX21" s="17" t="s">
+      <c r="DX21" s="33" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="22" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -10928,11 +10951,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN22" s="24">
+      <c r="DN22" s="23">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="DO22" s="25">
+      <c r="DO22" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -10967,11 +10990,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX22" s="17" t="s">
+      <c r="DX22" s="33" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A23" s="10">
         <v>21</v>
       </c>
@@ -11379,11 +11402,11 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="DN23" s="24">
+      <c r="DN23" s="23">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="DO23" s="25">
+      <c r="DO23" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -11418,11 +11441,11 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX23" s="17" t="s">
+      <c r="DX23" s="33" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A24" s="10">
         <v>22</v>
       </c>
@@ -11836,11 +11859,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN24" s="24">
+      <c r="DN24" s="23">
         <f>L24+Q24+V24+AA24+AF24+AK24+AP24+AU24+AZ24+BE24+BJ24</f>
         <v>83</v>
       </c>
-      <c r="DO24" s="25">
+      <c r="DO24" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -11875,11 +11898,11 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX24" s="17" t="s">
+      <c r="DX24" s="33" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>23</v>
       </c>
@@ -12295,11 +12318,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN25" s="24">
+      <c r="DN25" s="23">
         <f t="shared" ref="DN25:DN54" si="75">L25+Q25+V25+AA25+AF25+AK25+AP25+AU25+AZ25+BE25+BJ25</f>
         <v>85</v>
       </c>
-      <c r="DO25" s="25">
+      <c r="DO25" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -12334,11 +12357,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX25" s="17" t="s">
+      <c r="DX25" s="33" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A26" s="10">
         <v>24</v>
       </c>
@@ -12746,11 +12769,11 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="DN26" s="24">
+      <c r="DN26" s="23">
         <f t="shared" si="75"/>
         <v>85</v>
       </c>
-      <c r="DO26" s="25">
+      <c r="DO26" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -12785,9 +12808,9 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX26" s="17"/>
+      <c r="DX26" s="33"/>
     </row>
-    <row r="27" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <v>25</v>
       </c>
@@ -13203,11 +13226,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN27" s="24">
+      <c r="DN27" s="23">
         <f t="shared" si="75"/>
         <v>82</v>
       </c>
-      <c r="DO27" s="25">
+      <c r="DO27" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -13242,11 +13265,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX27" s="17" t="s">
+      <c r="DX27" s="33" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A28" s="10">
         <v>26</v>
       </c>
@@ -13658,11 +13681,11 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="DN28" s="24">
+      <c r="DN28" s="23">
         <f t="shared" si="75"/>
         <v>85.5</v>
       </c>
-      <c r="DO28" s="25">
+      <c r="DO28" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -13697,11 +13720,11 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX28" s="17" t="s">
+      <c r="DX28" s="33" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A29" s="10">
         <v>27</v>
       </c>
@@ -14109,11 +14132,11 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="DN29" s="24">
+      <c r="DN29" s="23">
         <f t="shared" si="75"/>
         <v>82</v>
       </c>
-      <c r="DO29" s="25">
+      <c r="DO29" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -14148,9 +14171,9 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX29" s="17"/>
+      <c r="DX29" s="33"/>
     </row>
-    <row r="30" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
         <v>28</v>
       </c>
@@ -14566,11 +14589,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN30" s="24">
+      <c r="DN30" s="23">
         <f t="shared" si="75"/>
         <v>83</v>
       </c>
-      <c r="DO30" s="25">
+      <c r="DO30" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -14605,9 +14628,11 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX30" s="17"/>
+      <c r="DX30" s="33" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="31" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A31" s="10">
         <v>29</v>
       </c>
@@ -15017,11 +15042,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN31" s="24">
+      <c r="DN31" s="23">
         <f t="shared" si="75"/>
         <v>88</v>
       </c>
-      <c r="DO31" s="25">
+      <c r="DO31" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -15056,11 +15081,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX31" s="17" t="s">
+      <c r="DX31" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A32" s="10">
         <v>30</v>
       </c>
@@ -15474,11 +15499,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN32" s="24">
+      <c r="DN32" s="23">
         <f t="shared" si="75"/>
         <v>88</v>
       </c>
-      <c r="DO32" s="25">
+      <c r="DO32" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -15513,11 +15538,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX32" s="17" t="s">
+      <c r="DX32" s="33" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
         <v>31</v>
       </c>
@@ -15933,11 +15958,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN33" s="24">
+      <c r="DN33" s="23">
         <f t="shared" si="75"/>
         <v>87.5</v>
       </c>
-      <c r="DO33" s="25">
+      <c r="DO33" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -15972,11 +15997,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX33" s="17" t="s">
+      <c r="DX33" s="33" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
         <v>32</v>
       </c>
@@ -16392,11 +16417,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN34" s="24">
+      <c r="DN34" s="23">
         <f t="shared" si="75"/>
         <v>84</v>
       </c>
-      <c r="DO34" s="25">
+      <c r="DO34" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -16431,11 +16456,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX34" s="17" t="s">
+      <c r="DX34" s="33" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
         <v>33</v>
       </c>
@@ -16851,11 +16876,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN35" s="24">
+      <c r="DN35" s="23">
         <f t="shared" si="75"/>
         <v>82</v>
       </c>
-      <c r="DO35" s="25">
+      <c r="DO35" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -16890,11 +16915,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX35" s="17" t="s">
+      <c r="DX35" s="33" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="36" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
         <v>34</v>
       </c>
@@ -17310,11 +17335,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN36" s="24">
+      <c r="DN36" s="23">
         <f t="shared" si="75"/>
         <v>87</v>
       </c>
-      <c r="DO36" s="25">
+      <c r="DO36" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -17349,11 +17374,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX36" s="17" t="s">
+      <c r="DX36" s="33" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
         <v>35</v>
       </c>
@@ -17769,11 +17794,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN37" s="24">
+      <c r="DN37" s="23">
         <f t="shared" si="75"/>
         <v>85.5</v>
       </c>
-      <c r="DO37" s="25">
+      <c r="DO37" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -17808,11 +17833,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX37" s="17" t="s">
+      <c r="DX37" s="33" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A38" s="10">
         <v>36</v>
       </c>
@@ -18228,11 +18253,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN38" s="24">
+      <c r="DN38" s="23">
         <f t="shared" si="75"/>
         <v>91</v>
       </c>
-      <c r="DO38" s="25">
+      <c r="DO38" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -18267,11 +18292,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX38" s="17" t="s">
+      <c r="DX38" s="33" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A39" s="10">
         <v>37</v>
       </c>
@@ -18685,11 +18710,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN39" s="24">
+      <c r="DN39" s="23">
         <f t="shared" si="75"/>
         <v>89.5</v>
       </c>
-      <c r="DO39" s="25">
+      <c r="DO39" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -18724,11 +18749,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX39" s="17" t="s">
+      <c r="DX39" s="33" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A40" s="10">
         <v>38</v>
       </c>
@@ -19142,11 +19167,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN40" s="24">
+      <c r="DN40" s="23">
         <f t="shared" si="75"/>
         <v>86.5</v>
       </c>
-      <c r="DO40" s="25">
+      <c r="DO40" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -19181,11 +19206,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX40" s="17" t="s">
+      <c r="DX40" s="33" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
         <v>39</v>
       </c>
@@ -19601,11 +19626,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN41" s="24">
+      <c r="DN41" s="23">
         <f t="shared" si="75"/>
         <v>83</v>
       </c>
-      <c r="DO41" s="25">
+      <c r="DO41" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -19640,11 +19665,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX41" s="17" t="s">
+      <c r="DX41" s="33" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A42" s="10">
         <v>40</v>
       </c>
@@ -20060,11 +20085,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN42" s="24">
+      <c r="DN42" s="23">
         <f t="shared" si="75"/>
         <v>85</v>
       </c>
-      <c r="DO42" s="25">
+      <c r="DO42" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -20099,11 +20124,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX42" s="17" t="s">
+      <c r="DX42" s="33" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A43" s="10">
         <v>41</v>
       </c>
@@ -20519,11 +20544,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN43" s="24">
+      <c r="DN43" s="23">
         <f t="shared" si="75"/>
         <v>88.5</v>
       </c>
-      <c r="DO43" s="25">
+      <c r="DO43" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -20558,11 +20583,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX43" s="17" t="s">
+      <c r="DX43" s="33" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A44" s="10">
         <v>42</v>
       </c>
@@ -20572,8 +20597,12 @@
       <c r="C44" s="10">
         <v>182412044</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="8"/>
+      <c r="D44" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>213</v>
+      </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="5">
@@ -20970,11 +20999,11 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="DN44" s="24">
+      <c r="DN44" s="23">
         <f t="shared" si="75"/>
         <v>81</v>
       </c>
-      <c r="DO44" s="25">
+      <c r="DO44" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -21009,11 +21038,11 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX44" s="17" t="s">
+      <c r="DX44" s="33" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="45" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A45" s="10">
         <v>43</v>
       </c>
@@ -21429,11 +21458,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN45" s="24">
+      <c r="DN45" s="23">
         <f t="shared" si="75"/>
         <v>86.5</v>
       </c>
-      <c r="DO45" s="25">
+      <c r="DO45" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -21468,11 +21497,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX45" s="17" t="s">
+      <c r="DX45" s="33" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A46" s="10">
         <v>44</v>
       </c>
@@ -21884,11 +21913,11 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="DN46" s="24">
+      <c r="DN46" s="23">
         <f t="shared" si="75"/>
         <v>86</v>
       </c>
-      <c r="DO46" s="25">
+      <c r="DO46" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -21923,11 +21952,11 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX46" s="17" t="s">
+      <c r="DX46" s="33" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A47" s="10">
         <v>45</v>
       </c>
@@ -21937,8 +21966,12 @@
       <c r="C47" s="10">
         <v>182412048</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="8"/>
+      <c r="D47" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>212</v>
+      </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="5">
@@ -22337,11 +22370,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN47" s="24">
+      <c r="DN47" s="23">
         <f t="shared" si="75"/>
         <v>85.5</v>
       </c>
-      <c r="DO47" s="25">
+      <c r="DO47" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -22376,11 +22409,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX47" s="17" t="s">
+      <c r="DX47" s="33" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A48" s="10">
         <v>46</v>
       </c>
@@ -22796,11 +22829,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN48" s="24">
+      <c r="DN48" s="23">
         <f t="shared" si="75"/>
         <v>88</v>
       </c>
-      <c r="DO48" s="25">
+      <c r="DO48" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -22835,11 +22868,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX48" s="17" t="s">
+      <c r="DX48" s="33" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A49" s="10">
         <v>47</v>
       </c>
@@ -23245,11 +23278,11 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="DN49" s="24">
+      <c r="DN49" s="23">
         <f t="shared" si="75"/>
         <v>84.5</v>
       </c>
-      <c r="DO49" s="25">
+      <c r="DO49" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -23284,9 +23317,9 @@
         <f t="shared" si="74"/>
         <v>FAILED</v>
       </c>
-      <c r="DX49" s="17"/>
+      <c r="DX49" s="33"/>
     </row>
-    <row r="50" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A50" s="10">
         <v>48</v>
       </c>
@@ -23702,11 +23735,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN50" s="24">
+      <c r="DN50" s="23">
         <f t="shared" si="75"/>
         <v>89</v>
       </c>
-      <c r="DO50" s="25">
+      <c r="DO50" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -23741,11 +23774,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX50" s="17" t="s">
+      <c r="DX50" s="33" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="51" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A51" s="10">
         <v>49</v>
       </c>
@@ -24151,11 +24184,11 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="DN51" s="24">
+      <c r="DN51" s="23">
         <f t="shared" si="75"/>
         <v>83</v>
       </c>
-      <c r="DO51" s="25">
+      <c r="DO51" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -24190,9 +24223,9 @@
         <f t="shared" si="74"/>
         <v>FAILED</v>
       </c>
-      <c r="DX51" s="17"/>
+      <c r="DX51" s="33"/>
     </row>
-    <row r="52" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A52" s="10">
         <v>50</v>
       </c>
@@ -24608,11 +24641,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN52" s="24">
+      <c r="DN52" s="23">
         <f t="shared" si="75"/>
         <v>79.5</v>
       </c>
-      <c r="DO52" s="25">
+      <c r="DO52" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -24647,9 +24680,9 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX52" s="17"/>
+      <c r="DX52" s="33"/>
     </row>
-    <row r="53" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A53" s="10">
         <v>51</v>
       </c>
@@ -24659,7 +24692,9 @@
       <c r="C53" s="10">
         <v>182412054</v>
       </c>
-      <c r="D53" s="10"/>
+      <c r="D53" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="E53" s="8" t="s">
         <v>208</v>
       </c>
@@ -25059,11 +25094,11 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="DN53" s="24">
+      <c r="DN53" s="23">
         <f t="shared" si="75"/>
         <v>84.5</v>
       </c>
-      <c r="DO53" s="25">
+      <c r="DO53" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -25098,11 +25133,11 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX53" s="17" t="s">
+      <c r="DX53" s="33" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="54" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A54" s="10">
         <v>52</v>
       </c>
@@ -25518,11 +25553,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN54" s="24">
+      <c r="DN54" s="23">
         <f t="shared" si="75"/>
         <v>84</v>
       </c>
-      <c r="DO54" s="25">
+      <c r="DO54" s="24">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -25557,21 +25592,25 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX54" s="17" t="s">
+      <c r="DX54" s="33" t="s">
         <v>193</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="DX1:DX2"/>
+    <mergeCell ref="CT1:CX1"/>
+    <mergeCell ref="CY1:DC1"/>
+    <mergeCell ref="DD1:DH1"/>
+    <mergeCell ref="DI1:DM1"/>
+    <mergeCell ref="DT1:DT2"/>
+    <mergeCell ref="DS1:DS2"/>
+    <mergeCell ref="DR1:DR2"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="DU1:DU2"/>
+    <mergeCell ref="DV1:DV2"/>
+    <mergeCell ref="DW1:DW2"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="CO1:CS1"/>
     <mergeCell ref="BA1:BE1"/>
@@ -25588,19 +25627,15 @@
     <mergeCell ref="BP1:BT1"/>
     <mergeCell ref="BU1:BY1"/>
     <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="DU1:DU2"/>
-    <mergeCell ref="DV1:DV2"/>
-    <mergeCell ref="DW1:DW2"/>
-    <mergeCell ref="DX1:DX2"/>
-    <mergeCell ref="CT1:CX1"/>
-    <mergeCell ref="CY1:DC1"/>
-    <mergeCell ref="DD1:DH1"/>
-    <mergeCell ref="DI1:DM1"/>
-    <mergeCell ref="DT1:DT2"/>
-    <mergeCell ref="DS1:DS2"/>
-    <mergeCell ref="DR1:DR2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/S1 Keperawatan/RPL/RPL 3/Transkip Nilai RPL3.xlsx
+++ b/S1 Keperawatan/RPL/RPL 3/Transkip Nilai RPL3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Documents\Stikes\Transkip Nilai 2025\S1 Keperawatan\RPL\RPL 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6FD063-B31B-400B-88C1-7271D6F87F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4ABD27-ED55-4B11-A876-626B88DE71BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21697" yWindow="-2460" windowWidth="21795" windowHeight="12975" xr2:uid="{F6728395-340D-414D-8D40-C463D1B813FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6728395-340D-414D-8D40-C463D1B813FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Transkip" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="217">
   <si>
     <t>NO</t>
   </si>
@@ -352,9 +352,6 @@
   </si>
   <si>
     <t>Pekanbaru</t>
-  </si>
-  <si>
-    <t>28 Oktober 1981</t>
   </si>
   <si>
     <t>09 Juni 1989</t>
@@ -683,6 +680,15 @@
   <si>
     <t xml:space="preserve">PENGARUH EDUKASI DENGAN METODE DEMONSTRASI TERHADAP TINGKAT KEMANDIRIAN MOBILISASI DINI PADA PASIEN POST OPERASI DI RSUD NATUNA. </t>
   </si>
+  <si>
+    <t>10 April 1991</t>
+  </si>
+  <si>
+    <t>PENGARUH TERAPI BEKAM TERHADAP KADAR KOLESTEROL PADA PENDERITA HIPERKOLESTEROLEMIA DI KELURAHAN BANDARSYAH</t>
+  </si>
+  <si>
+    <t>28 Oktober 1991</t>
+  </si>
 </sst>
 </file>
 
@@ -887,16 +893,28 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -905,23 +923,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1240,256 +1246,256 @@
   <dimension ref="A1:DX54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="DW3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DX15" sqref="DX15"/>
+      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.265625" style="9" customWidth="1"/>
-    <col min="6" max="7" width="20.265625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="20.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="9" customWidth="1"/>
+    <col min="6" max="7" width="20.28515625" style="4" customWidth="1"/>
     <col min="8" max="12" width="10" style="4" customWidth="1"/>
-    <col min="13" max="22" width="10.1328125" style="4" customWidth="1"/>
-    <col min="23" max="27" width="10.86328125" style="4" customWidth="1"/>
-    <col min="28" max="37" width="10.1328125" style="4" customWidth="1"/>
+    <col min="13" max="22" width="10.140625" style="4" customWidth="1"/>
+    <col min="23" max="27" width="10.85546875" style="4" customWidth="1"/>
+    <col min="28" max="37" width="10.140625" style="4" customWidth="1"/>
     <col min="38" max="42" width="10" style="4" customWidth="1"/>
-    <col min="43" max="47" width="9.86328125" style="4" customWidth="1"/>
+    <col min="43" max="47" width="9.85546875" style="4" customWidth="1"/>
     <col min="48" max="52" width="10" style="4" customWidth="1"/>
-    <col min="53" max="57" width="10.1328125" style="4" customWidth="1"/>
+    <col min="53" max="57" width="10.140625" style="4" customWidth="1"/>
     <col min="58" max="63" width="9" style="4" customWidth="1"/>
-    <col min="64" max="64" width="8.59765625" style="4" customWidth="1"/>
-    <col min="65" max="65" width="7.265625" style="4" customWidth="1"/>
-    <col min="66" max="66" width="7.73046875" style="4" customWidth="1"/>
-    <col min="67" max="67" width="10.86328125" style="4" customWidth="1"/>
-    <col min="68" max="117" width="9.1328125" style="4"/>
-    <col min="118" max="118" width="9.1328125" style="21"/>
-    <col min="119" max="119" width="9.1328125" style="22"/>
-    <col min="120" max="125" width="9.1328125" style="4"/>
-    <col min="126" max="126" width="18.265625" style="4" customWidth="1"/>
-    <col min="127" max="127" width="18.1328125" style="4" customWidth="1"/>
-    <col min="128" max="128" width="166.1328125" style="36" bestFit="1" customWidth="1"/>
-    <col min="129" max="16384" width="9.1328125" style="4"/>
+    <col min="64" max="64" width="8.5703125" style="4" customWidth="1"/>
+    <col min="65" max="65" width="7.28515625" style="4" customWidth="1"/>
+    <col min="66" max="66" width="7.7109375" style="4" customWidth="1"/>
+    <col min="67" max="67" width="10.85546875" style="4" customWidth="1"/>
+    <col min="68" max="117" width="9.140625" style="4"/>
+    <col min="118" max="118" width="9.140625" style="21"/>
+    <col min="119" max="119" width="9.140625" style="22"/>
+    <col min="120" max="125" width="9.140625" style="4"/>
+    <col min="126" max="126" width="18.28515625" style="4" customWidth="1"/>
+    <col min="127" max="127" width="18.140625" style="4" customWidth="1"/>
+    <col min="128" max="128" width="166.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="129" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:128" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26" t="s">
+      <c r="H1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26" t="s">
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26" t="s">
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="26" t="s">
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26" t="s">
+      <c r="AR1" s="29"/>
+      <c r="AS1" s="29"/>
+      <c r="AT1" s="29"/>
+      <c r="AU1" s="29"/>
+      <c r="AV1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="AW1" s="26"/>
-      <c r="AX1" s="26"/>
-      <c r="AY1" s="26"/>
-      <c r="AZ1" s="26"/>
-      <c r="BA1" s="26" t="s">
+      <c r="AW1" s="29"/>
+      <c r="AX1" s="29"/>
+      <c r="AY1" s="29"/>
+      <c r="AZ1" s="29"/>
+      <c r="BA1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="BB1" s="26"/>
-      <c r="BC1" s="26"/>
-      <c r="BD1" s="26"/>
-      <c r="BE1" s="26"/>
-      <c r="BF1" s="26" t="s">
+      <c r="BB1" s="29"/>
+      <c r="BC1" s="29"/>
+      <c r="BD1" s="29"/>
+      <c r="BE1" s="29"/>
+      <c r="BF1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="BG1" s="26"/>
-      <c r="BH1" s="26"/>
-      <c r="BI1" s="26"/>
-      <c r="BJ1" s="26"/>
-      <c r="BK1" s="26" t="s">
+      <c r="BG1" s="29"/>
+      <c r="BH1" s="29"/>
+      <c r="BI1" s="29"/>
+      <c r="BJ1" s="29"/>
+      <c r="BK1" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="BL1" s="26"/>
-      <c r="BM1" s="26"/>
-      <c r="BN1" s="26"/>
-      <c r="BO1" s="26"/>
-      <c r="BP1" s="26" t="s">
+      <c r="BL1" s="29"/>
+      <c r="BM1" s="29"/>
+      <c r="BN1" s="29"/>
+      <c r="BO1" s="29"/>
+      <c r="BP1" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="BQ1" s="26"/>
-      <c r="BR1" s="26"/>
-      <c r="BS1" s="26"/>
-      <c r="BT1" s="26"/>
-      <c r="BU1" s="26" t="s">
+      <c r="BQ1" s="29"/>
+      <c r="BR1" s="29"/>
+      <c r="BS1" s="29"/>
+      <c r="BT1" s="29"/>
+      <c r="BU1" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="BV1" s="26"/>
-      <c r="BW1" s="26"/>
-      <c r="BX1" s="26"/>
-      <c r="BY1" s="26"/>
-      <c r="BZ1" s="26" t="s">
+      <c r="BV1" s="29"/>
+      <c r="BW1" s="29"/>
+      <c r="BX1" s="29"/>
+      <c r="BY1" s="29"/>
+      <c r="BZ1" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="CA1" s="26"/>
-      <c r="CB1" s="26"/>
-      <c r="CC1" s="26"/>
-      <c r="CD1" s="26"/>
-      <c r="CE1" s="26" t="s">
+      <c r="CA1" s="29"/>
+      <c r="CB1" s="29"/>
+      <c r="CC1" s="29"/>
+      <c r="CD1" s="29"/>
+      <c r="CE1" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" s="26"/>
-      <c r="CG1" s="26"/>
-      <c r="CH1" s="26"/>
-      <c r="CI1" s="26"/>
-      <c r="CJ1" s="26" t="s">
+      <c r="CF1" s="29"/>
+      <c r="CG1" s="29"/>
+      <c r="CH1" s="29"/>
+      <c r="CI1" s="29"/>
+      <c r="CJ1" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="CK1" s="26"/>
-      <c r="CL1" s="26"/>
-      <c r="CM1" s="26"/>
-      <c r="CN1" s="26"/>
-      <c r="CO1" s="26" t="s">
+      <c r="CK1" s="29"/>
+      <c r="CL1" s="29"/>
+      <c r="CM1" s="29"/>
+      <c r="CN1" s="29"/>
+      <c r="CO1" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="CP1" s="26"/>
-      <c r="CQ1" s="26"/>
-      <c r="CR1" s="26"/>
-      <c r="CS1" s="26"/>
-      <c r="CT1" s="26" t="s">
+      <c r="CP1" s="29"/>
+      <c r="CQ1" s="29"/>
+      <c r="CR1" s="29"/>
+      <c r="CS1" s="29"/>
+      <c r="CT1" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="CU1" s="26"/>
-      <c r="CV1" s="26"/>
-      <c r="CW1" s="26"/>
-      <c r="CX1" s="26"/>
-      <c r="CY1" s="26" t="s">
+      <c r="CU1" s="29"/>
+      <c r="CV1" s="29"/>
+      <c r="CW1" s="29"/>
+      <c r="CX1" s="29"/>
+      <c r="CY1" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="CZ1" s="26"/>
-      <c r="DA1" s="26"/>
-      <c r="DB1" s="26"/>
-      <c r="DC1" s="26"/>
-      <c r="DD1" s="26" t="s">
+      <c r="CZ1" s="29"/>
+      <c r="DA1" s="29"/>
+      <c r="DB1" s="29"/>
+      <c r="DC1" s="29"/>
+      <c r="DD1" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="DE1" s="26"/>
-      <c r="DF1" s="26"/>
-      <c r="DG1" s="26"/>
-      <c r="DH1" s="26"/>
-      <c r="DI1" s="26" t="s">
+      <c r="DE1" s="29"/>
+      <c r="DF1" s="29"/>
+      <c r="DG1" s="29"/>
+      <c r="DH1" s="29"/>
+      <c r="DI1" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="DJ1" s="26"/>
-      <c r="DK1" s="26"/>
-      <c r="DL1" s="26"/>
-      <c r="DM1" s="26"/>
-      <c r="DN1" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="DO1" s="28"/>
-      <c r="DP1" s="25" t="s">
+      <c r="DJ1" s="29"/>
+      <c r="DK1" s="29"/>
+      <c r="DL1" s="29"/>
+      <c r="DM1" s="29"/>
+      <c r="DN1" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="DO1" s="35"/>
+      <c r="DP1" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="DQ1" s="25"/>
+      <c r="DQ1" s="30"/>
       <c r="DR1" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="DS1" s="25" t="s">
+      <c r="DS1" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="DT1" s="25" t="s">
+      <c r="DT1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="DU1" s="29" t="s">
+      <c r="DU1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="DV1" s="30" t="s">
+      <c r="DV1" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="DW1" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="DW1" s="30" t="s">
+      <c r="DX1" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="DX1" s="34" t="s">
-        <v>151</v>
-      </c>
     </row>
-    <row r="2" spans="1:128" x14ac:dyDescent="0.45">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+    <row r="2" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1821,10 +1827,10 @@
         <v>20</v>
       </c>
       <c r="DN2" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="DO2" s="20" t="s">
         <v>195</v>
-      </c>
-      <c r="DO2" s="20" t="s">
-        <v>196</v>
       </c>
       <c r="DP2" s="1" t="s">
         <v>91</v>
@@ -1833,14 +1839,14 @@
         <v>92</v>
       </c>
       <c r="DR2" s="32"/>
-      <c r="DS2" s="25"/>
-      <c r="DT2" s="25"/>
-      <c r="DU2" s="29"/>
-      <c r="DV2" s="30"/>
-      <c r="DW2" s="30"/>
-      <c r="DX2" s="34"/>
+      <c r="DS2" s="30"/>
+      <c r="DT2" s="30"/>
+      <c r="DU2" s="33"/>
+      <c r="DV2" s="34"/>
+      <c r="DW2" s="34"/>
+      <c r="DX2" s="28"/>
     </row>
-    <row r="3" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -1857,7 +1863,7 @@
         <v>94</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="5">
@@ -2295,11 +2301,11 @@
         <f>IF(DU3&gt;=3.51,"Excellent",(IF(DU3&gt;=2.75,"Highly Satisfactory",(IF(DU3&gt;=2,"Satisfactory","FAILED")))))</f>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX3" s="33" t="s">
-        <v>163</v>
+      <c r="DX3" s="25" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -2316,7 +2322,7 @@
         <v>96</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="5">
@@ -2754,11 +2760,11 @@
         <f t="shared" ref="DW4:DW54" si="74">IF(DU4&gt;=3.51,"Excellent",(IF(DU4&gt;=2.75,"Highly Satisfactory",(IF(DU4&gt;=2,"Satisfactory","FAILED")))))</f>
         <v>Excellent</v>
       </c>
-      <c r="DX4" s="33" t="s">
-        <v>164</v>
+      <c r="DX4" s="25" t="s">
+        <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -2775,7 +2781,7 @@
         <v>98</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="5">
@@ -3213,11 +3219,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX5" s="33" t="s">
-        <v>152</v>
+      <c r="DX5" s="25" t="s">
+        <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -3234,7 +3240,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="5">
@@ -3672,11 +3678,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX6" s="35" t="s">
-        <v>165</v>
+      <c r="DX6" s="26" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -3693,7 +3699,7 @@
         <v>101</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="5">
@@ -4131,11 +4137,11 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX7" s="35" t="s">
-        <v>166</v>
+      <c r="DX7" s="26" t="s">
+        <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -4152,7 +4158,7 @@
         <v>104</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="5">
@@ -4590,11 +4596,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX8" s="33" t="s">
-        <v>154</v>
+      <c r="DX8" s="25" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -4608,10 +4614,10 @@
         <v>105</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="5">
@@ -5049,11 +5055,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX9" s="33" t="s">
-        <v>153</v>
+      <c r="DX9" s="25" t="s">
+        <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:128" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -5063,8 +5069,12 @@
       <c r="C10" s="15">
         <v>182412008</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="7"/>
+      <c r="D10" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="5">
@@ -5500,11 +5510,11 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX10" s="33" t="s">
-        <v>169</v>
+      <c r="DX10" s="25" t="s">
+        <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -5515,13 +5525,13 @@
         <v>182412009</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="5">
@@ -5959,11 +5969,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX11" s="33" t="s">
-        <v>167</v>
+      <c r="DX11" s="25" t="s">
+        <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -5974,13 +5984,13 @@
         <v>182412010</v>
       </c>
       <c r="D12" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="F12" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="5">
@@ -6418,11 +6428,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX12" s="33" t="s">
-        <v>168</v>
+      <c r="DX12" s="25" t="s">
+        <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -6436,10 +6446,10 @@
         <v>95</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="5">
@@ -6877,11 +6887,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX13" s="33" t="s">
-        <v>169</v>
+      <c r="DX13" s="25" t="s">
+        <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:128" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:128" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -6892,13 +6902,13 @@
         <v>182412012</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="5">
@@ -7336,11 +7346,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX14" s="33" t="s">
-        <v>155</v>
+      <c r="DX14" s="25" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:128" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -7351,10 +7361,10 @@
         <v>182412013</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
@@ -7791,11 +7801,11 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX15" s="33" t="s">
-        <v>170</v>
+      <c r="DX15" s="25" t="s">
+        <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:128" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -8244,11 +8254,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX16" s="33" t="s">
-        <v>156</v>
+      <c r="DX16" s="25" t="s">
+        <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -8259,13 +8269,13 @@
         <v>182412015</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="5">
@@ -8701,11 +8711,11 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX17" s="33" t="s">
-        <v>209</v>
+      <c r="DX17" s="25" t="s">
+        <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -8716,13 +8726,13 @@
         <v>182412016</v>
       </c>
       <c r="D18" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="F18" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="5">
@@ -9160,11 +9170,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX18" s="35" t="s">
-        <v>171</v>
+      <c r="DX18" s="26" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>17</v>
       </c>
@@ -9175,13 +9185,13 @@
         <v>182412017</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="5">
@@ -9619,11 +9629,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX19" s="33" t="s">
-        <v>157</v>
+      <c r="DX19" s="25" t="s">
+        <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:128" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>18</v>
       </c>
@@ -10072,11 +10082,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX20" s="33" t="s">
-        <v>158</v>
+      <c r="DX20" s="25" t="s">
+        <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -10087,13 +10097,13 @@
         <v>182412019</v>
       </c>
       <c r="D21" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="F21" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="5">
@@ -10531,11 +10541,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX21" s="33" t="s">
-        <v>172</v>
+      <c r="DX21" s="25" t="s">
+        <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -10546,13 +10556,13 @@
         <v>182412020</v>
       </c>
       <c r="D22" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="F22" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="5">
@@ -10990,11 +11000,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX22" s="33" t="s">
-        <v>173</v>
+      <c r="DX22" s="25" t="s">
+        <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:128" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>21</v>
       </c>
@@ -11441,11 +11451,11 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX23" s="33" t="s">
-        <v>174</v>
+      <c r="DX23" s="25" t="s">
+        <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:128" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>22</v>
       </c>
@@ -11456,10 +11466,10 @@
         <v>182412022</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
@@ -11898,11 +11908,11 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX24" s="33" t="s">
-        <v>175</v>
+      <c r="DX24" s="25" t="s">
+        <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>23</v>
       </c>
@@ -11913,13 +11923,13 @@
         <v>182412023</v>
       </c>
       <c r="D25" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="F25" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="5">
@@ -12357,11 +12367,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX25" s="33" t="s">
-        <v>159</v>
+      <c r="DX25" s="25" t="s">
+        <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:128" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>24</v>
       </c>
@@ -12808,9 +12818,9 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX26" s="33"/>
+      <c r="DX26" s="25"/>
     </row>
-    <row r="27" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>25</v>
       </c>
@@ -12821,13 +12831,13 @@
         <v>182412026</v>
       </c>
       <c r="D27" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="F27" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="5">
@@ -13265,11 +13275,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX27" s="33" t="s">
-        <v>176</v>
+      <c r="DX27" s="25" t="s">
+        <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:128" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>26</v>
       </c>
@@ -13280,10 +13290,10 @@
         <v>182412027</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
@@ -13720,11 +13730,11 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX28" s="33" t="s">
-        <v>201</v>
+      <c r="DX28" s="25" t="s">
+        <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:128" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>27</v>
       </c>
@@ -14171,9 +14181,9 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX29" s="33"/>
+      <c r="DX29" s="25"/>
     </row>
-    <row r="30" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>28</v>
       </c>
@@ -14187,10 +14197,10 @@
         <v>95</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="5">
@@ -14628,11 +14638,11 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX30" s="33" t="s">
-        <v>214</v>
+      <c r="DX30" s="25" t="s">
+        <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:128" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>29</v>
       </c>
@@ -15081,11 +15091,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX31" s="33" t="s">
-        <v>160</v>
+      <c r="DX31" s="25" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:128" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>30</v>
       </c>
@@ -15096,10 +15106,10 @@
         <v>182412031</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
@@ -15538,11 +15548,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX32" s="33" t="s">
-        <v>177</v>
+      <c r="DX32" s="25" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="33" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>31</v>
       </c>
@@ -15553,13 +15563,13 @@
         <v>182412032</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="5">
@@ -15997,11 +16007,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX33" s="33" t="s">
-        <v>178</v>
+      <c r="DX33" s="25" t="s">
+        <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>32</v>
       </c>
@@ -16012,13 +16022,13 @@
         <v>182412034</v>
       </c>
       <c r="D34" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>130</v>
-      </c>
       <c r="F34" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="5">
@@ -16456,11 +16466,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX34" s="33" t="s">
-        <v>179</v>
+      <c r="DX34" s="25" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>33</v>
       </c>
@@ -16471,13 +16481,13 @@
         <v>182412035</v>
       </c>
       <c r="D35" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="F35" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="5">
@@ -16915,11 +16925,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX35" s="33" t="s">
-        <v>161</v>
+      <c r="DX35" s="25" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>34</v>
       </c>
@@ -16930,13 +16940,13 @@
         <v>182412036</v>
       </c>
       <c r="D36" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>134</v>
-      </c>
       <c r="F36" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="5">
@@ -17374,11 +17384,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX36" s="33" t="s">
-        <v>180</v>
+      <c r="DX36" s="25" t="s">
+        <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>35</v>
       </c>
@@ -17389,13 +17399,13 @@
         <v>182412037</v>
       </c>
       <c r="D37" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="F37" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="5">
@@ -17833,11 +17843,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX37" s="33" t="s">
-        <v>181</v>
+      <c r="DX37" s="25" t="s">
+        <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>36</v>
       </c>
@@ -17848,13 +17858,13 @@
         <v>182412038</v>
       </c>
       <c r="D38" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>138</v>
-      </c>
       <c r="F38" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="5">
@@ -18292,11 +18302,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX38" s="33" t="s">
-        <v>182</v>
+      <c r="DX38" s="25" t="s">
+        <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:128" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>37</v>
       </c>
@@ -18307,10 +18317,10 @@
         <v>182412039</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -18749,11 +18759,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX39" s="33" t="s">
-        <v>183</v>
+      <c r="DX39" s="25" t="s">
+        <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:128" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>38</v>
       </c>
@@ -18764,10 +18774,10 @@
         <v>182412040</v>
       </c>
       <c r="D40" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
@@ -19206,11 +19216,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX40" s="33" t="s">
-        <v>162</v>
+      <c r="DX40" s="25" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <v>39</v>
       </c>
@@ -19224,10 +19234,10 @@
         <v>95</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="5">
@@ -19665,11 +19675,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX41" s="33" t="s">
-        <v>184</v>
+      <c r="DX41" s="25" t="s">
+        <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>40</v>
       </c>
@@ -19683,10 +19693,10 @@
         <v>95</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="5">
@@ -20124,11 +20134,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX42" s="33" t="s">
-        <v>185</v>
+      <c r="DX42" s="25" t="s">
+        <v>184</v>
       </c>
     </row>
-    <row r="43" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <v>41</v>
       </c>
@@ -20142,10 +20152,10 @@
         <v>95</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="5">
@@ -20583,11 +20593,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX43" s="33" t="s">
-        <v>186</v>
+      <c r="DX43" s="25" t="s">
+        <v>185</v>
       </c>
     </row>
-    <row r="44" spans="1:128" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>42</v>
       </c>
@@ -20601,7 +20611,7 @@
         <v>95</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -21038,11 +21048,11 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX44" s="33" t="s">
-        <v>187</v>
+      <c r="DX44" s="25" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="45" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
         <v>43</v>
       </c>
@@ -21056,10 +21066,10 @@
         <v>95</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="5">
@@ -21497,11 +21507,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX45" s="33" t="s">
-        <v>188</v>
+      <c r="DX45" s="25" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="46" spans="1:128" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>44</v>
       </c>
@@ -21512,10 +21522,10 @@
         <v>182412047</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
@@ -21952,11 +21962,11 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX46" s="33" t="s">
-        <v>202</v>
+      <c r="DX46" s="25" t="s">
+        <v>201</v>
       </c>
     </row>
-    <row r="47" spans="1:128" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>45</v>
       </c>
@@ -21967,10 +21977,10 @@
         <v>182412048</v>
       </c>
       <c r="D47" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E47" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>212</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -22409,11 +22419,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX47" s="33" t="s">
-        <v>189</v>
+      <c r="DX47" s="25" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
         <v>46</v>
       </c>
@@ -22424,13 +22434,13 @@
         <v>182412049</v>
       </c>
       <c r="D48" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E48" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="F48" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="5">
@@ -22868,11 +22878,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX48" s="33" t="s">
-        <v>190</v>
+      <c r="DX48" s="25" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:128" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>47</v>
       </c>
@@ -23317,9 +23327,9 @@
         <f t="shared" si="74"/>
         <v>FAILED</v>
       </c>
-      <c r="DX49" s="33"/>
+      <c r="DX49" s="25"/>
     </row>
-    <row r="50" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
         <v>48</v>
       </c>
@@ -23333,10 +23343,10 @@
         <v>105</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G50" s="10"/>
       <c r="H50" s="5">
@@ -23774,11 +23784,11 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX50" s="33" t="s">
-        <v>191</v>
+      <c r="DX50" s="25" t="s">
+        <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:128" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>49</v>
       </c>
@@ -24223,9 +24233,9 @@
         <f t="shared" si="74"/>
         <v>FAILED</v>
       </c>
-      <c r="DX51" s="33"/>
+      <c r="DX51" s="25"/>
     </row>
-    <row r="52" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
         <v>50</v>
       </c>
@@ -24236,13 +24246,13 @@
         <v>182412053</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G52" s="10"/>
       <c r="H52" s="5">
@@ -24680,9 +24690,9 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX52" s="33"/>
+      <c r="DX52" s="25"/>
     </row>
-    <row r="53" spans="1:128" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>51</v>
       </c>
@@ -24693,10 +24703,10 @@
         <v>182412054</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
@@ -25133,11 +25143,11 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX53" s="33" t="s">
-        <v>192</v>
+      <c r="DX53" s="25" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="54" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
         <v>52</v>
       </c>
@@ -25148,13 +25158,13 @@
         <v>182412055</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E54" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F54" s="15" t="s">
         <v>147</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>148</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="5">
@@ -25592,25 +25602,21 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX54" s="33" t="s">
-        <v>193</v>
+      <c r="DX54" s="25" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="DX1:DX2"/>
-    <mergeCell ref="CT1:CX1"/>
-    <mergeCell ref="CY1:DC1"/>
-    <mergeCell ref="DD1:DH1"/>
-    <mergeCell ref="DI1:DM1"/>
-    <mergeCell ref="DT1:DT2"/>
-    <mergeCell ref="DS1:DS2"/>
-    <mergeCell ref="DR1:DR2"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="DU1:DU2"/>
-    <mergeCell ref="DV1:DV2"/>
-    <mergeCell ref="DW1:DW2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="CO1:CS1"/>
     <mergeCell ref="BA1:BE1"/>
@@ -25627,15 +25633,19 @@
     <mergeCell ref="BP1:BT1"/>
     <mergeCell ref="BU1:BY1"/>
     <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="DU1:DU2"/>
+    <mergeCell ref="DV1:DV2"/>
+    <mergeCell ref="DW1:DW2"/>
+    <mergeCell ref="DX1:DX2"/>
+    <mergeCell ref="CT1:CX1"/>
+    <mergeCell ref="CY1:DC1"/>
+    <mergeCell ref="DD1:DH1"/>
+    <mergeCell ref="DI1:DM1"/>
+    <mergeCell ref="DT1:DT2"/>
+    <mergeCell ref="DS1:DS2"/>
+    <mergeCell ref="DR1:DR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/S1 Keperawatan/RPL/RPL 3/Transkip Nilai RPL3.xlsx
+++ b/S1 Keperawatan/RPL/RPL 3/Transkip Nilai RPL3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Documents\Stikes\Transkip Nilai 2025\S1 Keperawatan\RPL\RPL 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308126DB-8070-4EC3-9D42-1866750C43D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3092F6C-8A8B-4C82-B8C7-77894CA22E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6728395-340D-414D-8D40-C463D1B813FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="317">
   <si>
     <t>NO</t>
   </si>
@@ -732,9 +732,6 @@
     <t>7 November 2025</t>
   </si>
   <si>
-    <t>wirdani</t>
-  </si>
-  <si>
     <t xml:space="preserve">Namu Sira Sira </t>
   </si>
   <si>
@@ -847,6 +844,147 @@
   </si>
   <si>
     <t>Kusmarsari</t>
+  </si>
+  <si>
+    <t>Judul Inggris</t>
+  </si>
+  <si>
+    <t>Factors Influencing Salt Intake Compliance Among Diabetes Mellitus Patients in the Sedanao Primary Health Care Center Working Area</t>
+  </si>
+  <si>
+    <t>Factors Affecting the Quality of Health Services on Outpatient Satisfaction at the Sedanao Primary Health Care Center Technical Implementation Unit (UPTD)</t>
+  </si>
+  <si>
+    <t>The Effect of Broiler Egg Supplementary Feeding on Body Weight Levels of Stunted Children in the Serasan Primary Health Care Center Working Area, Natuna Regency</t>
+  </si>
+  <si>
+    <t>The Relationship between Preventive Behavior and the Incidence of HIV/AIDS Among Female Commercial Sex Workers in Ranai</t>
+  </si>
+  <si>
+    <t>The Correlation between Self-Management and Blood Pressure in Hypertensive Patients in the Ranai Primary Health Care Center Working Area</t>
+  </si>
+  <si>
+    <t>The Effect of Diet Management on Hypertension Diet Compliance and Achievement in Tanjung Village, Pulau Laut Primary Health Care Center UPTD Working Area, Natuna Regency in 2025</t>
+  </si>
+  <si>
+    <t>The Effect of Motivational Interviewing (MI) on Improving Compliance in Preoperative Patients Scheduled for Effective Local Anesthesia at Raja Ahmad Tabib Regional General Hospital</t>
+  </si>
+  <si>
+    <t>The Effect of Cupping Therapy on Cholesterol Levels in Hypercholesterolemia Patients in Bandarsyah Village</t>
+  </si>
+  <si>
+    <t>Factors Influencing Patient Satisfaction with the Quality of Services at Batu Jaya Primary Health Care Center, Natuna Regency</t>
+  </si>
+  <si>
+    <t>The Relationship between Response Time and Anxiety Level in Emergency Department Patients at Natuna Regional General Hospital</t>
+  </si>
+  <si>
+    <t>The Correlation between Work Motivation and Incentive Funds (Bok) with Nurse Performance at the Sedanao Primary Health Care Center UPTD</t>
+  </si>
+  <si>
+    <t>Risk Factors Associated with the Occurrence of Malaria Relapse in Kampung Bugis Village</t>
+  </si>
+  <si>
+    <t>The Relationship between Family Support, Self-Efficacy, and Medication Adherence in Pulmonary Tuberculosis Patients at the Ranai Primary Health Care Center UPTD</t>
+  </si>
+  <si>
+    <t>The Correlation between Dietary Patterns, Physical Activity, and the Incidence of Coronary Heart Disease at the Cardiac Clinic of Raja Ahmad Tabib Regional General Hospital, Tanjungpinang City, Riau Islands Province</t>
+  </si>
+  <si>
+    <t>The Relationship between Length of Infant Hospitalization, Family Support, and Parental Anxiety Levels in the NICU Room of Natuna Regional General Hospital in 2025</t>
+  </si>
+  <si>
+    <t>The Effect of Work Motivation Program on Employee Performance at the Ranai Primary Health Care Center UPTD</t>
+  </si>
+  <si>
+    <t>The Relationship between Knowledge Level about Hypertension and Hypertension Complication Prevention Behavior at the BKK Class I Tanjungpinang Port Working Area</t>
+  </si>
+  <si>
+    <t>Factors Related to Drug Abuse Among Inmates at the Class I State Detention Center, Tanjungpinang</t>
+  </si>
+  <si>
+    <t>The Effect of the Cerdik Program on Blood Pressure in Hypertensive Patients at the Midai Primary Health Care Center</t>
+  </si>
+  <si>
+    <t>A Phenomenological Study: Phenomena and Family Experiences in Caring for Patients with Schizophrenia in the Natuna Coastal Community Area</t>
+  </si>
+  <si>
+    <t>The Correlation between Socio-Cultural Factors and Efforts to Prevent the Transmission of Pulmonary Tuberculosis in the Serasan Timur Primary Health Care Center, Natuna Regency</t>
+  </si>
+  <si>
+    <t>The Relationship between Knowledge and Healthy Lifestyle Behavior with the Incidence of Gastritis in the Outpatient Department of Natuna Regional General Hospital</t>
+  </si>
+  <si>
+    <t>Factors Related to the Incidence of Chronic Energy Deficiency (CED) in Pregnant Women in the Pulau Serasan Primary Health Care Center Working Area</t>
+  </si>
+  <si>
+    <t>The Effect of Intradialytic Exercise on Fatigue in Chronic Kidney Disease Patients Undergoing Hemodialysis Therapy at Natuna Regional General Hospital</t>
+  </si>
+  <si>
+    <t>The Effect of Education using the Demonstration Method on the Level of Early Mobilization Independence in Post-Operative Patients at Natuna Regional General Hospital</t>
+  </si>
+  <si>
+    <t>The Effect of Early Mobilization on the Inflammatory Phase Wound Healing Time in Post-Operative Patients in the Surgical Inpatient Room of Tanjungpinang Regional General Hospital</t>
+  </si>
+  <si>
+    <t>The Effect of Health Education through Video on Anxiety in Pre-Operative Sectio Caesarea Mothers at Natuna District General Hospital</t>
+  </si>
+  <si>
+    <t>The Relationship between Duration of Illness and Quality of Life in Type II Diabetes Mellitus Patients in the Outpatient Department of Natuna Regional General Hospital</t>
+  </si>
+  <si>
+    <t>The Relationship between the Role of Elderly Cadres and Family Support with Elderly Visits to the Elderly Posyandu in the Sedanau Primary Health Care Center UPTD Working Area in 2025</t>
+  </si>
+  <si>
+    <t>The Correlation between Consumption of Risky Foods and the Incidence of Tonsillitis in School-Age Children at Natuna Regional General Hospital</t>
+  </si>
+  <si>
+    <t>The Effect of Blanket Warmer Use on Postoperative Hypothermia in the Recovery Room of Natuna District General Hospital</t>
+  </si>
+  <si>
+    <t>Factors Associated with the Incidence of Acute Respiratory Infection (ARI) in Toddlers in the Bunguran Tengah Primary Health Care Center Working Area</t>
+  </si>
+  <si>
+    <t>The Effect of Preoperative Skin Preparation using 0.5% Chlorhexidine on the Inflammatory Phase Wound Healing Process in Post-Laparotomy Patients at Natuna Regional General Hospital</t>
+  </si>
+  <si>
+    <t>The Effect of Healthy Lifestyle Education on Adolescents' Knowledge Level of Early Hypertension Prevention in Pulau Laut Sub-district</t>
+  </si>
+  <si>
+    <t>The Relationship between Family Support and Medication Adherence in Pulmonary Tuberculosis Patients at Melayu Primary Health Care Center, Tanjungpinang City</t>
+  </si>
+  <si>
+    <t>The Correlation between Health Literacy, Self-Efficacy, and Adherence to Taking Blood Supplement Tablets Among Female Adolescents at Bunguran Barat High School, Sedanao Primary Health Care Center Working Area</t>
+  </si>
+  <si>
+    <t>The Relationship between Anxiety and Fatigue in Stage V Chronic Kidney Disease (CKD) Patients Undergoing Hemodialysis at Natuna Regional General Hospital</t>
+  </si>
+  <si>
+    <t>The Relationship between Family Role and Medication Adherence in Elderly Hypertensive Patients in Ranai Kota Village</t>
+  </si>
+  <si>
+    <t>The Correlation between Lifestyle and the Risk of Hypertension in Adolescents in the Ranai Primary Health Care Center Working Area</t>
+  </si>
+  <si>
+    <t>Factors Related to Toddler Visits to Posyandu (Integrated Health Post) in the Ranai Primary Health Care Center Working Area</t>
+  </si>
+  <si>
+    <t>Factors Influencing Self-Management in Stroke Patients at Bintan District Regional General Hospital</t>
+  </si>
+  <si>
+    <t>The Relationship between Parental Presence and Child Anxiety During Intravenous Line Medication Administration in the Pediatric Inpatient Room of Natuna Regional General Hospital</t>
+  </si>
+  <si>
+    <t>The Correlation between Medication Adherence and Relapse in Schizophrenia Patients in Natuna Regency in 2025</t>
+  </si>
+  <si>
+    <t>The Relationship between Family Support and Quality of Life in Stage V Chronic Kidney Failure Patients Undergoing Hemodialysis at Natuna Regional General Hospital</t>
+  </si>
+  <si>
+    <t>The Correlation between Mothers' Knowledge and Adherence to Completing Advanced Immunizations in Toddlers in the Ranai Primary Health Care Center Working Area, Bunguran Timur Sub-district, Natuna Regency</t>
+  </si>
+  <si>
+    <t>The Relationship between Anxiety and Hypertension Compliance in Elderly Women in the Sedanau Primary Health Care Center UPTD Working Area</t>
   </si>
 </sst>
 </file>
@@ -1067,29 +1205,29 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1406,20 +1544,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7BDEEA-51B9-444E-8343-089DD6E8FAC7}">
-  <dimension ref="A1:DX53"/>
+  <dimension ref="A1:DY50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="DX24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="CI3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="DA21" sqref="DA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="35" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" style="4" customWidth="1"/>
     <col min="5" max="6" width="20.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" style="4" customWidth="1"/>
@@ -1443,20 +1581,21 @@
     <col min="126" max="126" width="18.28515625" style="4" customWidth="1"/>
     <col min="127" max="127" width="18.140625" style="4" customWidth="1"/>
     <col min="128" max="128" width="186.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="129" max="16384" width="9.140625" style="4"/>
+    <col min="129" max="129" width="198.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="130" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>66</v>
       </c>
       <c r="E1" s="38" t="s">
@@ -1465,201 +1604,204 @@
       <c r="F1" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33" t="s">
+      <c r="H1" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33" t="s">
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33" t="s">
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AW1" s="33"/>
-      <c r="AX1" s="33"/>
-      <c r="AY1" s="33"/>
-      <c r="AZ1" s="33"/>
-      <c r="BA1" s="33" t="s">
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="BB1" s="33"/>
-      <c r="BC1" s="33"/>
-      <c r="BD1" s="33"/>
-      <c r="BE1" s="33"/>
-      <c r="BF1" s="33" t="s">
+      <c r="BB1" s="37"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="BG1" s="33"/>
-      <c r="BH1" s="33"/>
-      <c r="BI1" s="33"/>
-      <c r="BJ1" s="33"/>
-      <c r="BK1" s="33" t="s">
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="BL1" s="33"/>
-      <c r="BM1" s="33"/>
-      <c r="BN1" s="33"/>
-      <c r="BO1" s="33"/>
-      <c r="BP1" s="33" t="s">
+      <c r="BL1" s="37"/>
+      <c r="BM1" s="37"/>
+      <c r="BN1" s="37"/>
+      <c r="BO1" s="37"/>
+      <c r="BP1" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="BQ1" s="33"/>
-      <c r="BR1" s="33"/>
-      <c r="BS1" s="33"/>
-      <c r="BT1" s="33"/>
-      <c r="BU1" s="33" t="s">
+      <c r="BQ1" s="37"/>
+      <c r="BR1" s="37"/>
+      <c r="BS1" s="37"/>
+      <c r="BT1" s="37"/>
+      <c r="BU1" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="BV1" s="33"/>
-      <c r="BW1" s="33"/>
-      <c r="BX1" s="33"/>
-      <c r="BY1" s="33"/>
-      <c r="BZ1" s="33" t="s">
+      <c r="BV1" s="37"/>
+      <c r="BW1" s="37"/>
+      <c r="BX1" s="37"/>
+      <c r="BY1" s="37"/>
+      <c r="BZ1" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="CA1" s="33"/>
-      <c r="CB1" s="33"/>
-      <c r="CC1" s="33"/>
-      <c r="CD1" s="33"/>
-      <c r="CE1" s="33" t="s">
+      <c r="CA1" s="37"/>
+      <c r="CB1" s="37"/>
+      <c r="CC1" s="37"/>
+      <c r="CD1" s="37"/>
+      <c r="CE1" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="CF1" s="33"/>
-      <c r="CG1" s="33"/>
-      <c r="CH1" s="33"/>
-      <c r="CI1" s="33"/>
-      <c r="CJ1" s="33" t="s">
+      <c r="CF1" s="37"/>
+      <c r="CG1" s="37"/>
+      <c r="CH1" s="37"/>
+      <c r="CI1" s="37"/>
+      <c r="CJ1" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="CK1" s="33"/>
-      <c r="CL1" s="33"/>
-      <c r="CM1" s="33"/>
-      <c r="CN1" s="33"/>
-      <c r="CO1" s="33" t="s">
+      <c r="CK1" s="37"/>
+      <c r="CL1" s="37"/>
+      <c r="CM1" s="37"/>
+      <c r="CN1" s="37"/>
+      <c r="CO1" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="CP1" s="33"/>
-      <c r="CQ1" s="33"/>
-      <c r="CR1" s="33"/>
-      <c r="CS1" s="33"/>
-      <c r="CT1" s="33" t="s">
+      <c r="CP1" s="37"/>
+      <c r="CQ1" s="37"/>
+      <c r="CR1" s="37"/>
+      <c r="CS1" s="37"/>
+      <c r="CT1" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="CU1" s="33"/>
-      <c r="CV1" s="33"/>
-      <c r="CW1" s="33"/>
-      <c r="CX1" s="33"/>
-      <c r="CY1" s="33" t="s">
+      <c r="CU1" s="37"/>
+      <c r="CV1" s="37"/>
+      <c r="CW1" s="37"/>
+      <c r="CX1" s="37"/>
+      <c r="CY1" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="CZ1" s="33"/>
-      <c r="DA1" s="33"/>
-      <c r="DB1" s="33"/>
-      <c r="DC1" s="33"/>
-      <c r="DD1" s="33" t="s">
+      <c r="CZ1" s="37"/>
+      <c r="DA1" s="37"/>
+      <c r="DB1" s="37"/>
+      <c r="DC1" s="37"/>
+      <c r="DD1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="DE1" s="33"/>
-      <c r="DF1" s="33"/>
-      <c r="DG1" s="33"/>
-      <c r="DH1" s="33"/>
-      <c r="DI1" s="33" t="s">
+      <c r="DE1" s="37"/>
+      <c r="DF1" s="37"/>
+      <c r="DG1" s="37"/>
+      <c r="DH1" s="37"/>
+      <c r="DI1" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="DJ1" s="33"/>
-      <c r="DK1" s="33"/>
-      <c r="DL1" s="33"/>
-      <c r="DM1" s="33"/>
-      <c r="DN1" s="37" t="s">
+      <c r="DJ1" s="37"/>
+      <c r="DK1" s="37"/>
+      <c r="DL1" s="37"/>
+      <c r="DM1" s="37"/>
+      <c r="DN1" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="DO1" s="37"/>
-      <c r="DP1" s="34" t="s">
+      <c r="DO1" s="39"/>
+      <c r="DP1" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="DQ1" s="34"/>
-      <c r="DR1" s="34" t="s">
+      <c r="DQ1" s="36"/>
+      <c r="DR1" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="DS1" s="34" t="s">
+      <c r="DS1" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="DT1" s="34" t="s">
+      <c r="DT1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="DU1" s="35" t="s">
+      <c r="DU1" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="DV1" s="36" t="s">
+      <c r="DV1" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="DW1" s="36" t="s">
+      <c r="DW1" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="DX1" s="35" t="s">
+      <c r="DX1" s="40" t="s">
         <v>144</v>
       </c>
+      <c r="DY1" s="41" t="s">
+        <v>270</v>
+      </c>
     </row>
-    <row r="2" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+    <row r="2" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="38"/>
       <c r="F2" s="38"/>
-      <c r="G2" s="34"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
@@ -2002,15 +2144,16 @@
       <c r="DQ2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="DR2" s="34"/>
-      <c r="DS2" s="34"/>
-      <c r="DT2" s="34"/>
-      <c r="DU2" s="35"/>
-      <c r="DV2" s="36"/>
-      <c r="DW2" s="36"/>
-      <c r="DX2" s="35"/>
+      <c r="DR2" s="36"/>
+      <c r="DS2" s="36"/>
+      <c r="DT2" s="36"/>
+      <c r="DU2" s="40"/>
+      <c r="DV2" s="41"/>
+      <c r="DW2" s="41"/>
+      <c r="DX2" s="40"/>
+      <c r="DY2" s="41"/>
     </row>
-    <row r="3" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A3" s="29">
         <v>1</v>
       </c>
@@ -2468,10 +2611,13 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX3" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
+      </c>
+      <c r="DY3" s="25" t="s">
+        <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A4" s="29">
         <v>2</v>
       </c>
@@ -2929,10 +3075,13 @@
         <v>Excellent</v>
       </c>
       <c r="DX4" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
+      </c>
+      <c r="DY4" s="25" t="s">
+        <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A5" s="29">
         <v>3</v>
       </c>
@@ -3392,8 +3541,11 @@
       <c r="DX5" s="25" t="s">
         <v>145</v>
       </c>
+      <c r="DY5" s="25" t="s">
+        <v>273</v>
+      </c>
     </row>
-    <row r="6" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A6" s="29">
         <v>4</v>
       </c>
@@ -3850,11 +4002,14 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX6" s="39" t="s">
-        <v>247</v>
+      <c r="DX6" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="DY6" s="25" t="s">
+        <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A7" s="29">
         <v>5</v>
       </c>
@@ -4312,10 +4467,13 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX7" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
+      </c>
+      <c r="DY7" s="25" t="s">
+        <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A8" s="29">
         <v>6</v>
       </c>
@@ -4775,8 +4933,11 @@
       <c r="DX8" s="25" t="s">
         <v>147</v>
       </c>
+      <c r="DY8" s="25" t="s">
+        <v>276</v>
+      </c>
     </row>
-    <row r="9" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A9" s="29">
         <v>7</v>
       </c>
@@ -5236,8 +5397,11 @@
       <c r="DX9" s="25" t="s">
         <v>146</v>
       </c>
+      <c r="DY9" s="25" t="s">
+        <v>277</v>
+      </c>
     </row>
-    <row r="10" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>8</v>
       </c>
@@ -5694,11 +5858,14 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX10" s="40" t="s">
-        <v>249</v>
+      <c r="DX10" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="DY10" s="25" t="s">
+        <v>278</v>
       </c>
     </row>
-    <row r="11" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>9</v>
       </c>
@@ -6155,11 +6322,14 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX11" s="40" t="s">
-        <v>250</v>
+      <c r="DX11" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="DY11" s="25" t="s">
+        <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A12" s="29">
         <v>10</v>
       </c>
@@ -6619,8 +6789,11 @@
       <c r="DX12" s="25" t="s">
         <v>155</v>
       </c>
+      <c r="DY12" s="25" t="s">
+        <v>280</v>
+      </c>
     </row>
-    <row r="13" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A13" s="29">
         <v>11</v>
       </c>
@@ -7078,10 +7251,13 @@
         <v>Excellent</v>
       </c>
       <c r="DX13" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
+      </c>
+      <c r="DY13" s="25" t="s">
+        <v>281</v>
       </c>
     </row>
-    <row r="14" spans="1:128" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:129" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29">
         <v>12</v>
       </c>
@@ -7541,8 +7717,11 @@
       <c r="DX14" s="25" t="s">
         <v>148</v>
       </c>
+      <c r="DY14" s="25" t="s">
+        <v>282</v>
+      </c>
     </row>
-    <row r="15" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A15" s="29">
         <v>13</v>
       </c>
@@ -8002,8 +8181,11 @@
       <c r="DX15" s="25" t="s">
         <v>156</v>
       </c>
+      <c r="DY15" s="25" t="s">
+        <v>283</v>
+      </c>
     </row>
-    <row r="16" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A16" s="29">
         <v>14</v>
       </c>
@@ -8017,7 +8199,7 @@
         <v>106</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>141</v>
@@ -8463,8 +8645,11 @@
       <c r="DX16" s="25" t="s">
         <v>149</v>
       </c>
+      <c r="DY16" s="25" t="s">
+        <v>284</v>
+      </c>
     </row>
-    <row r="17" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A17" s="29">
         <v>15</v>
       </c>
@@ -8922,10 +9107,13 @@
         <v>Excellent</v>
       </c>
       <c r="DX17" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
+      </c>
+      <c r="DY17" s="25" t="s">
+        <v>285</v>
       </c>
     </row>
-    <row r="18" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A18" s="29">
         <v>16</v>
       </c>
@@ -9385,8 +9573,11 @@
       <c r="DX18" s="26" t="s">
         <v>157</v>
       </c>
+      <c r="DY18" s="25" t="s">
+        <v>286</v>
+      </c>
     </row>
-    <row r="19" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A19" s="29">
         <v>17</v>
       </c>
@@ -9846,8 +10037,11 @@
       <c r="DX19" s="25" t="s">
         <v>150</v>
       </c>
+      <c r="DY19" s="25" t="s">
+        <v>287</v>
+      </c>
     </row>
-    <row r="20" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A20" s="29">
         <v>18</v>
       </c>
@@ -9858,10 +10052,10 @@
         <v>182412018</v>
       </c>
       <c r="D20" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>141</v>
@@ -10307,8 +10501,11 @@
       <c r="DX20" s="25" t="s">
         <v>151</v>
       </c>
+      <c r="DY20" s="25" t="s">
+        <v>288</v>
+      </c>
     </row>
-    <row r="21" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A21" s="29">
         <v>19</v>
       </c>
@@ -10768,13 +10965,16 @@
       <c r="DX21" s="25" t="s">
         <v>158</v>
       </c>
+      <c r="DY21" s="25" t="s">
+        <v>289</v>
+      </c>
     </row>
-    <row r="22" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A22" s="29">
         <v>20</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C22" s="15">
         <v>182412020</v>
@@ -11227,10 +11427,13 @@
         <v>Excellent</v>
       </c>
       <c r="DX22" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
+      </c>
+      <c r="DY22" s="25" t="s">
+        <v>290</v>
       </c>
     </row>
-    <row r="23" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A23" s="29">
         <v>21</v>
       </c>
@@ -11241,10 +11444,10 @@
         <v>182412021</v>
       </c>
       <c r="D23" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>230</v>
@@ -11690,8 +11893,11 @@
       <c r="DX23" s="25" t="s">
         <v>159</v>
       </c>
+      <c r="DY23" s="25" t="s">
+        <v>291</v>
+      </c>
     </row>
-    <row r="24" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A24" s="29">
         <v>22</v>
       </c>
@@ -12149,10 +12355,13 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX24" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="DY24" s="25" t="s">
+        <v>292</v>
       </c>
     </row>
-    <row r="25" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A25" s="29">
         <v>23</v>
       </c>
@@ -12612,8 +12821,11 @@
       <c r="DX25" s="25" t="s">
         <v>152</v>
       </c>
+      <c r="DY25" s="25" t="s">
+        <v>293</v>
+      </c>
     </row>
-    <row r="26" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A26" s="29">
         <v>24</v>
       </c>
@@ -13073,8 +13285,11 @@
       <c r="DX26" s="25" t="s">
         <v>160</v>
       </c>
+      <c r="DY26" s="25" t="s">
+        <v>294</v>
+      </c>
     </row>
-    <row r="27" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A27" s="29">
         <v>25</v>
       </c>
@@ -13088,13 +13303,13 @@
         <v>106</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>230</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H27" s="5">
         <v>75.75</v>
@@ -13532,8 +13747,9 @@
         <v>Excellent</v>
       </c>
       <c r="DX27" s="25"/>
+      <c r="DY27" s="25"/>
     </row>
-    <row r="28" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A28" s="29">
         <v>26</v>
       </c>
@@ -13553,7 +13769,7 @@
         <v>141</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H28" s="5">
         <v>75.75</v>
@@ -13991,10 +14207,13 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX28" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
+      </c>
+      <c r="DY28" s="25" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="29" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A29" s="29">
         <v>27</v>
       </c>
@@ -14005,10 +14224,10 @@
         <v>182412030</v>
       </c>
       <c r="D29" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>141</v>
@@ -14454,8 +14673,11 @@
       <c r="DX29" s="25" t="s">
         <v>153</v>
       </c>
+      <c r="DY29" s="25" t="s">
+        <v>296</v>
+      </c>
     </row>
-    <row r="30" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A30" s="29">
         <v>28</v>
       </c>
@@ -14913,10 +15135,13 @@
         <v>Excellent</v>
       </c>
       <c r="DX30" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
+      </c>
+      <c r="DY30" s="25" t="s">
+        <v>297</v>
       </c>
     </row>
-    <row r="31" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>29</v>
       </c>
@@ -15373,11 +15598,14 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX31" s="40" t="s">
-        <v>264</v>
+      <c r="DX31" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="DY31" s="25" t="s">
+        <v>298</v>
       </c>
     </row>
-    <row r="32" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A32" s="29">
         <v>30</v>
       </c>
@@ -15835,10 +16063,13 @@
         <v>Excellent</v>
       </c>
       <c r="DX32" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+      <c r="DY32" s="25" t="s">
+        <v>299</v>
       </c>
     </row>
-    <row r="33" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A33" s="29">
         <v>31</v>
       </c>
@@ -16296,10 +16527,13 @@
         <v>Excellent</v>
       </c>
       <c r="DX33" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
+      </c>
+      <c r="DY33" s="25" t="s">
+        <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A34" s="29">
         <v>32</v>
       </c>
@@ -16757,10 +16991,13 @@
         <v>Excellent</v>
       </c>
       <c r="DX34" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
+      </c>
+      <c r="DY34" s="25" t="s">
+        <v>301</v>
       </c>
     </row>
-    <row r="35" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A35" s="29">
         <v>33</v>
       </c>
@@ -17220,8 +17457,11 @@
       <c r="DX35" s="25" t="s">
         <v>161</v>
       </c>
+      <c r="DY35" s="25" t="s">
+        <v>302</v>
+      </c>
     </row>
-    <row r="36" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A36" s="29">
         <v>34</v>
       </c>
@@ -17681,8 +17921,11 @@
       <c r="DX36" s="25" t="s">
         <v>162</v>
       </c>
+      <c r="DY36" s="25" t="s">
+        <v>303</v>
+      </c>
     </row>
-    <row r="37" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A37" s="29">
         <v>35</v>
       </c>
@@ -18142,8 +18385,11 @@
       <c r="DX37" s="25" t="s">
         <v>163</v>
       </c>
+      <c r="DY37" s="25" t="s">
+        <v>304</v>
+      </c>
     </row>
-    <row r="38" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A38" s="29">
         <v>36</v>
       </c>
@@ -18603,8 +18849,11 @@
       <c r="DX38" s="25" t="s">
         <v>154</v>
       </c>
+      <c r="DY38" s="25" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="39" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A39" s="29">
         <v>37</v>
       </c>
@@ -19064,8 +19313,11 @@
       <c r="DX39" s="25" t="s">
         <v>164</v>
       </c>
+      <c r="DY39" s="25" t="s">
+        <v>306</v>
+      </c>
     </row>
-    <row r="40" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A40" s="29">
         <v>38</v>
       </c>
@@ -19525,8 +19777,11 @@
       <c r="DX40" s="25" t="s">
         <v>165</v>
       </c>
+      <c r="DY40" s="25" t="s">
+        <v>307</v>
+      </c>
     </row>
-    <row r="41" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A41" s="29">
         <v>39</v>
       </c>
@@ -19984,10 +20239,13 @@
         <v>Excellent</v>
       </c>
       <c r="DX41" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
+      </c>
+      <c r="DY41" s="25" t="s">
+        <v>308</v>
       </c>
     </row>
-    <row r="42" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A42" s="29">
         <v>40</v>
       </c>
@@ -20004,7 +20262,7 @@
         <v>181</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>221</v>
@@ -20446,10 +20704,13 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX42" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
+      </c>
+      <c r="DY42" s="25" t="s">
+        <v>309</v>
       </c>
     </row>
-    <row r="43" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A43" s="29">
         <v>41</v>
       </c>
@@ -20469,7 +20730,7 @@
         <v>141</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H43" s="5">
         <v>78.75</v>
@@ -20907,10 +21168,13 @@
         <v>Excellent</v>
       </c>
       <c r="DX43" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
+      </c>
+      <c r="DY43" s="25" t="s">
+        <v>310</v>
       </c>
     </row>
-    <row r="44" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A44" s="29">
         <v>42</v>
       </c>
@@ -21368,10 +21632,13 @@
         <v>Excellent</v>
       </c>
       <c r="DX44" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
+      </c>
+      <c r="DY44" s="25" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="45" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A45" s="29">
         <v>43</v>
       </c>
@@ -21382,7 +21649,7 @@
         <v>182412048</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>180</v>
@@ -21830,10 +22097,13 @@
         <v>Excellent</v>
       </c>
       <c r="DX45" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
+      </c>
+      <c r="DY45" s="25" t="s">
+        <v>312</v>
       </c>
     </row>
-    <row r="46" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A46" s="29">
         <v>44</v>
       </c>
@@ -22291,10 +22561,13 @@
         <v>Excellent</v>
       </c>
       <c r="DX46" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
+      </c>
+      <c r="DY46" s="25" t="s">
+        <v>313</v>
       </c>
     </row>
-    <row r="47" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A47" s="29">
         <v>45</v>
       </c>
@@ -22754,8 +23027,11 @@
       <c r="DX47" s="25" t="s">
         <v>166</v>
       </c>
+      <c r="DY47" s="25" t="s">
+        <v>314</v>
+      </c>
     </row>
-    <row r="48" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A48" s="29">
         <v>46</v>
       </c>
@@ -23213,8 +23489,9 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX48" s="25"/>
+      <c r="DY48" s="25"/>
     </row>
-    <row r="49" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A49" s="29">
         <v>47</v>
       </c>
@@ -23672,10 +23949,13 @@
         <v>Excellent</v>
       </c>
       <c r="DX49" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
+      </c>
+      <c r="DY49" s="25" t="s">
+        <v>315</v>
       </c>
     </row>
-    <row r="50" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
         <v>48</v>
       </c>
@@ -24132,26 +24412,29 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX50" s="40" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="53" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="B53" s="4" t="s">
-        <v>232</v>
+      <c r="DX50" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="DY50" s="25" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+  <mergeCells count="39">
+    <mergeCell ref="DY1:DY2"/>
+    <mergeCell ref="DX1:DX2"/>
+    <mergeCell ref="CT1:CX1"/>
+    <mergeCell ref="CY1:DC1"/>
+    <mergeCell ref="DD1:DH1"/>
+    <mergeCell ref="DI1:DM1"/>
+    <mergeCell ref="DT1:DT2"/>
+    <mergeCell ref="DS1:DS2"/>
+    <mergeCell ref="DR1:DR2"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="DU1:DU2"/>
+    <mergeCell ref="DV1:DV2"/>
+    <mergeCell ref="DW1:DW2"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="CO1:CS1"/>
     <mergeCell ref="BA1:BE1"/>
@@ -24168,19 +24451,15 @@
     <mergeCell ref="BP1:BT1"/>
     <mergeCell ref="BU1:BY1"/>
     <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="DU1:DU2"/>
-    <mergeCell ref="DV1:DV2"/>
-    <mergeCell ref="DW1:DW2"/>
-    <mergeCell ref="DX1:DX2"/>
-    <mergeCell ref="CT1:CX1"/>
-    <mergeCell ref="CY1:DC1"/>
-    <mergeCell ref="DD1:DH1"/>
-    <mergeCell ref="DI1:DM1"/>
-    <mergeCell ref="DT1:DT2"/>
-    <mergeCell ref="DS1:DS2"/>
-    <mergeCell ref="DR1:DR2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/S1 Keperawatan/RPL/RPL 3/Transkip Nilai RPL3.xlsx
+++ b/S1 Keperawatan/RPL/RPL 3/Transkip Nilai RPL3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Documents\Stikes\Transkip Nilai 2025\S1 Keperawatan\RPL\RPL 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3092F6C-8A8B-4C82-B8C7-77894CA22E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E2BFC7-5C94-47D9-8950-E397759DB505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6728395-340D-414D-8D40-C463D1B813FA}"/>
+    <workbookView xWindow="-21697" yWindow="-2460" windowWidth="21795" windowHeight="12975" xr2:uid="{F6728395-340D-414D-8D40-C463D1B813FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Transkip" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="318">
   <si>
     <t>NO</t>
   </si>
@@ -588,141 +588,6 @@
     <t>28 Oktober 1991</t>
   </si>
   <si>
-    <t>996 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>997 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>998 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>999 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1000 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1001 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1002 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1003 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1004 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1005 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1006 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1007 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1008 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1009 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1010 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1011 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1012 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1013 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1014 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1015 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1016 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1017 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1018 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1020 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1023 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1024 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1025 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1026 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1027 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1028 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1029 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1030 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1031 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1032 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1033 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1034 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1035 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1036 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1038 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1039 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1040 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1041 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1042 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1043 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1044 / 11 / VIII / 2025</t>
-  </si>
-  <si>
     <t>Abang Suhermantri</t>
   </si>
   <si>
@@ -735,9 +600,6 @@
     <t xml:space="preserve">Namu Sira Sira </t>
   </si>
   <si>
-    <t>7 November</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pinang Sori </t>
   </si>
   <si>
@@ -747,15 +609,6 @@
     <t>Hubungan Kehadiran Orang Tua dengan Kecemasan Anak Saat Pemberian Obat Intravena Line di Ruang Rawat Inap Anak RSUD Natuna</t>
   </si>
   <si>
-    <t>1021 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1022 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>1037 / 11 / VIII / 2025</t>
-  </si>
-  <si>
     <t>Batam</t>
   </si>
   <si>
@@ -985,6 +838,156 @@
   </si>
   <si>
     <t>The Relationship between Anxiety and Hypertension Compliance in Elderly Women in the Sedanau Primary Health Care Center UPTD Working Area</t>
+  </si>
+  <si>
+    <t>996 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>997 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>998 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>999 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1000 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1001 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1002 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1004 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1005 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1006 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1007 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1009 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1010 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1011 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1012 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1013 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1014 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1015 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1017 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1018 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1019 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1021 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1022 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1023 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1024 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1025 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1026 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1027 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1028 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1029 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1030 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1031 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1032 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1033 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1034 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1036 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1038 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1039 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1040 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1041 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1043 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>1003 / 11 / XI / 2025</t>
+  </si>
+  <si>
+    <t>1008 / 11 / XI / 2025</t>
+  </si>
+  <si>
+    <t>1016 / 11 / XI / 2025</t>
+  </si>
+  <si>
+    <t>1020 / 11 / XI / 2025</t>
+  </si>
+  <si>
+    <t>1035 / 11 / XI / 2025</t>
+  </si>
+  <si>
+    <t>1037 / 11 / XI / 2025</t>
+  </si>
+  <si>
+    <t>1042 / 11 / XI / 2025</t>
+  </si>
+  <si>
+    <t>Faktor Faktor Yang Berhubungan Dengan Kualitas hidup Pasien Pasca Stroke Di Poliklinik Neurologi RSUD Natuna</t>
+  </si>
+  <si>
+    <t>Factors Associated with the Quality of Life of Post-Stroke Patients at the Neurology Polyclinic of Natuna Regional Hospital</t>
   </si>
 </sst>
 </file>
@@ -1547,10 +1550,10 @@
   <dimension ref="A1:DY50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="CI3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="DD29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DA21" sqref="DA21"/>
+      <selection pane="bottomRight" activeCell="DL41" sqref="DL41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,7 +1794,7 @@
         <v>144</v>
       </c>
       <c r="DY1" s="41" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:129" x14ac:dyDescent="0.25">
@@ -2158,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="C3" s="15">
         <v>182412001</v>
@@ -2173,7 +2176,7 @@
         <v>141</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>184</v>
+        <v>268</v>
       </c>
       <c r="H3" s="5">
         <v>75.75</v>
@@ -2611,10 +2614,10 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX3" s="25" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="DY3" s="25" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:129" x14ac:dyDescent="0.2">
@@ -2637,7 +2640,7 @@
         <v>141</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>185</v>
+        <v>269</v>
       </c>
       <c r="H4" s="5">
         <v>77.25</v>
@@ -3075,10 +3078,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX4" s="25" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="DY4" s="25" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:129" x14ac:dyDescent="0.2">
@@ -3101,7 +3104,7 @@
         <v>141</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>186</v>
+        <v>270</v>
       </c>
       <c r="H5" s="5">
         <v>80.25</v>
@@ -3542,7 +3545,7 @@
         <v>145</v>
       </c>
       <c r="DY5" s="25" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:129" x14ac:dyDescent="0.2">
@@ -3565,7 +3568,7 @@
         <v>141</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>187</v>
+        <v>271</v>
       </c>
       <c r="H6" s="5">
         <v>71</v>
@@ -4003,10 +4006,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX6" s="33" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="DY6" s="25" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:129" x14ac:dyDescent="0.2">
@@ -4029,7 +4032,7 @@
         <v>141</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>188</v>
+        <v>272</v>
       </c>
       <c r="H7" s="5">
         <v>75.75</v>
@@ -4467,10 +4470,10 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX7" s="26" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="DY7" s="25" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:129" x14ac:dyDescent="0.2">
@@ -4493,7 +4496,7 @@
         <v>141</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c r="H8" s="5">
         <v>77.25</v>
@@ -4934,7 +4937,7 @@
         <v>147</v>
       </c>
       <c r="DY8" s="25" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:129" x14ac:dyDescent="0.2">
@@ -4957,7 +4960,7 @@
         <v>141</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>190</v>
+        <v>274</v>
       </c>
       <c r="H9" s="5">
         <v>82</v>
@@ -5398,7 +5401,7 @@
         <v>146</v>
       </c>
       <c r="DY9" s="25" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:129" x14ac:dyDescent="0.25">
@@ -5418,10 +5421,10 @@
         <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>191</v>
+        <v>309</v>
       </c>
       <c r="H10" s="5">
         <v>82</v>
@@ -5859,10 +5862,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX10" s="34" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="DY10" s="25" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:129" x14ac:dyDescent="0.25">
@@ -5885,7 +5888,7 @@
         <v>141</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>192</v>
+        <v>275</v>
       </c>
       <c r="H11" s="5">
         <v>74</v>
@@ -6323,10 +6326,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX11" s="34" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="DY11" s="25" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:129" x14ac:dyDescent="0.2">
@@ -6349,7 +6352,7 @@
         <v>141</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>193</v>
+        <v>276</v>
       </c>
       <c r="H12" s="5">
         <v>72.5</v>
@@ -6790,7 +6793,7 @@
         <v>155</v>
       </c>
       <c r="DY12" s="25" t="s">
-        <v>280</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:129" x14ac:dyDescent="0.2">
@@ -6813,7 +6816,7 @@
         <v>141</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="H13" s="5">
         <v>77.25</v>
@@ -7251,10 +7254,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX13" s="25" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="DY13" s="25" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:129" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7277,7 +7280,7 @@
         <v>141</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>195</v>
+        <v>278</v>
       </c>
       <c r="H14" s="5">
         <v>83.5</v>
@@ -7718,7 +7721,7 @@
         <v>148</v>
       </c>
       <c r="DY14" s="25" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:129" x14ac:dyDescent="0.2">
@@ -7738,10 +7741,10 @@
         <v>171</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>196</v>
+        <v>310</v>
       </c>
       <c r="H15" s="5">
         <v>71</v>
@@ -8182,7 +8185,7 @@
         <v>156</v>
       </c>
       <c r="DY15" s="25" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:129" x14ac:dyDescent="0.2">
@@ -8199,13 +8202,13 @@
         <v>106</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>141</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>197</v>
+        <v>279</v>
       </c>
       <c r="H16" s="5">
         <v>77.25</v>
@@ -8646,7 +8649,7 @@
         <v>149</v>
       </c>
       <c r="DY16" s="25" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:129" x14ac:dyDescent="0.2">
@@ -8669,7 +8672,7 @@
         <v>141</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>198</v>
+        <v>280</v>
       </c>
       <c r="H17" s="5">
         <v>80.25</v>
@@ -9107,10 +9110,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX17" s="25" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="DY17" s="25" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:129" x14ac:dyDescent="0.2">
@@ -9133,7 +9136,7 @@
         <v>141</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>199</v>
+        <v>281</v>
       </c>
       <c r="H18" s="5">
         <v>78.75</v>
@@ -9574,7 +9577,7 @@
         <v>157</v>
       </c>
       <c r="DY18" s="25" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:129" x14ac:dyDescent="0.2">
@@ -9597,7 +9600,7 @@
         <v>141</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="H19" s="5">
         <v>78.75</v>
@@ -10038,7 +10041,7 @@
         <v>150</v>
       </c>
       <c r="DY19" s="25" t="s">
-        <v>287</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:129" x14ac:dyDescent="0.2">
@@ -10052,16 +10055,16 @@
         <v>182412018</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>141</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="H20" s="5">
         <v>77.25</v>
@@ -10502,7 +10505,7 @@
         <v>151</v>
       </c>
       <c r="DY20" s="25" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:129" x14ac:dyDescent="0.2">
@@ -10525,7 +10528,7 @@
         <v>141</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H21" s="5">
         <v>72.5</v>
@@ -10966,7 +10969,7 @@
         <v>158</v>
       </c>
       <c r="DY21" s="25" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:129" x14ac:dyDescent="0.2">
@@ -10974,7 +10977,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="C22" s="15">
         <v>182412020</v>
@@ -10989,7 +10992,7 @@
         <v>141</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="H22" s="5">
         <v>75.75</v>
@@ -11427,10 +11430,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX22" s="25" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="DY22" s="25" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:129" x14ac:dyDescent="0.2">
@@ -11444,16 +11447,16 @@
         <v>182412021</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>204</v>
+        <v>311</v>
       </c>
       <c r="H23" s="5">
         <v>75.75</v>
@@ -11848,7 +11851,7 @@
         <v>4</v>
       </c>
       <c r="DM23" s="2">
-        <f t="shared" si="66"/>
+        <f>DK23*DL23</f>
         <v>14</v>
       </c>
       <c r="DN23" s="23">
@@ -11894,7 +11897,7 @@
         <v>159</v>
       </c>
       <c r="DY23" s="25" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:129" x14ac:dyDescent="0.2">
@@ -11917,7 +11920,7 @@
         <v>141</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>205</v>
+        <v>286</v>
       </c>
       <c r="H24" s="5">
         <v>71</v>
@@ -12355,10 +12358,10 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX24" s="25" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="DY24" s="25" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:129" x14ac:dyDescent="0.2">
@@ -12381,7 +12384,7 @@
         <v>141</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>206</v>
+        <v>287</v>
       </c>
       <c r="H25" s="5">
         <v>75.75</v>
@@ -12822,7 +12825,7 @@
         <v>152</v>
       </c>
       <c r="DY25" s="25" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:129" x14ac:dyDescent="0.2">
@@ -12845,7 +12848,7 @@
         <v>141</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>207</v>
+        <v>288</v>
       </c>
       <c r="H26" s="5">
         <v>74</v>
@@ -13286,7 +13289,7 @@
         <v>160</v>
       </c>
       <c r="DY26" s="25" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:129" x14ac:dyDescent="0.2">
@@ -13303,13 +13306,13 @@
         <v>106</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>237</v>
+        <v>312</v>
       </c>
       <c r="H27" s="5">
         <v>75.75</v>
@@ -13746,8 +13749,12 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX27" s="25"/>
-      <c r="DY27" s="25"/>
+      <c r="DX27" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="DY27" s="25" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="28" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A28" s="29">
@@ -13769,7 +13776,7 @@
         <v>141</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="H28" s="5">
         <v>75.75</v>
@@ -14207,10 +14214,10 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX28" s="25" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="DY28" s="25" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:129" x14ac:dyDescent="0.2">
@@ -14224,16 +14231,16 @@
         <v>182412030</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>141</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>208</v>
+        <v>290</v>
       </c>
       <c r="H29" s="5">
         <v>78.75</v>
@@ -14674,7 +14681,7 @@
         <v>153</v>
       </c>
       <c r="DY29" s="25" t="s">
-        <v>296</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:129" x14ac:dyDescent="0.2">
@@ -14697,7 +14704,7 @@
         <v>141</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>209</v>
+        <v>291</v>
       </c>
       <c r="H30" s="5">
         <v>74</v>
@@ -15135,10 +15142,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX30" s="25" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="DY30" s="25" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:129" x14ac:dyDescent="0.25">
@@ -15161,7 +15168,7 @@
         <v>141</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>210</v>
+        <v>292</v>
       </c>
       <c r="H31" s="5">
         <v>74</v>
@@ -15599,10 +15606,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX31" s="34" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="DY31" s="25" t="s">
-        <v>298</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:129" x14ac:dyDescent="0.2">
@@ -15625,7 +15632,7 @@
         <v>141</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>211</v>
+        <v>293</v>
       </c>
       <c r="H32" s="5">
         <v>78.75</v>
@@ -16063,10 +16070,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX32" s="25" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="DY32" s="25" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:129" x14ac:dyDescent="0.2">
@@ -16089,7 +16096,7 @@
         <v>141</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>212</v>
+        <v>294</v>
       </c>
       <c r="H33" s="5">
         <v>72.5</v>
@@ -16527,10 +16534,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX33" s="25" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="DY33" s="25" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:129" x14ac:dyDescent="0.2">
@@ -16553,7 +16560,7 @@
         <v>141</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>213</v>
+        <v>295</v>
       </c>
       <c r="H34" s="5">
         <v>77.25</v>
@@ -16991,10 +16998,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX34" s="25" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="DY34" s="25" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:129" x14ac:dyDescent="0.2">
@@ -17017,7 +17024,7 @@
         <v>141</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>214</v>
+        <v>296</v>
       </c>
       <c r="H35" s="5">
         <v>75.75</v>
@@ -17458,7 +17465,7 @@
         <v>161</v>
       </c>
       <c r="DY35" s="25" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:129" x14ac:dyDescent="0.2">
@@ -17481,7 +17488,7 @@
         <v>141</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>215</v>
+        <v>297</v>
       </c>
       <c r="H36" s="5">
         <v>78.75</v>
@@ -17922,7 +17929,7 @@
         <v>162</v>
       </c>
       <c r="DY36" s="25" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:129" x14ac:dyDescent="0.2">
@@ -17945,7 +17952,7 @@
         <v>141</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="H37" s="5">
         <v>77.25</v>
@@ -18386,7 +18393,7 @@
         <v>163</v>
       </c>
       <c r="DY37" s="25" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:129" x14ac:dyDescent="0.2">
@@ -18409,7 +18416,7 @@
         <v>141</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>217</v>
+        <v>299</v>
       </c>
       <c r="H38" s="5">
         <v>80.25</v>
@@ -18850,7 +18857,7 @@
         <v>154</v>
       </c>
       <c r="DY38" s="25" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:129" x14ac:dyDescent="0.2">
@@ -18873,7 +18880,7 @@
         <v>141</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>218</v>
+        <v>300</v>
       </c>
       <c r="H39" s="5">
         <v>77.25</v>
@@ -19314,7 +19321,7 @@
         <v>164</v>
       </c>
       <c r="DY39" s="25" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:129" x14ac:dyDescent="0.2">
@@ -19337,7 +19344,7 @@
         <v>141</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>219</v>
+        <v>301</v>
       </c>
       <c r="H40" s="5">
         <v>80.25</v>
@@ -19778,7 +19785,7 @@
         <v>165</v>
       </c>
       <c r="DY40" s="25" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:129" x14ac:dyDescent="0.2">
@@ -19801,7 +19808,7 @@
         <v>141</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>220</v>
+        <v>302</v>
       </c>
       <c r="H41" s="5">
         <v>80.25</v>
@@ -20239,10 +20246,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX41" s="25" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c r="DY41" s="25" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:129" x14ac:dyDescent="0.2">
@@ -20262,10 +20269,10 @@
         <v>181</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>221</v>
+        <v>313</v>
       </c>
       <c r="H42" s="5">
         <v>71</v>
@@ -20704,10 +20711,10 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX42" s="25" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="DY42" s="25" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:129" x14ac:dyDescent="0.2">
@@ -20730,7 +20737,7 @@
         <v>141</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>239</v>
+        <v>303</v>
       </c>
       <c r="H43" s="5">
         <v>78.75</v>
@@ -21168,10 +21175,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX43" s="25" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="DY43" s="25" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:129" x14ac:dyDescent="0.2">
@@ -21191,10 +21198,10 @@
         <v>172</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>222</v>
+        <v>314</v>
       </c>
       <c r="H44" s="5">
         <v>78.75</v>
@@ -21632,10 +21639,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX44" s="25" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="DY44" s="25" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:129" x14ac:dyDescent="0.2">
@@ -21649,7 +21656,7 @@
         <v>182412048</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>180</v>
@@ -21658,7 +21665,7 @@
         <v>141</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>223</v>
+        <v>304</v>
       </c>
       <c r="H45" s="5">
         <v>75.75</v>
@@ -22097,10 +22104,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX45" s="25" t="s">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="DY45" s="25" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" spans="1:129" x14ac:dyDescent="0.2">
@@ -22123,7 +22130,7 @@
         <v>141</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>224</v>
+        <v>305</v>
       </c>
       <c r="H46" s="5">
         <v>83.5</v>
@@ -22561,10 +22568,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX46" s="25" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="DY46" s="25" t="s">
-        <v>313</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:129" x14ac:dyDescent="0.2">
@@ -22587,7 +22594,7 @@
         <v>141</v>
       </c>
       <c r="G47" s="28" t="s">
-        <v>225</v>
+        <v>306</v>
       </c>
       <c r="H47" s="5">
         <v>80.25</v>
@@ -23028,7 +23035,7 @@
         <v>166</v>
       </c>
       <c r="DY47" s="25" t="s">
-        <v>314</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="1:129" x14ac:dyDescent="0.2">
@@ -23051,7 +23058,7 @@
         <v>141</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>226</v>
+        <v>307</v>
       </c>
       <c r="H48" s="5">
         <v>74</v>
@@ -23508,10 +23515,10 @@
         <v>178</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>227</v>
+        <v>315</v>
       </c>
       <c r="H49" s="5">
         <v>71</v>
@@ -23949,10 +23956,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX49" s="25" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="DY49" s="25" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:129" x14ac:dyDescent="0.25">
@@ -23975,7 +23982,7 @@
         <v>141</v>
       </c>
       <c r="G50" s="28" t="s">
-        <v>228</v>
+        <v>308</v>
       </c>
       <c r="H50" s="5">
         <v>78.75</v>
@@ -24413,10 +24420,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX50" s="34" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="DY50" s="25" t="s">
-        <v>316</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/S1 Keperawatan/RPL/RPL 3/Transkip Nilai RPL3.xlsx
+++ b/S1 Keperawatan/RPL/RPL 3/Transkip Nilai RPL3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Documents\Stikes\Transkip Nilai 2025\S1 Keperawatan\RPL\RPL 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E2BFC7-5C94-47D9-8950-E397759DB505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DAEFE5-9949-4308-B9EC-F8D6EFC163F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21697" yWindow="-2460" windowWidth="21795" windowHeight="12975" xr2:uid="{F6728395-340D-414D-8D40-C463D1B813FA}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="29040" windowHeight="15720" xr2:uid="{F6728395-340D-414D-8D40-C463D1B813FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Transkip" sheetId="1" r:id="rId1"/>
@@ -357,9 +357,6 @@
     <t>Tanjungpinang</t>
   </si>
   <si>
-    <t xml:space="preserve"> 12 April 1083</t>
-  </si>
-  <si>
     <t>Kijang</t>
   </si>
   <si>
@@ -597,9 +594,6 @@
     <t>7 November 2025</t>
   </si>
   <si>
-    <t xml:space="preserve">Namu Sira Sira </t>
-  </si>
-  <si>
     <t xml:space="preserve">Pinang Sori </t>
   </si>
   <si>
@@ -624,9 +618,6 @@
     <t>20 September 1992</t>
   </si>
   <si>
-    <t>7 Desember 1984</t>
-  </si>
-  <si>
     <t>Hubungan Perilaku Pencegahan Dengan Kejadian Hiv/Aids Pada Wanita Pekerja Seks Komersil Di Ranai</t>
   </si>
   <si>
@@ -988,6 +979,15 @@
   </si>
   <si>
     <t>Factors Associated with the Quality of Life of Post-Stroke Patients at the Neurology Polyclinic of Natuna Regional Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12 April 1983</t>
+  </si>
+  <si>
+    <t>7 November 1984</t>
+  </si>
+  <si>
+    <t>Namu Sira - Sira</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1053,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1081,6 +1081,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,7 +1118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1165,9 +1171,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1215,22 +1218,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1550,17 +1562,17 @@
   <dimension ref="A1:DY50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="DD29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DL41" sqref="DL41"/>
+      <selection pane="bottomRight" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="34" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" style="4" customWidth="1"/>
     <col min="5" max="6" width="20.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" style="4" customWidth="1"/>
@@ -1578,36 +1590,36 @@
     <col min="66" max="66" width="7.7109375" style="4" customWidth="1"/>
     <col min="67" max="67" width="10.85546875" style="4" customWidth="1"/>
     <col min="68" max="117" width="9.140625" style="4"/>
-    <col min="118" max="118" width="9.140625" style="21"/>
-    <col min="119" max="119" width="9.140625" style="22"/>
+    <col min="118" max="118" width="9.140625" style="20"/>
+    <col min="119" max="119" width="9.140625" style="21"/>
     <col min="120" max="125" width="9.140625" style="4"/>
     <col min="126" max="126" width="18.28515625" style="4" customWidth="1"/>
     <col min="127" max="127" width="18.140625" style="4" customWidth="1"/>
-    <col min="128" max="128" width="186.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="198.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="186.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="198.7109375" style="26" bestFit="1" customWidth="1"/>
     <col min="130" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="38" t="s">
         <v>68</v>
       </c>
       <c r="H1" s="37" t="s">
@@ -1765,46 +1777,46 @@
       <c r="DL1" s="37"/>
       <c r="DM1" s="37"/>
       <c r="DN1" s="39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="DO1" s="39"/>
-      <c r="DP1" s="36" t="s">
+      <c r="DP1" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="DQ1" s="36"/>
-      <c r="DR1" s="36" t="s">
+      <c r="DQ1" s="38"/>
+      <c r="DR1" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="DS1" s="36" t="s">
+      <c r="DS1" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="DT1" s="36" t="s">
+      <c r="DT1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="DU1" s="40" t="s">
+      <c r="DU1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="DV1" s="41" t="s">
+      <c r="DV1" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="DW1" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="DW1" s="41" t="s">
+      <c r="DX1" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="DX1" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="DY1" s="41" t="s">
-        <v>221</v>
+      <c r="DY1" s="35" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="38"/>
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
@@ -2136,10 +2148,10 @@
         <v>20</v>
       </c>
       <c r="DN2" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="DO2" s="19" t="s">
         <v>168</v>
-      </c>
-      <c r="DO2" s="20" t="s">
-        <v>169</v>
       </c>
       <c r="DP2" s="1" t="s">
         <v>85</v>
@@ -2147,21 +2159,21 @@
       <c r="DQ2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="DR2" s="36"/>
-      <c r="DS2" s="36"/>
-      <c r="DT2" s="36"/>
-      <c r="DU2" s="40"/>
-      <c r="DV2" s="41"/>
-      <c r="DW2" s="41"/>
-      <c r="DX2" s="40"/>
-      <c r="DY2" s="41"/>
+      <c r="DR2" s="38"/>
+      <c r="DS2" s="38"/>
+      <c r="DT2" s="38"/>
+      <c r="DU2" s="36"/>
+      <c r="DV2" s="35"/>
+      <c r="DW2" s="35"/>
+      <c r="DX2" s="36"/>
+      <c r="DY2" s="35"/>
     </row>
     <row r="3" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A3" s="29">
+      <c r="A3" s="28">
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" s="15">
         <v>182412001</v>
@@ -2173,10 +2185,10 @@
         <v>88</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>268</v>
+        <v>140</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>265</v>
       </c>
       <c r="H3" s="5">
         <v>75.75</v>
@@ -2574,11 +2586,11 @@
         <f>DK3*DL3</f>
         <v>14</v>
       </c>
-      <c r="DN3" s="23">
+      <c r="DN3" s="22">
         <f t="shared" ref="DN3:DN23" si="0">L3+Q3+V3+AA3+AF3+AK3+AP3+AU3+AZ3+BE3+BJ3</f>
         <v>85</v>
       </c>
-      <c r="DO3" s="24">
+      <c r="DO3" s="23">
         <f>K3+P3+U3+Z3+AE3+AJ3+AO3+AT3+AY3+BD3+BI3</f>
         <v>24</v>
       </c>
@@ -2613,15 +2625,15 @@
         <f>IF(DU3&gt;=3.51,"Excellent",(IF(DU3&gt;=2.75,"Highly Satisfactory",(IF(DU3&gt;=2,"Satisfactory","FAILED")))))</f>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX3" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="DY3" s="25" t="s">
-        <v>222</v>
+      <c r="DX3" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="DY3" s="24" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A4" s="29">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -2637,10 +2649,10 @@
         <v>90</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>269</v>
+        <v>140</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>266</v>
       </c>
       <c r="H4" s="5">
         <v>77.25</v>
@@ -3038,11 +3050,11 @@
         <f t="shared" ref="DM4:DM50" si="66">DK4*DL4</f>
         <v>16</v>
       </c>
-      <c r="DN4" s="23">
+      <c r="DN4" s="22">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
-      <c r="DO4" s="24">
+      <c r="DO4" s="23">
         <f t="shared" ref="DO4:DO50" si="67">K4+P4+U4+Z4+AE4+AJ4+AO4+AT4+AY4+BD4+BI4</f>
         <v>24</v>
       </c>
@@ -3077,15 +3089,15 @@
         <f t="shared" ref="DW4:DW50" si="74">IF(DU4&gt;=3.51,"Excellent",(IF(DU4&gt;=2.75,"Highly Satisfactory",(IF(DU4&gt;=2,"Satisfactory","FAILED")))))</f>
         <v>Excellent</v>
       </c>
-      <c r="DX4" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="DY4" s="25" t="s">
-        <v>223</v>
+      <c r="DX4" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="DY4" s="24" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A5" s="29">
+      <c r="A5" s="41">
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -3101,10 +3113,10 @@
         <v>92</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>270</v>
+        <v>140</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>267</v>
       </c>
       <c r="H5" s="5">
         <v>80.25</v>
@@ -3502,11 +3514,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN5" s="23">
+      <c r="DN5" s="22">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="DO5" s="24">
+      <c r="DO5" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -3541,15 +3553,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX5" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="DY5" s="25" t="s">
-        <v>224</v>
+      <c r="DX5" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="DY5" s="24" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A6" s="29">
+      <c r="A6" s="41">
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -3565,10 +3577,10 @@
         <v>94</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>271</v>
+        <v>140</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>268</v>
       </c>
       <c r="H6" s="5">
         <v>71</v>
@@ -3966,11 +3978,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN6" s="23">
+      <c r="DN6" s="22">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="DO6" s="24">
+      <c r="DO6" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -4005,15 +4017,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX6" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="DY6" s="25" t="s">
-        <v>225</v>
+      <c r="DX6" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="DY6" s="24" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
+      <c r="A7" s="41">
         <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -4029,10 +4041,10 @@
         <v>95</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>272</v>
+        <v>140</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>269</v>
       </c>
       <c r="H7" s="5">
         <v>75.75</v>
@@ -4430,11 +4442,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN7" s="23">
+      <c r="DN7" s="22">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="DO7" s="24">
+      <c r="DO7" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -4469,15 +4481,15 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX7" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="DY7" s="25" t="s">
-        <v>226</v>
+      <c r="DX7" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="DY7" s="24" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A8" s="29">
+      <c r="A8" s="41">
         <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -4493,10 +4505,10 @@
         <v>98</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>273</v>
+        <v>140</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>270</v>
       </c>
       <c r="H8" s="5">
         <v>77.25</v>
@@ -4894,11 +4906,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN8" s="23">
+      <c r="DN8" s="22">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="DO8" s="24">
+      <c r="DO8" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -4933,15 +4945,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX8" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="DY8" s="25" t="s">
-        <v>227</v>
+      <c r="DX8" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="DY8" s="24" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A9" s="29">
+      <c r="A9" s="41">
         <v>7</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -4954,13 +4966,13 @@
         <v>99</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>274</v>
+        <v>140</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>271</v>
       </c>
       <c r="H9" s="5">
         <v>82</v>
@@ -5358,11 +5370,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN9" s="23">
+      <c r="DN9" s="22">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
-      <c r="DO9" s="24">
+      <c r="DO9" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -5397,15 +5409,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX9" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="DY9" s="25" t="s">
-        <v>228</v>
+      <c r="DX9" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="DY9" s="24" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
+      <c r="A10" s="41">
         <v>8</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -5415,16 +5427,16 @@
         <v>182412008</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>309</v>
+        <v>184</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>306</v>
       </c>
       <c r="H10" s="5">
         <v>82</v>
@@ -5822,11 +5834,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN10" s="23">
+      <c r="DN10" s="22">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="DO10" s="24">
+      <c r="DO10" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -5861,15 +5873,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX10" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="DY10" s="25" t="s">
-        <v>229</v>
+      <c r="DX10" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="DY10" s="24" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
+      <c r="A11" s="28">
         <v>9</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -5885,10 +5897,10 @@
         <v>100</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>275</v>
+        <v>140</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>272</v>
       </c>
       <c r="H11" s="5">
         <v>74</v>
@@ -6286,11 +6298,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN11" s="23">
+      <c r="DN11" s="22">
         <f t="shared" si="0"/>
         <v>86.5</v>
       </c>
-      <c r="DO11" s="24">
+      <c r="DO11" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -6325,15 +6337,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX11" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="DY11" s="25" t="s">
-        <v>230</v>
+      <c r="DX11" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="DY11" s="24" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A12" s="29">
+      <c r="A12" s="41">
         <v>10</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -6349,10 +6361,10 @@
         <v>103</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>276</v>
+        <v>140</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>273</v>
       </c>
       <c r="H12" s="5">
         <v>72.5</v>
@@ -6750,11 +6762,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN12" s="23">
+      <c r="DN12" s="22">
         <f t="shared" si="0"/>
         <v>83.5</v>
       </c>
-      <c r="DO12" s="24">
+      <c r="DO12" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -6789,15 +6801,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX12" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="DY12" s="25" t="s">
-        <v>231</v>
+      <c r="DX12" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="DY12" s="24" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="A13" s="41">
         <v>11</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -6813,10 +6825,10 @@
         <v>104</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>277</v>
+        <v>140</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>274</v>
       </c>
       <c r="H13" s="5">
         <v>77.25</v>
@@ -7214,11 +7226,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN13" s="23">
+      <c r="DN13" s="22">
         <f t="shared" si="0"/>
         <v>86.5</v>
       </c>
-      <c r="DO13" s="24">
+      <c r="DO13" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -7253,15 +7265,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX13" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="DY13" s="25" t="s">
-        <v>232</v>
+      <c r="DX13" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="DY13" s="24" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:129" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29">
+      <c r="A14" s="41">
         <v>12</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -7277,10 +7289,10 @@
         <v>105</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>278</v>
+        <v>140</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>275</v>
       </c>
       <c r="H14" s="5">
         <v>83.5</v>
@@ -7678,11 +7690,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN14" s="23">
+      <c r="DN14" s="22">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="DO14" s="24">
+      <c r="DO14" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -7717,15 +7729,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX14" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="DY14" s="25" t="s">
-        <v>233</v>
+      <c r="DX14" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="DY14" s="24" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A15" s="29">
+      <c r="A15" s="41">
         <v>13</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -7735,16 +7747,16 @@
         <v>182412013</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>310</v>
+        <v>185</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>307</v>
       </c>
       <c r="H15" s="5">
         <v>71</v>
@@ -8142,11 +8154,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN15" s="23">
+      <c r="DN15" s="22">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="DO15" s="24">
+      <c r="DO15" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -8181,15 +8193,15 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX15" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="DY15" s="25" t="s">
-        <v>234</v>
+      <c r="DX15" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="DY15" s="24" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A16" s="29">
+      <c r="A16" s="41">
         <v>14</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -8202,13 +8214,13 @@
         <v>106</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>279</v>
+        <v>140</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>276</v>
       </c>
       <c r="H16" s="5">
         <v>77.25</v>
@@ -8606,11 +8618,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN16" s="23">
+      <c r="DN16" s="22">
         <f t="shared" si="0"/>
         <v>86.5</v>
       </c>
-      <c r="DO16" s="24">
+      <c r="DO16" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -8645,15 +8657,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX16" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="DY16" s="25" t="s">
-        <v>235</v>
+      <c r="DX16" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="DY16" s="24" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A17" s="29">
+      <c r="A17" s="28">
         <v>15</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -8663,16 +8675,16 @@
         <v>182412015</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>315</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>280</v>
+        <v>140</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>277</v>
       </c>
       <c r="H17" s="5">
         <v>80.25</v>
@@ -9070,11 +9082,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN17" s="23">
+      <c r="DN17" s="22">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="DO17" s="24">
+      <c r="DO17" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -9109,15 +9121,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX17" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="DY17" s="25" t="s">
-        <v>236</v>
+      <c r="DX17" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="DY17" s="24" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A18" s="29">
+      <c r="A18" s="41">
         <v>16</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -9127,16 +9139,16 @@
         <v>182412016</v>
       </c>
       <c r="D18" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="F18" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>281</v>
+        <v>140</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>278</v>
       </c>
       <c r="H18" s="5">
         <v>78.75</v>
@@ -9534,11 +9546,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN18" s="23">
+      <c r="DN18" s="22">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
-      <c r="DO18" s="24">
+      <c r="DO18" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -9573,15 +9585,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX18" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="DY18" s="25" t="s">
-        <v>237</v>
+      <c r="DX18" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="DY18" s="24" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A19" s="29">
+      <c r="A19" s="41">
         <v>17</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -9594,13 +9606,13 @@
         <v>106</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>282</v>
+        <v>140</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>279</v>
       </c>
       <c r="H19" s="5">
         <v>78.75</v>
@@ -9998,11 +10010,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN19" s="23">
+      <c r="DN19" s="22">
         <f t="shared" si="0"/>
         <v>86.5</v>
       </c>
-      <c r="DO19" s="24">
+      <c r="DO19" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -10037,15 +10049,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX19" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="DY19" s="25" t="s">
-        <v>238</v>
+      <c r="DX19" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="DY19" s="24" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A20" s="29">
+      <c r="A20" s="41">
         <v>18</v>
       </c>
       <c r="B20" s="15" t="s">
@@ -10055,16 +10067,16 @@
         <v>182412018</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>283</v>
+        <v>140</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>280</v>
       </c>
       <c r="H20" s="5">
         <v>77.25</v>
@@ -10462,11 +10474,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN20" s="23">
+      <c r="DN20" s="22">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="DO20" s="24">
+      <c r="DO20" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -10501,15 +10513,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX20" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="DY20" s="25" t="s">
-        <v>239</v>
+      <c r="DX20" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="DY20" s="24" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A21" s="29">
+      <c r="A21" s="41">
         <v>19</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -10519,16 +10531,16 @@
         <v>182412019</v>
       </c>
       <c r="D21" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>284</v>
+        <v>140</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>281</v>
       </c>
       <c r="H21" s="5">
         <v>72.5</v>
@@ -10926,11 +10938,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN21" s="23">
+      <c r="DN21" s="22">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="DO21" s="24">
+      <c r="DO21" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -10965,34 +10977,34 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX21" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="DY21" s="25" t="s">
-        <v>240</v>
+      <c r="DX21" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="DY21" s="24" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A22" s="29">
+      <c r="A22" s="41">
         <v>20</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C22" s="15">
         <v>182412020</v>
       </c>
       <c r="D22" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="F22" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>285</v>
+        <v>140</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>282</v>
       </c>
       <c r="H22" s="5">
         <v>75.75</v>
@@ -11390,11 +11402,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN22" s="23">
+      <c r="DN22" s="22">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="DO22" s="24">
+      <c r="DO22" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -11429,15 +11441,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX22" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="DY22" s="25" t="s">
-        <v>241</v>
+      <c r="DX22" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="DY22" s="24" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A23" s="29">
+      <c r="A23" s="41">
         <v>21</v>
       </c>
       <c r="B23" s="15" t="s">
@@ -11447,16 +11459,16 @@
         <v>182412021</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>311</v>
+        <v>184</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>308</v>
       </c>
       <c r="H23" s="5">
         <v>75.75</v>
@@ -11854,11 +11866,11 @@
         <f>DK23*DL23</f>
         <v>14</v>
       </c>
-      <c r="DN23" s="23">
+      <c r="DN23" s="22">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="DO23" s="24">
+      <c r="DO23" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -11893,15 +11905,15 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX23" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="DY23" s="25" t="s">
-        <v>242</v>
+      <c r="DX23" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="DY23" s="24" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A24" s="29">
+      <c r="A24" s="41">
         <v>22</v>
       </c>
       <c r="B24" s="15" t="s">
@@ -11911,16 +11923,16 @@
         <v>182412022</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>286</v>
+        <v>140</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>283</v>
       </c>
       <c r="H24" s="5">
         <v>71</v>
@@ -12318,11 +12330,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN24" s="23">
+      <c r="DN24" s="22">
         <f>L24+Q24+V24+AA24+AF24+AK24+AP24+AU24+AZ24+BE24+BJ24</f>
         <v>83</v>
       </c>
-      <c r="DO24" s="24">
+      <c r="DO24" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -12357,15 +12369,15 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX24" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="DY24" s="25" t="s">
-        <v>243</v>
+      <c r="DX24" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="DY24" s="24" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A25" s="29">
+      <c r="A25" s="41">
         <v>23</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -12375,16 +12387,16 @@
         <v>182412023</v>
       </c>
       <c r="D25" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>287</v>
+        <v>140</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>284</v>
       </c>
       <c r="H25" s="5">
         <v>75.75</v>
@@ -12782,11 +12794,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN25" s="23">
+      <c r="DN25" s="22">
         <f t="shared" ref="DN25:DN50" si="75">L25+Q25+V25+AA25+AF25+AK25+AP25+AU25+AZ25+BE25+BJ25</f>
         <v>85</v>
       </c>
-      <c r="DO25" s="24">
+      <c r="DO25" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -12821,15 +12833,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX25" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="DY25" s="25" t="s">
-        <v>244</v>
+      <c r="DX25" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="DY25" s="24" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A26" s="29">
+      <c r="A26" s="41">
         <v>24</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -12839,16 +12851,16 @@
         <v>182412026</v>
       </c>
       <c r="D26" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="F26" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>288</v>
+        <v>140</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>285</v>
       </c>
       <c r="H26" s="5">
         <v>74</v>
@@ -13246,11 +13258,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN26" s="23">
+      <c r="DN26" s="22">
         <f t="shared" si="75"/>
         <v>82</v>
       </c>
-      <c r="DO26" s="24">
+      <c r="DO26" s="23">
         <f>K26+P26+U26+Z26+AE26+AJ26+AO26+AT26+AY26+BD26+BI26</f>
         <v>24</v>
       </c>
@@ -13285,18 +13297,18 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX26" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="DY26" s="25" t="s">
-        <v>245</v>
+      <c r="DX26" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="DY26" s="24" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A27" s="29">
+      <c r="A27" s="41">
         <v>25</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="42" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="10">
@@ -13306,13 +13318,13 @@
         <v>106</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>196</v>
+        <v>316</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>312</v>
+        <v>184</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>309</v>
       </c>
       <c r="H27" s="5">
         <v>75.75</v>
@@ -13710,11 +13722,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN27" s="23">
+      <c r="DN27" s="22">
         <f t="shared" si="75"/>
         <v>85.5</v>
       </c>
-      <c r="DO27" s="24">
+      <c r="DO27" s="23">
         <f>K27+P27+U27+Z27+AE27+AJ27+AO27+AT27+AY27+BD27+BI27</f>
         <v>24</v>
       </c>
@@ -13749,18 +13761,18 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX27" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="DY27" s="25" t="s">
-        <v>317</v>
+      <c r="DX27" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="DY27" s="24" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A28" s="29">
+      <c r="A28" s="41">
         <v>26</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="42" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="15">
@@ -13770,13 +13782,13 @@
         <v>89</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>289</v>
+        <v>140</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>286</v>
       </c>
       <c r="H28" s="5">
         <v>75.75</v>
@@ -14174,11 +14186,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN28" s="23">
+      <c r="DN28" s="22">
         <f t="shared" si="75"/>
         <v>83</v>
       </c>
-      <c r="DO28" s="24">
+      <c r="DO28" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -14213,15 +14225,15 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX28" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="DY28" s="25" t="s">
-        <v>246</v>
+      <c r="DX28" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="DY28" s="24" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A29" s="29">
+      <c r="A29" s="41">
         <v>27</v>
       </c>
       <c r="B29" s="15" t="s">
@@ -14231,16 +14243,16 @@
         <v>182412030</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>290</v>
+        <v>140</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>287</v>
       </c>
       <c r="H29" s="5">
         <v>78.75</v>
@@ -14638,11 +14650,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN29" s="23">
+      <c r="DN29" s="22">
         <f t="shared" si="75"/>
         <v>88</v>
       </c>
-      <c r="DO29" s="24">
+      <c r="DO29" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -14677,15 +14689,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX29" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="DY29" s="25" t="s">
-        <v>247</v>
+      <c r="DX29" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="DY29" s="24" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A30" s="29">
+      <c r="A30" s="41">
         <v>28</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -14695,16 +14707,16 @@
         <v>182412031</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>291</v>
+        <v>140</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>288</v>
       </c>
       <c r="H30" s="5">
         <v>74</v>
@@ -15102,11 +15114,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN30" s="23">
+      <c r="DN30" s="22">
         <f t="shared" si="75"/>
         <v>88</v>
       </c>
-      <c r="DO30" s="24">
+      <c r="DO30" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -15141,15 +15153,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX30" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="DY30" s="25" t="s">
-        <v>248</v>
+      <c r="DX30" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="DY30" s="24" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A31" s="29">
+      <c r="A31" s="41">
         <v>29</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -15162,13 +15174,13 @@
         <v>106</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>292</v>
+        <v>140</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>289</v>
       </c>
       <c r="H31" s="5">
         <v>74</v>
@@ -15566,11 +15578,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN31" s="23">
+      <c r="DN31" s="22">
         <f t="shared" si="75"/>
         <v>87.5</v>
       </c>
-      <c r="DO31" s="24">
+      <c r="DO31" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -15605,15 +15617,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX31" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="DY31" s="25" t="s">
-        <v>249</v>
+      <c r="DX31" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="DY31" s="24" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A32" s="29">
+      <c r="A32" s="41">
         <v>30</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -15623,16 +15635,16 @@
         <v>182412034</v>
       </c>
       <c r="D32" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="F32" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>293</v>
+        <v>140</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>290</v>
       </c>
       <c r="H32" s="5">
         <v>78.75</v>
@@ -16030,11 +16042,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN32" s="23">
+      <c r="DN32" s="22">
         <f t="shared" si="75"/>
         <v>84</v>
       </c>
-      <c r="DO32" s="24">
+      <c r="DO32" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -16069,15 +16081,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX32" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="DY32" s="25" t="s">
-        <v>250</v>
+      <c r="DX32" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="DY32" s="24" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A33" s="29">
+      <c r="A33" s="41">
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
@@ -16087,16 +16099,16 @@
         <v>182412035</v>
       </c>
       <c r="D33" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>125</v>
-      </c>
       <c r="F33" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>294</v>
+        <v>140</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>291</v>
       </c>
       <c r="H33" s="5">
         <v>72.5</v>
@@ -16494,11 +16506,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN33" s="23">
+      <c r="DN33" s="22">
         <f t="shared" si="75"/>
         <v>82</v>
       </c>
-      <c r="DO33" s="24">
+      <c r="DO33" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -16533,15 +16545,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX33" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="DY33" s="25" t="s">
-        <v>251</v>
+      <c r="DX33" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="DY33" s="24" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A34" s="29">
+      <c r="A34" s="41">
         <v>32</v>
       </c>
       <c r="B34" s="10" t="s">
@@ -16551,16 +16563,16 @@
         <v>182412036</v>
       </c>
       <c r="D34" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="F34" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34" s="28" t="s">
-        <v>295</v>
+        <v>140</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>292</v>
       </c>
       <c r="H34" s="5">
         <v>77.25</v>
@@ -16958,11 +16970,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN34" s="23">
+      <c r="DN34" s="22">
         <f t="shared" si="75"/>
         <v>87</v>
       </c>
-      <c r="DO34" s="24">
+      <c r="DO34" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -16997,15 +17009,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX34" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="DY34" s="25" t="s">
-        <v>252</v>
+      <c r="DX34" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="DY34" s="24" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A35" s="29">
+      <c r="A35" s="41">
         <v>33</v>
       </c>
       <c r="B35" s="10" t="s">
@@ -17015,16 +17027,16 @@
         <v>182412037</v>
       </c>
       <c r="D35" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="F35" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G35" s="28" t="s">
-        <v>296</v>
+        <v>140</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>293</v>
       </c>
       <c r="H35" s="5">
         <v>75.75</v>
@@ -17422,11 +17434,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN35" s="23">
+      <c r="DN35" s="22">
         <f t="shared" si="75"/>
         <v>85.5</v>
       </c>
-      <c r="DO35" s="24">
+      <c r="DO35" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -17461,15 +17473,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX35" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="DY35" s="25" t="s">
-        <v>253</v>
+      <c r="DX35" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="DY35" s="24" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A36" s="29">
+      <c r="A36" s="41">
         <v>34</v>
       </c>
       <c r="B36" s="10" t="s">
@@ -17479,16 +17491,16 @@
         <v>182412038</v>
       </c>
       <c r="D36" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>131</v>
-      </c>
       <c r="F36" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" s="28" t="s">
-        <v>297</v>
+        <v>140</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>294</v>
       </c>
       <c r="H36" s="5">
         <v>78.75</v>
@@ -17886,11 +17898,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN36" s="23">
+      <c r="DN36" s="22">
         <f t="shared" si="75"/>
         <v>91</v>
       </c>
-      <c r="DO36" s="24">
+      <c r="DO36" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -17925,15 +17937,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX36" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="DY36" s="25" t="s">
-        <v>254</v>
+      <c r="DX36" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="DY36" s="24" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A37" s="29">
+      <c r="A37" s="41">
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
@@ -17943,16 +17955,16 @@
         <v>182412039</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>298</v>
+        <v>140</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>295</v>
       </c>
       <c r="H37" s="5">
         <v>77.25</v>
@@ -18350,11 +18362,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN37" s="23">
+      <c r="DN37" s="22">
         <f t="shared" si="75"/>
         <v>89.5</v>
       </c>
-      <c r="DO37" s="24">
+      <c r="DO37" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -18389,15 +18401,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX37" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="DY37" s="25" t="s">
-        <v>255</v>
+      <c r="DX37" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="DY37" s="24" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A38" s="29">
+      <c r="A38" s="41">
         <v>36</v>
       </c>
       <c r="B38" s="10" t="s">
@@ -18407,16 +18419,16 @@
         <v>182412040</v>
       </c>
       <c r="D38" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>175</v>
-      </c>
       <c r="F38" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>299</v>
+        <v>140</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>296</v>
       </c>
       <c r="H38" s="5">
         <v>80.25</v>
@@ -18814,11 +18826,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN38" s="23">
+      <c r="DN38" s="22">
         <f t="shared" si="75"/>
         <v>86.5</v>
       </c>
-      <c r="DO38" s="24">
+      <c r="DO38" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -18853,15 +18865,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX38" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="DY38" s="25" t="s">
-        <v>256</v>
+      <c r="DX38" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="DY38" s="24" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A39" s="29">
+      <c r="A39" s="41">
         <v>37</v>
       </c>
       <c r="B39" s="10" t="s">
@@ -18874,13 +18886,13 @@
         <v>89</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>300</v>
+        <v>140</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>297</v>
       </c>
       <c r="H39" s="5">
         <v>77.25</v>
@@ -19278,11 +19290,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN39" s="23">
+      <c r="DN39" s="22">
         <f t="shared" si="75"/>
         <v>83</v>
       </c>
-      <c r="DO39" s="24">
+      <c r="DO39" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -19317,15 +19329,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX39" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="DY39" s="25" t="s">
-        <v>257</v>
+      <c r="DX39" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="DY39" s="24" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A40" s="29">
+      <c r="A40" s="41">
         <v>38</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -19338,13 +19350,13 @@
         <v>89</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G40" s="28" t="s">
-        <v>301</v>
+        <v>140</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>298</v>
       </c>
       <c r="H40" s="5">
         <v>80.25</v>
@@ -19742,11 +19754,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN40" s="23">
+      <c r="DN40" s="22">
         <f t="shared" si="75"/>
         <v>85</v>
       </c>
-      <c r="DO40" s="24">
+      <c r="DO40" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -19781,15 +19793,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX40" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="DY40" s="25" t="s">
-        <v>258</v>
+      <c r="DX40" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="DY40" s="24" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A41" s="29">
+      <c r="A41" s="41">
         <v>39</v>
       </c>
       <c r="B41" s="10" t="s">
@@ -19802,13 +19814,13 @@
         <v>89</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>302</v>
+        <v>140</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>299</v>
       </c>
       <c r="H41" s="5">
         <v>80.25</v>
@@ -20206,11 +20218,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN41" s="23">
+      <c r="DN41" s="22">
         <f t="shared" si="75"/>
         <v>88.5</v>
       </c>
-      <c r="DO41" s="24">
+      <c r="DO41" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -20245,15 +20257,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX41" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="DY41" s="25" t="s">
-        <v>259</v>
+      <c r="DX41" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="DY41" s="24" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A42" s="29">
+      <c r="A42" s="41">
         <v>40</v>
       </c>
       <c r="B42" s="10" t="s">
@@ -20266,13 +20278,13 @@
         <v>89</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>313</v>
+        <v>184</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>310</v>
       </c>
       <c r="H42" s="5">
         <v>71</v>
@@ -20670,11 +20682,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN42" s="23">
+      <c r="DN42" s="22">
         <f t="shared" si="75"/>
         <v>81</v>
       </c>
-      <c r="DO42" s="24">
+      <c r="DO42" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -20710,15 +20722,15 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX42" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="DY42" s="25" t="s">
-        <v>260</v>
+      <c r="DX42" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="DY42" s="24" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A43" s="29">
+      <c r="A43" s="41">
         <v>41</v>
       </c>
       <c r="B43" s="10" t="s">
@@ -20731,13 +20743,13 @@
         <v>89</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G43" s="28" t="s">
-        <v>303</v>
+        <v>140</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>300</v>
       </c>
       <c r="H43" s="5">
         <v>78.75</v>
@@ -21135,11 +21147,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN43" s="23">
+      <c r="DN43" s="22">
         <f t="shared" si="75"/>
         <v>86.5</v>
       </c>
-      <c r="DO43" s="24">
+      <c r="DO43" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -21174,18 +21186,18 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX43" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="DY43" s="25" t="s">
-        <v>261</v>
+      <c r="DX43" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="DY43" s="24" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A44" s="29">
+      <c r="A44" s="41">
         <v>42</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="18" t="s">
         <v>59</v>
       </c>
       <c r="C44" s="10">
@@ -21195,13 +21207,13 @@
         <v>106</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G44" s="28" t="s">
-        <v>314</v>
+        <v>184</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>311</v>
       </c>
       <c r="H44" s="5">
         <v>78.75</v>
@@ -21599,11 +21611,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN44" s="23">
+      <c r="DN44" s="22">
         <f t="shared" si="75"/>
         <v>86</v>
       </c>
-      <c r="DO44" s="24">
+      <c r="DO44" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -21638,15 +21650,15 @@
         <f>IF(DU44&gt;=3.51,"Excellent",(IF(DU44&gt;=2.75,"Highly Satisfactory",(IF(DU44&gt;=2,"Satisfactory","FAILED")))))</f>
         <v>Excellent</v>
       </c>
-      <c r="DX44" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="DY44" s="25" t="s">
-        <v>262</v>
+      <c r="DX44" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="DY44" s="24" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A45" s="29">
+      <c r="A45" s="43">
         <v>43</v>
       </c>
       <c r="B45" s="10" t="s">
@@ -21656,16 +21668,16 @@
         <v>182412048</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>187</v>
+        <v>317</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G45" s="28" t="s">
-        <v>304</v>
+        <v>140</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>301</v>
       </c>
       <c r="H45" s="5">
         <v>75.75</v>
@@ -21865,10 +21877,10 @@
         <f t="shared" si="33"/>
         <v>7</v>
       </c>
-      <c r="BK45" s="30">
+      <c r="BK45" s="29">
         <v>78.13</v>
       </c>
-      <c r="BL45" s="31" t="str">
+      <c r="BL45" s="30" t="str">
         <f t="shared" si="34"/>
         <v>B+</v>
       </c>
@@ -21876,17 +21888,17 @@
         <f t="shared" si="35"/>
         <v>3.5</v>
       </c>
-      <c r="BN45" s="30">
+      <c r="BN45" s="29">
         <v>2</v>
       </c>
       <c r="BO45" s="2">
         <f t="shared" si="36"/>
         <v>7</v>
       </c>
-      <c r="BP45" s="30">
+      <c r="BP45" s="29">
         <v>79.3</v>
       </c>
-      <c r="BQ45" s="31" t="str">
+      <c r="BQ45" s="30" t="str">
         <f t="shared" si="37"/>
         <v>B+</v>
       </c>
@@ -21894,17 +21906,17 @@
         <f t="shared" si="38"/>
         <v>3.5</v>
       </c>
-      <c r="BS45" s="30">
+      <c r="BS45" s="29">
         <v>2</v>
       </c>
       <c r="BT45" s="2">
         <f t="shared" si="39"/>
         <v>7</v>
       </c>
-      <c r="BU45" s="30">
+      <c r="BU45" s="29">
         <v>80</v>
       </c>
-      <c r="BV45" s="31" t="str">
+      <c r="BV45" s="30" t="str">
         <f t="shared" si="40"/>
         <v>A</v>
       </c>
@@ -21912,17 +21924,17 @@
         <f t="shared" si="41"/>
         <v>4</v>
       </c>
-      <c r="BX45" s="30">
+      <c r="BX45" s="29">
         <v>2</v>
       </c>
       <c r="BY45" s="2">
         <f t="shared" si="42"/>
         <v>8</v>
       </c>
-      <c r="BZ45" s="30">
+      <c r="BZ45" s="29">
         <v>77.7</v>
       </c>
-      <c r="CA45" s="31" t="str">
+      <c r="CA45" s="30" t="str">
         <f t="shared" si="43"/>
         <v>B+</v>
       </c>
@@ -21930,17 +21942,17 @@
         <f t="shared" si="44"/>
         <v>3.5</v>
       </c>
-      <c r="CC45" s="30">
+      <c r="CC45" s="29">
         <v>2</v>
       </c>
       <c r="CD45" s="2">
         <f t="shared" si="45"/>
         <v>7</v>
       </c>
-      <c r="CE45" s="30">
+      <c r="CE45" s="29">
         <v>85</v>
       </c>
-      <c r="CF45" s="31" t="str">
+      <c r="CF45" s="30" t="str">
         <f t="shared" si="46"/>
         <v>A</v>
       </c>
@@ -21948,17 +21960,17 @@
         <f t="shared" si="47"/>
         <v>4</v>
       </c>
-      <c r="CH45" s="30">
+      <c r="CH45" s="29">
         <v>2</v>
       </c>
       <c r="CI45" s="2">
         <f t="shared" si="48"/>
         <v>8</v>
       </c>
-      <c r="CJ45" s="30">
+      <c r="CJ45" s="29">
         <v>71.33</v>
       </c>
-      <c r="CK45" s="31" t="str">
+      <c r="CK45" s="30" t="str">
         <f t="shared" si="49"/>
         <v>B</v>
       </c>
@@ -21973,10 +21985,10 @@
         <f t="shared" si="51"/>
         <v>6</v>
       </c>
-      <c r="CO45" s="30">
+      <c r="CO45" s="29">
         <v>76.599999999999994</v>
       </c>
-      <c r="CP45" s="31" t="str">
+      <c r="CP45" s="30" t="str">
         <f t="shared" si="52"/>
         <v>B+</v>
       </c>
@@ -21991,10 +22003,10 @@
         <f t="shared" si="54"/>
         <v>7</v>
       </c>
-      <c r="CT45" s="30">
+      <c r="CT45" s="29">
         <v>81.8</v>
       </c>
-      <c r="CU45" s="31" t="str">
+      <c r="CU45" s="30" t="str">
         <f t="shared" si="55"/>
         <v>A</v>
       </c>
@@ -22009,10 +22021,10 @@
         <f t="shared" si="57"/>
         <v>8</v>
       </c>
-      <c r="CY45" s="30">
+      <c r="CY45" s="29">
         <v>77</v>
       </c>
-      <c r="CZ45" s="31" t="str">
+      <c r="CZ45" s="30" t="str">
         <f t="shared" si="58"/>
         <v>B+</v>
       </c>
@@ -22020,17 +22032,17 @@
         <f t="shared" si="59"/>
         <v>3.5</v>
       </c>
-      <c r="DB45" s="30">
+      <c r="DB45" s="29">
         <v>2</v>
       </c>
       <c r="DC45" s="3">
         <f t="shared" si="60"/>
         <v>7</v>
       </c>
-      <c r="DD45" s="30">
+      <c r="DD45" s="29">
         <v>74.5</v>
       </c>
-      <c r="DE45" s="31" t="str">
+      <c r="DE45" s="30" t="str">
         <f t="shared" si="61"/>
         <v>B</v>
       </c>
@@ -22038,17 +22050,17 @@
         <f t="shared" si="62"/>
         <v>3</v>
       </c>
-      <c r="DG45" s="30">
+      <c r="DG45" s="29">
         <v>2</v>
       </c>
       <c r="DH45" s="2">
         <f t="shared" si="63"/>
         <v>6</v>
       </c>
-      <c r="DI45" s="30">
+      <c r="DI45" s="29">
         <v>78</v>
       </c>
-      <c r="DJ45" s="31" t="str">
+      <c r="DJ45" s="30" t="str">
         <f t="shared" si="64"/>
         <v>B+</v>
       </c>
@@ -22056,18 +22068,18 @@
         <f t="shared" si="65"/>
         <v>3.5</v>
       </c>
-      <c r="DL45" s="30">
+      <c r="DL45" s="29">
         <v>4</v>
       </c>
       <c r="DM45" s="2">
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN45" s="23">
+      <c r="DN45" s="22">
         <f t="shared" si="75"/>
         <v>85.5</v>
       </c>
-      <c r="DO45" s="24">
+      <c r="DO45" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -22099,19 +22111,19 @@
         <f>IF(DU45&gt;=3.51,"Cum Laude",(IF(DU45&gt;=2.75,"Sangat Memuaskan",(IF(DU45&gt;=2,"Memuaskan","GAGAL")))))</f>
         <v>Cum Laude</v>
       </c>
-      <c r="DW45" s="32" t="str">
+      <c r="DW45" s="31" t="str">
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX45" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="DY45" s="25" t="s">
-        <v>263</v>
+      <c r="DX45" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="DY45" s="24" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A46" s="29">
+      <c r="A46" s="41">
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -22121,16 +22133,16 @@
         <v>182412049</v>
       </c>
       <c r="D46" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>137</v>
-      </c>
       <c r="F46" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G46" s="28" t="s">
-        <v>305</v>
+        <v>140</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>302</v>
       </c>
       <c r="H46" s="5">
         <v>83.5</v>
@@ -22528,11 +22540,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN46" s="23">
+      <c r="DN46" s="22">
         <f t="shared" si="75"/>
         <v>88</v>
       </c>
-      <c r="DO46" s="24">
+      <c r="DO46" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -22567,15 +22579,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX46" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="DY46" s="25" t="s">
-        <v>264</v>
+      <c r="DX46" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="DY46" s="24" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A47" s="29">
+      <c r="A47" s="41">
         <v>45</v>
       </c>
       <c r="B47" s="10" t="s">
@@ -22588,13 +22600,13 @@
         <v>99</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G47" s="28" t="s">
-        <v>306</v>
+        <v>140</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>303</v>
       </c>
       <c r="H47" s="5">
         <v>80.25</v>
@@ -22992,11 +23004,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN47" s="23">
+      <c r="DN47" s="22">
         <f t="shared" si="75"/>
         <v>89</v>
       </c>
-      <c r="DO47" s="24">
+      <c r="DO47" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -23031,18 +23043,18 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX47" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="DY47" s="25" t="s">
-        <v>265</v>
+      <c r="DX47" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="DY47" s="24" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A48" s="29">
+      <c r="A48" s="41">
         <v>46</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C48" s="10">
@@ -23052,13 +23064,13 @@
         <v>106</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G48" s="28" t="s">
-        <v>307</v>
+        <v>140</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>304</v>
       </c>
       <c r="H48" s="5">
         <v>74</v>
@@ -23456,11 +23468,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN48" s="23">
+      <c r="DN48" s="22">
         <f t="shared" si="75"/>
         <v>79.5</v>
       </c>
-      <c r="DO48" s="24">
+      <c r="DO48" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -23495,11 +23507,11 @@
         <f t="shared" si="74"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX48" s="25"/>
-      <c r="DY48" s="25"/>
+      <c r="DX48" s="24"/>
+      <c r="DY48" s="24"/>
     </row>
     <row r="49" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A49" s="29">
+      <c r="A49" s="41">
         <v>47</v>
       </c>
       <c r="B49" s="10" t="s">
@@ -23509,16 +23521,16 @@
         <v>182412054</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G49" s="28" t="s">
-        <v>315</v>
+        <v>184</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>312</v>
       </c>
       <c r="H49" s="5">
         <v>71</v>
@@ -23916,11 +23928,11 @@
         <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="DN49" s="23">
+      <c r="DN49" s="22">
         <f t="shared" si="75"/>
         <v>84.5</v>
       </c>
-      <c r="DO49" s="24">
+      <c r="DO49" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -23955,15 +23967,15 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX49" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="DY49" s="25" t="s">
-        <v>266</v>
+      <c r="DX49" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="DY49" s="24" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="50" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A50" s="29">
+      <c r="A50" s="43">
         <v>48</v>
       </c>
       <c r="B50" s="10" t="s">
@@ -23973,16 +23985,16 @@
         <v>182412055</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E50" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F50" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G50" s="28" t="s">
-        <v>308</v>
+      <c r="G50" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="H50" s="5">
         <v>78.75</v>
@@ -24380,11 +24392,11 @@
         <f t="shared" si="66"/>
         <v>16</v>
       </c>
-      <c r="DN50" s="23">
+      <c r="DN50" s="22">
         <f t="shared" si="75"/>
         <v>84</v>
       </c>
-      <c r="DO50" s="24">
+      <c r="DO50" s="23">
         <f t="shared" si="67"/>
         <v>24</v>
       </c>
@@ -24419,29 +24431,24 @@
         <f t="shared" si="74"/>
         <v>Excellent</v>
       </c>
-      <c r="DX50" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="DY50" s="25" t="s">
-        <v>267</v>
+      <c r="DX50" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="DY50" s="24" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="DY1:DY2"/>
-    <mergeCell ref="DX1:DX2"/>
-    <mergeCell ref="CT1:CX1"/>
-    <mergeCell ref="CY1:DC1"/>
-    <mergeCell ref="DD1:DH1"/>
-    <mergeCell ref="DI1:DM1"/>
-    <mergeCell ref="DT1:DT2"/>
-    <mergeCell ref="DS1:DS2"/>
-    <mergeCell ref="DR1:DR2"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="DU1:DU2"/>
-    <mergeCell ref="DV1:DV2"/>
-    <mergeCell ref="DW1:DW2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="CO1:CS1"/>
     <mergeCell ref="BA1:BE1"/>
@@ -24458,15 +24465,20 @@
     <mergeCell ref="BP1:BT1"/>
     <mergeCell ref="BU1:BY1"/>
     <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="DU1:DU2"/>
+    <mergeCell ref="DV1:DV2"/>
+    <mergeCell ref="DW1:DW2"/>
+    <mergeCell ref="DY1:DY2"/>
+    <mergeCell ref="DX1:DX2"/>
+    <mergeCell ref="CT1:CX1"/>
+    <mergeCell ref="CY1:DC1"/>
+    <mergeCell ref="DD1:DH1"/>
+    <mergeCell ref="DI1:DM1"/>
+    <mergeCell ref="DT1:DT2"/>
+    <mergeCell ref="DS1:DS2"/>
+    <mergeCell ref="DR1:DR2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
